--- a/data/sourse.xlsx
+++ b/data/sourse.xlsx
@@ -484,7 +484,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>南平</t>
+          <t>福州</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -496,7 +496,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>南通</t>
+          <t>南平</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -508,7 +508,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>衡阳</t>
+          <t>南通</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -520,7 +520,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>福州</t>
+          <t>衡阳</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">

--- a/data/sourse.xlsx
+++ b/data/sourse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,7 +472,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>廊坊</t>
+          <t>福州</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -484,7 +484,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>福州</t>
+          <t>南平</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -496,7 +496,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>南平</t>
+          <t>南通</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -508,7 +508,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>南通</t>
+          <t>衡阳</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -520,7 +520,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>衡阳</t>
+          <t>晋中</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -532,7 +532,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>晋中</t>
+          <t>佛山</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -544,7 +544,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>佛山</t>
+          <t>上饶</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -556,7 +556,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>上饶</t>
+          <t>泉州</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -568,7 +568,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>石家庄</t>
+          <t>呼和浩特</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -580,7 +580,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>泉州</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -592,7 +592,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>呼和浩特</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -604,7 +604,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -616,31 +616,31 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>贵阳</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -652,31 +652,31 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>贵阳</t>
+          <t>南宁</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>济南</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -688,7 +688,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>南宁</t>
+          <t>哈尔滨</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -700,7 +700,7 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>济南</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -712,7 +712,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>哈尔滨</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -724,7 +724,7 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -736,34 +736,10 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>重庆</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <t>北京</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
         <is>
           <t>较多</t>
         </is>

--- a/data/sourse.xlsx
+++ b/data/sourse.xlsx
@@ -451,10 +451,8 @@
           <t>无锡</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>较少</t>
-        </is>
+      <c r="B2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -463,10 +461,8 @@
           <t>连云港</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>较少</t>
-        </is>
+      <c r="B3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -475,10 +471,8 @@
           <t>福州</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>较少</t>
-        </is>
+      <c r="B4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -487,10 +481,8 @@
           <t>南平</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>较少</t>
-        </is>
+      <c r="B5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -499,10 +491,8 @@
           <t>南通</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>较少</t>
-        </is>
+      <c r="B6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -511,10 +501,8 @@
           <t>衡阳</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>较少</t>
-        </is>
+      <c r="B7" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -523,10 +511,8 @@
           <t>晋中</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>较少</t>
-        </is>
+      <c r="B8" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -535,10 +521,8 @@
           <t>佛山</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>较少</t>
-        </is>
+      <c r="B9" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="10">
@@ -547,10 +531,8 @@
           <t>上饶</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>较少</t>
-        </is>
+      <c r="B10" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="11">
@@ -559,10 +541,8 @@
           <t>泉州</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>较少</t>
-        </is>
+      <c r="B11" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="12">
@@ -571,10 +551,8 @@
           <t>呼和浩特</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>较少</t>
-        </is>
+      <c r="B12" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="13">
@@ -583,10 +561,8 @@
           <t>太原</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>较少</t>
-        </is>
+      <c r="B13" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="14">
@@ -595,10 +571,8 @@
           <t>海南</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>较少</t>
-        </is>
+      <c r="B14" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="15">
@@ -607,10 +581,8 @@
           <t>长沙</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>较少</t>
-        </is>
+      <c r="B15" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="16">
@@ -619,10 +591,8 @@
           <t>青岛</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>足够</t>
-        </is>
+      <c r="B16" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="17">
@@ -631,10 +601,8 @@
           <t>深圳</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>足够</t>
-        </is>
+      <c r="B17" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="18">
@@ -643,10 +611,8 @@
           <t>贵阳</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>足够</t>
-        </is>
+      <c r="B18" t="n">
+        <v>91</v>
       </c>
     </row>
     <row r="19">
@@ -655,10 +621,8 @@
           <t>成都</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
+      <c r="B19" t="n">
+        <v>101</v>
       </c>
     </row>
     <row r="20">
@@ -667,10 +631,8 @@
           <t>南宁</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
+      <c r="B20" t="n">
+        <v>108</v>
       </c>
     </row>
     <row r="21">
@@ -679,10 +641,8 @@
           <t>济南</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
+      <c r="B21" t="n">
+        <v>111</v>
       </c>
     </row>
     <row r="22">
@@ -691,10 +651,8 @@
           <t>哈尔滨</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
+      <c r="B22" t="n">
+        <v>124</v>
       </c>
     </row>
     <row r="23">
@@ -703,10 +661,8 @@
           <t>天津</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
+      <c r="B23" t="n">
+        <v>126</v>
       </c>
     </row>
     <row r="24">
@@ -715,10 +671,8 @@
           <t>广州</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
+      <c r="B24" t="n">
+        <v>149</v>
       </c>
     </row>
     <row r="25">
@@ -727,10 +681,8 @@
           <t>重庆</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
+      <c r="B25" t="n">
+        <v>229</v>
       </c>
     </row>
     <row r="26">
@@ -739,10 +691,8 @@
           <t>北京</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
+      <c r="B26" t="n">
+        <v>340</v>
       </c>
     </row>
   </sheetData>

--- a/data/sourse.xlsx
+++ b/data/sourse.xlsx
@@ -451,8 +451,10 @@
           <t>无锡</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>1</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>较少</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -461,8 +463,10 @@
           <t>连云港</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>3</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>较少</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -471,8 +475,10 @@
           <t>福州</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>6</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>较少</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -481,8 +487,10 @@
           <t>南平</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>7</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>较少</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -491,8 +499,10 @@
           <t>南通</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>7</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>较少</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -501,8 +511,10 @@
           <t>衡阳</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>8</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>较少</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -511,8 +523,10 @@
           <t>晋中</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>9</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>较少</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -521,8 +535,10 @@
           <t>佛山</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>11</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>较少</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -531,8 +547,10 @@
           <t>上饶</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>13</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>较少</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -541,8 +559,10 @@
           <t>泉州</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>27</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>较少</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -551,8 +571,10 @@
           <t>呼和浩特</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>30</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>较少</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -561,8 +583,10 @@
           <t>太原</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>36</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>较少</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -571,8 +595,10 @@
           <t>海南</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>38</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>较少</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -581,8 +607,10 @@
           <t>长沙</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>44</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>较少</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -591,8 +619,10 @@
           <t>青岛</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>58</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>足够</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -601,8 +631,10 @@
           <t>深圳</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>61</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>足够</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -611,8 +643,10 @@
           <t>贵阳</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>91</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>足够</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -621,8 +655,10 @@
           <t>成都</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>101</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -631,8 +667,10 @@
           <t>南宁</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>108</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -641,8 +679,10 @@
           <t>济南</t>
         </is>
       </c>
-      <c r="B21" t="n">
-        <v>111</v>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -651,8 +691,10 @@
           <t>哈尔滨</t>
         </is>
       </c>
-      <c r="B22" t="n">
-        <v>124</v>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -661,8 +703,10 @@
           <t>天津</t>
         </is>
       </c>
-      <c r="B23" t="n">
-        <v>126</v>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -671,8 +715,10 @@
           <t>广州</t>
         </is>
       </c>
-      <c r="B24" t="n">
-        <v>149</v>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
       </c>
     </row>
     <row r="25">
@@ -681,8 +727,10 @@
           <t>重庆</t>
         </is>
       </c>
-      <c r="B25" t="n">
-        <v>229</v>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
       </c>
     </row>
     <row r="26">
@@ -691,8 +739,10 @@
           <t>北京</t>
         </is>
       </c>
-      <c r="B26" t="n">
-        <v>340</v>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/data/sourse.xlsx
+++ b/data/sourse.xlsx
@@ -657,7 +657,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>足够</t>
         </is>
       </c>
     </row>

--- a/data/sourse.xlsx
+++ b/data/sourse.xlsx
@@ -616,19 +616,19 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -724,7 +724,7 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -736,7 +736,7 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">

--- a/data/sourse.xlsx
+++ b/data/sourse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>无锡</t>
+          <t>福州</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -460,7 +460,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>连云港</t>
+          <t>南通</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -472,7 +472,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>福州</t>
+          <t>连云港</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -496,7 +496,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>南通</t>
+          <t>衡阳</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -508,7 +508,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>衡阳</t>
+          <t>晋中</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -520,7 +520,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>晋中</t>
+          <t>佛山</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -532,7 +532,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>佛山</t>
+          <t>上饶</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -544,7 +544,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>上饶</t>
+          <t>泉州</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -556,7 +556,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>泉州</t>
+          <t>呼和浩特</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -568,7 +568,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>呼和浩特</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -580,7 +580,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -592,7 +592,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -604,7 +604,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -616,19 +616,19 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>贵阳</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -640,7 +640,7 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>贵阳</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -652,19 +652,19 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>南宁</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>南宁</t>
+          <t>济南</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -676,7 +676,7 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>济南</t>
+          <t>哈尔滨</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -688,7 +688,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>哈尔滨</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -700,7 +700,7 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -712,7 +712,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -724,22 +724,10 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>重庆</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
         <is>
           <t>较多</t>
         </is>

--- a/data/sourse.xlsx
+++ b/data/sourse.xlsx
@@ -568,7 +568,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -580,7 +580,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -592,7 +592,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -604,7 +604,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -628,7 +628,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>贵阳</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -640,7 +640,7 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>贵阳</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -712,7 +712,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -724,7 +724,7 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">

--- a/data/sourse.xlsx
+++ b/data/sourse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>福州</t>
+          <t>上饶</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -460,7 +460,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>南通</t>
+          <t>晋中</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -472,7 +472,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>连云港</t>
+          <t>泉州</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -484,7 +484,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>南平</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -496,7 +496,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>衡阳</t>
+          <t>呼和浩特</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -508,7 +508,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>晋中</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -520,7 +520,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>佛山</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -532,7 +532,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>上饶</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -544,7 +544,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>泉州</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -556,178 +556,94 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>呼和浩特</t>
+          <t>贵阳</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>南宁</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>济南</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>哈尔滨</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>贵阳</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
-        <is>
-          <t>足够</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>南宁</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>济南</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>哈尔滨</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>天津</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>广州</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>重庆</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>北京</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
         <is>
           <t>较多</t>
         </is>

--- a/data/sourse.xlsx
+++ b/data/sourse.xlsx
@@ -472,7 +472,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>泉州</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -484,7 +484,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>泉州</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -508,7 +508,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -520,7 +520,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -532,7 +532,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -604,7 +604,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>哈尔滨</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -616,7 +616,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>哈尔滨</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">

--- a/data/sourse.xlsx
+++ b/data/sourse.xlsx
@@ -592,19 +592,19 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>济南</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>济南</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">

--- a/data/sourse.xlsx
+++ b/data/sourse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>上饶</t>
+          <t>晋中</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -460,7 +460,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>晋中</t>
+          <t>泉州</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -484,7 +484,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>泉州</t>
+          <t>呼和浩特</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -496,7 +496,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>呼和浩特</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -508,7 +508,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -520,7 +520,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -532,7 +532,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -544,12 +544,12 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -568,7 +568,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>济南</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -592,7 +592,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -604,7 +604,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>济南</t>
+          <t>哈尔滨</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -616,7 +616,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>哈尔滨</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -628,22 +628,10 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>重庆</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
         <is>
           <t>较多</t>
         </is>

--- a/data/sourse.xlsx
+++ b/data/sourse.xlsx
@@ -532,7 +532,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -544,19 +544,19 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>贵阳</t>
+          <t>济南</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -568,7 +568,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>济南</t>
+          <t>贵阳</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -604,7 +604,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>哈尔滨</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -616,7 +616,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>哈尔滨</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">

--- a/data/sourse.xlsx
+++ b/data/sourse.xlsx
@@ -460,7 +460,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>泉州</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -472,7 +472,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>泉州</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">

--- a/data/sourse.xlsx
+++ b/data/sourse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,7 +460,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>泉州</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -472,7 +472,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>泉州</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -508,7 +508,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -520,7 +520,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -544,12 +544,12 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -592,7 +592,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -604,34 +604,10 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>哈尔滨</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>哈尔滨</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>重庆</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
         <is>
           <t>较多</t>
         </is>

--- a/data/sourse.xlsx
+++ b/data/sourse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,7 +508,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -520,7 +520,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -532,7 +532,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -544,31 +544,31 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>济南</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>贵阳</t>
+          <t>济南</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -580,7 +580,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>南宁</t>
+          <t>贵阳</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -592,7 +592,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>南宁</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -604,10 +604,34 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
+          <t>天津</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>足够</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
           <t>哈尔滨</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>重庆</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>较多</t>
         </is>

--- a/data/sourse.xlsx
+++ b/data/sourse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:C141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,202 +436,2395 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>note</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>城市</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>数量状态</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>柳州</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>较少</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>邯郸</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>较少</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>菏泽</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>较少</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>大庆</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>较少</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>朝阳</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>较少</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>赤峰</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>较少</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>丹东</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>较少</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>松原</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>较少</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>绥化</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>较少</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>四平</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>较少</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>葫芦岛</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>较少</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>黑河</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>较少</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>牡丹江</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>较少</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>白城</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>较少</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>营口</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>较少</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>锦州</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>较少</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>佳木斯</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>较少</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>通辽</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>较少</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>商丘</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>较少</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>阳泉</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>较少</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>东营</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>较少</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>鞍山</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>较少</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>沧州</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>较少</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>莱芜</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>较少</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>通化</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>较少</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>邢台</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>较少</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>韶关</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>较少</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>长治</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>较少</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>十堰</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>较少</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>泰安</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>较少</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>濮阳</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>较少</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>平顶山</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>较少</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>枣庄</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>较少</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
         <is>
           <t>晋中</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>较少</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>较少</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>齐齐哈尔</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>较少</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>吕梁</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>较少</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>红河</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>较少</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>聊城</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>较少</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>大同</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>较少</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>安阳</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>较少</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>德州</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>较少</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>蚌埠</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>较少</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>镇江</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>较少</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>南京</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>较少</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>日照</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>较少</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>黄冈</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>较少</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>孝感</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>较少</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>德阳</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>较少</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>潍坊</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>较少</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>恩施</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>较少</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>济宁</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>较少</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>淮安</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>较少</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>衢州</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>较少</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>南阳</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>较少</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>衡阳</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>较少</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>邵阳</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>较少</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>漳州</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>较少</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>徐州</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>较少</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>汕头</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>较少</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>淄博</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>较少</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>肇庆</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>较少</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>绵阳</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>较少</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>上饶</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>较少</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>台州</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>较少</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>岳阳</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>较少</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>临沂</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>较少</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>包头</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>较少</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>廊坊</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>较少</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>盐城</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>较少</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>秦皇岛</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>较少</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>桂林</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>较少</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>保定</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>足够</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>南平</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>足够</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>烟台</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>足够</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>唐山</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>足够</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>大连</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>足够</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>天津</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>足够</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>宜昌</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>足够</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>常州</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>足够</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
         <is>
           <t>泉州</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>较少</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>足够</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>大理</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>足够</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>南通</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>足够</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>惠州</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>足够</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>金华</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>足够</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>佛山</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>足够</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>温州</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>足够</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>珠海</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>足够</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>中山</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>足够</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>洛阳</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>足够</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>无锡</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>足够</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>七台河</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>双鸭山</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>大兴安岭</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>遵义</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>鸡西</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>银川</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>宁波</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>厦门</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>长春</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>苏州</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>上海</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>东莞</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>海南</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>兰州</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>呼和浩特</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>青岛</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>济南</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>沈阳</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>南昌</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>贵阳</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>哈尔滨</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>太原</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>昆明</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>合肥</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>西安</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>武汉</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
         <is>
           <t>长沙</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>较少</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>郑州</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>重庆</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>杭州</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>深圳</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>广州</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>北京</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>移动</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>成都</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>晋中</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>较少</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>泉州</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>较少</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>长沙</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>较少</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
         <is>
           <t>呼和浩特</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>较少</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>较少</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
         <is>
           <t>太原</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>较少</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>较少</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
         <is>
           <t>广州</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>较少</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>较少</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
         <is>
           <t>成都</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>较少</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>较少</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
         <is>
           <t>海南</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>较少</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>较少</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>北京</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>较少</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
         <is>
           <t>青岛</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>较少</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>北京</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>较少</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>较少</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
         <is>
           <t>济南</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="C136" t="inlineStr">
         <is>
           <t>足够</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
         <is>
           <t>贵阳</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="C137" t="inlineStr">
         <is>
           <t>足够</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
         <is>
           <t>南宁</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="C138" t="inlineStr">
         <is>
           <t>足够</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
         <is>
           <t>天津</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="C139" t="inlineStr">
         <is>
           <t>足够</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
         <is>
           <t>哈尔滨</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
         <is>
           <t>重庆</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="C141" t="inlineStr">
         <is>
           <t>较多</t>
         </is>

--- a/data/sourse.xlsx
+++ b/data/sourse.xlsx
@@ -917,7 +917,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>长治</t>
+          <t>保定</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -934,7 +934,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>十堰</t>
+          <t>长治</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>泰安</t>
+          <t>十堰</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -968,7 +968,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>濮阳</t>
+          <t>泰安</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>平顶山</t>
+          <t>濮阳</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>枣庄</t>
+          <t>平顶山</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>晋中</t>
+          <t>枣庄</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1036,7 +1036,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>齐齐哈尔</t>
+          <t>晋中</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1053,7 +1053,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>吕梁</t>
+          <t>齐齐哈尔</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1070,7 +1070,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>红河</t>
+          <t>吕梁</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1087,7 +1087,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>聊城</t>
+          <t>红河</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>大同</t>
+          <t>聊城</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>安阳</t>
+          <t>大同</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1138,7 +1138,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>德州</t>
+          <t>安阳</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>蚌埠</t>
+          <t>德州</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1172,7 +1172,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>镇江</t>
+          <t>蚌埠</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>镇江</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1206,7 +1206,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>日照</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1223,7 +1223,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>黄冈</t>
+          <t>日照</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>孝感</t>
+          <t>黄冈</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1257,7 +1257,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>德阳</t>
+          <t>孝感</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>潍坊</t>
+          <t>德阳</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1291,7 +1291,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>恩施</t>
+          <t>潍坊</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1308,7 +1308,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>济宁</t>
+          <t>恩施</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1325,7 +1325,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>淮安</t>
+          <t>济宁</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>衢州</t>
+          <t>淮安</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1359,7 +1359,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>南阳</t>
+          <t>衢州</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1376,7 +1376,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>衡阳</t>
+          <t>南阳</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1393,7 +1393,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>邵阳</t>
+          <t>衡阳</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1410,7 +1410,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>漳州</t>
+          <t>邵阳</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>徐州</t>
+          <t>漳州</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1444,7 +1444,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>汕头</t>
+          <t>徐州</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1461,7 +1461,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>淄博</t>
+          <t>汕头</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1478,7 +1478,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>肇庆</t>
+          <t>淄博</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -1495,7 +1495,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>绵阳</t>
+          <t>肇庆</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -1512,7 +1512,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>上饶</t>
+          <t>绵阳</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>台州</t>
+          <t>上饶</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -1546,7 +1546,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>岳阳</t>
+          <t>台州</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -1563,7 +1563,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>临沂</t>
+          <t>岳阳</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -1580,7 +1580,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>包头</t>
+          <t>临沂</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -1597,7 +1597,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>廊坊</t>
+          <t>包头</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -1614,7 +1614,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>盐城</t>
+          <t>廊坊</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -1631,7 +1631,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>秦皇岛</t>
+          <t>盐城</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -1648,7 +1648,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>桂林</t>
+          <t>秦皇岛</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -1665,12 +1665,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>保定</t>
+          <t>桂林</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -2515,7 +2515,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -2532,7 +2532,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>呼和浩特</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -2634,7 +2634,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>呼和浩特</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -2651,7 +2651,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -2702,7 +2702,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -2719,7 +2719,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">

--- a/data/sourse.xlsx
+++ b/data/sourse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C141"/>
+  <dimension ref="A1:C140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>柳州</t>
+          <t>邯郸</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -475,7 +475,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>邯郸</t>
+          <t>菏泽</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -492,7 +492,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>菏泽</t>
+          <t>通辽</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -509,7 +509,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>大庆</t>
+          <t>保定</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -526,7 +526,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>朝阳</t>
+          <t>大庆</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -543,7 +543,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>赤峰</t>
+          <t>朝阳</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -560,7 +560,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>丹东</t>
+          <t>赤峰</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>松原</t>
+          <t>丹东</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -594,7 +594,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>绥化</t>
+          <t>松原</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -611,7 +611,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>四平</t>
+          <t>绥化</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -628,7 +628,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>葫芦岛</t>
+          <t>四平</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>黑河</t>
+          <t>葫芦岛</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -662,7 +662,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>牡丹江</t>
+          <t>黑河</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -679,7 +679,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>白城</t>
+          <t>牡丹江</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>营口</t>
+          <t>白城</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -713,7 +713,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>锦州</t>
+          <t>营口</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -730,7 +730,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>佳木斯</t>
+          <t>锦州</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -747,7 +747,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>通辽</t>
+          <t>佳木斯</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>商丘</t>
+          <t>韶关</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -781,7 +781,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>阳泉</t>
+          <t>商丘</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -798,7 +798,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>东营</t>
+          <t>绵阳</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -815,7 +815,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>鞍山</t>
+          <t>阳泉</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -832,7 +832,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>沧州</t>
+          <t>东营</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -849,7 +849,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>莱芜</t>
+          <t>鞍山</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -866,7 +866,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>通化</t>
+          <t>沧州</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>邢台</t>
+          <t>莱芜</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -900,7 +900,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>韶关</t>
+          <t>潍坊</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -917,7 +917,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>保定</t>
+          <t>通化</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -934,7 +934,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>长治</t>
+          <t>邢台</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>十堰</t>
+          <t>长治</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -968,7 +968,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>泰安</t>
+          <t>十堰</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>濮阳</t>
+          <t>泰安</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>平顶山</t>
+          <t>濮阳</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>枣庄</t>
+          <t>平顶山</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1036,7 +1036,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>晋中</t>
+          <t>恩施</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1053,7 +1053,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>齐齐哈尔</t>
+          <t>枣庄</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1070,7 +1070,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>吕梁</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1087,7 +1087,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>红河</t>
+          <t>晋中</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>聊城</t>
+          <t>镇江</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>大同</t>
+          <t>齐齐哈尔</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1138,7 +1138,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>安阳</t>
+          <t>台州</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>德州</t>
+          <t>吕梁</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1172,7 +1172,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>蚌埠</t>
+          <t>红河</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>镇江</t>
+          <t>聊城</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1206,7 +1206,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>金华</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1223,7 +1223,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>日照</t>
+          <t>大同</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>黄冈</t>
+          <t>安阳</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1257,7 +1257,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>孝感</t>
+          <t>德州</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>德阳</t>
+          <t>淮安</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1291,7 +1291,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>潍坊</t>
+          <t>蚌埠</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1308,7 +1308,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>恩施</t>
+          <t>日照</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1325,7 +1325,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>济宁</t>
+          <t>黄冈</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>淮安</t>
+          <t>孝感</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1359,7 +1359,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>衢州</t>
+          <t>德阳</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1376,7 +1376,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>南阳</t>
+          <t>济宁</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1393,7 +1393,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>衡阳</t>
+          <t>衢州</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1410,7 +1410,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>邵阳</t>
+          <t>南阳</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>漳州</t>
+          <t>衡阳</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1444,7 +1444,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>徐州</t>
+          <t>邵阳</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1461,7 +1461,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>汕头</t>
+          <t>漳州</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1478,7 +1478,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>淄博</t>
+          <t>徐州</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -1495,7 +1495,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>肇庆</t>
+          <t>盐城</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -1512,7 +1512,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>绵阳</t>
+          <t>汕头</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>上饶</t>
+          <t>淄博</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -1546,7 +1546,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>台州</t>
+          <t>肇庆</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -1563,7 +1563,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>岳阳</t>
+          <t>上饶</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -1580,7 +1580,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>临沂</t>
+          <t>岳阳</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -1597,7 +1597,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>包头</t>
+          <t>廊坊</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -1614,7 +1614,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>廊坊</t>
+          <t>临沂</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -1631,7 +1631,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>盐城</t>
+          <t>包头</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -1699,7 +1699,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>烟台</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -1716,7 +1716,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>唐山</t>
+          <t>烟台</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -1733,7 +1733,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>唐山</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -1750,7 +1750,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -1818,7 +1818,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>大理</t>
+          <t>宁波</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -1835,7 +1835,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>南通</t>
+          <t>大理</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -1852,7 +1852,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>惠州</t>
+          <t>南通</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -1869,7 +1869,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>金华</t>
+          <t>惠州</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2090,7 +2090,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>宁波</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -2107,7 +2107,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>长春</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -2124,7 +2124,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>长春</t>
+          <t>苏州</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -2141,7 +2141,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -2158,7 +2158,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>东莞</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -2175,7 +2175,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>东莞</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -2192,7 +2192,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>兰州</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -2209,7 +2209,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>兰州</t>
+          <t>呼和浩特</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -2226,7 +2226,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>呼和浩特</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -2243,7 +2243,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>济南</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -2260,7 +2260,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>济南</t>
+          <t>沈阳</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -2277,7 +2277,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>沈阳</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -2294,7 +2294,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>贵阳</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -2311,7 +2311,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>贵阳</t>
+          <t>哈尔滨</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -2328,7 +2328,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>哈尔滨</t>
+          <t>昆明</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -2362,7 +2362,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>昆明</t>
+          <t>合肥</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -2379,7 +2379,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>合肥</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -2396,7 +2396,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -2413,7 +2413,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -2447,7 +2447,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -2464,7 +2464,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>杭州</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -2481,7 +2481,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>杭州</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -2498,7 +2498,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -2532,7 +2532,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -2544,17 +2544,17 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>移动</t>
+          <t>联通</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>晋中</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -2566,7 +2566,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>晋中</t>
+          <t>泉州</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -2583,7 +2583,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>泉州</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -2600,7 +2600,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>呼和浩特</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -2634,7 +2634,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>呼和浩特</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -2651,7 +2651,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -2668,7 +2668,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -2685,7 +2685,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -2702,7 +2702,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -2719,12 +2719,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>济南</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -2736,7 +2736,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>济南</t>
+          <t>贵阳</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -2753,7 +2753,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>贵阳</t>
+          <t>南宁</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -2770,7 +2770,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>南宁</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -2787,12 +2787,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>哈尔滨</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -2804,27 +2804,10 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>哈尔滨</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>重庆</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
         <is>
           <t>较多</t>
         </is>

--- a/data/sourse.xlsx
+++ b/data/sourse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C140"/>
+  <dimension ref="A1:C139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2600,7 +2600,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>呼和浩特</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>呼和浩特</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -2634,7 +2634,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -2651,7 +2651,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -2668,7 +2668,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -2685,7 +2685,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -2702,12 +2702,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>济南</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -2719,7 +2719,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>济南</t>
+          <t>贵阳</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -2736,7 +2736,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>贵阳</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -2770,12 +2770,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>哈尔滨</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -2787,27 +2787,10 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>哈尔滨</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>重庆</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
         <is>
           <t>较多</t>
         </is>

--- a/data/sourse.xlsx
+++ b/data/sourse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C139"/>
+  <dimension ref="A1:C138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,7 +526,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>大庆</t>
+          <t>牡丹江</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -543,7 +543,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>朝阳</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -560,7 +560,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>赤峰</t>
+          <t>大庆</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>丹东</t>
+          <t>朝阳</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -594,7 +594,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>松原</t>
+          <t>韶关</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -611,7 +611,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>绥化</t>
+          <t>赤峰</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -628,7 +628,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>四平</t>
+          <t>丹东</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>葫芦岛</t>
+          <t>松原</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -662,7 +662,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>黑河</t>
+          <t>绥化</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -679,7 +679,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>牡丹江</t>
+          <t>四平</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>白城</t>
+          <t>葫芦岛</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -713,7 +713,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>营口</t>
+          <t>黑河</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -730,7 +730,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>锦州</t>
+          <t>白城</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -747,7 +747,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>佳木斯</t>
+          <t>营口</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>韶关</t>
+          <t>锦州</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -781,7 +781,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>商丘</t>
+          <t>佳木斯</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -798,7 +798,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>绵阳</t>
+          <t>商丘</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -815,7 +815,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>阳泉</t>
+          <t>绵阳</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -832,7 +832,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>东营</t>
+          <t>阳泉</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -849,7 +849,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>鞍山</t>
+          <t>东营</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -866,7 +866,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>沧州</t>
+          <t>鞍山</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>莱芜</t>
+          <t>沧州</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -900,7 +900,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>潍坊</t>
+          <t>莱芜</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -917,7 +917,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>通化</t>
+          <t>潍坊</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -934,7 +934,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>邢台</t>
+          <t>通化</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>长治</t>
+          <t>邢台</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -968,7 +968,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>十堰</t>
+          <t>长治</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>泰安</t>
+          <t>十堰</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>濮阳</t>
+          <t>泰安</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>平顶山</t>
+          <t>濮阳</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1036,7 +1036,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>恩施</t>
+          <t>台州</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1053,7 +1053,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>枣庄</t>
+          <t>平顶山</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1070,7 +1070,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>恩施</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1087,7 +1087,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>晋中</t>
+          <t>枣庄</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>镇江</t>
+          <t>金华</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>齐齐哈尔</t>
+          <t>晋中</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1138,7 +1138,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>台州</t>
+          <t>镇江</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>吕梁</t>
+          <t>齐齐哈尔</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1172,7 +1172,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>红河</t>
+          <t>吕梁</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>聊城</t>
+          <t>红河</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1206,7 +1206,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>金华</t>
+          <t>聊城</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1308,7 +1308,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>日照</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1325,7 +1325,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>黄冈</t>
+          <t>日照</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>孝感</t>
+          <t>黄冈</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1359,7 +1359,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>德阳</t>
+          <t>孝感</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1376,7 +1376,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>济宁</t>
+          <t>德阳</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1393,7 +1393,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>衢州</t>
+          <t>汕头</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1410,7 +1410,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>南阳</t>
+          <t>济宁</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>衡阳</t>
+          <t>衢州</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1444,7 +1444,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>邵阳</t>
+          <t>南阳</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1461,7 +1461,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>漳州</t>
+          <t>肇庆</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1478,7 +1478,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>徐州</t>
+          <t>衡阳</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -1495,7 +1495,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>盐城</t>
+          <t>邵阳</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -1512,7 +1512,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>汕头</t>
+          <t>漳州</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>淄博</t>
+          <t>徐州</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -1546,7 +1546,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>肇庆</t>
+          <t>盐城</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -1563,7 +1563,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>上饶</t>
+          <t>淄博</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -1580,7 +1580,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>岳阳</t>
+          <t>上饶</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -1597,7 +1597,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>廊坊</t>
+          <t>岳阳</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -1614,7 +1614,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>临沂</t>
+          <t>廊坊</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -1631,7 +1631,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>包头</t>
+          <t>临沂</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -1648,7 +1648,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>秦皇岛</t>
+          <t>包头</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -1665,7 +1665,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>桂林</t>
+          <t>秦皇岛</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -1682,12 +1682,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>南平</t>
+          <t>桂林</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -1699,7 +1699,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -1716,7 +1716,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>烟台</t>
+          <t>南平</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -1733,7 +1733,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>唐山</t>
+          <t>烟台</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -1750,7 +1750,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>唐山</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -1767,7 +1767,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>宜昌</t>
+          <t>宁波</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -1784,7 +1784,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>常州</t>
+          <t>宜昌</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>泉州</t>
+          <t>常州</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -1818,7 +1818,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>宁波</t>
+          <t>泉州</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -1835,7 +1835,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>大理</t>
+          <t>惠州</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -1852,7 +1852,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>南通</t>
+          <t>佛山</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -1869,7 +1869,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>惠州</t>
+          <t>大理</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -1886,7 +1886,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>佛山</t>
+          <t>南通</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -1954,7 +1954,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>洛阳</t>
+          <t>无锡</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>无锡</t>
+          <t>洛阳</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -1988,12 +1988,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>七台河</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -2005,7 +2005,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>双鸭山</t>
+          <t>七台河</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -2022,7 +2022,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>大兴安岭</t>
+          <t>双鸭山</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -2039,7 +2039,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>遵义</t>
+          <t>大兴安岭</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>鸡西</t>
+          <t>遵义</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -2073,7 +2073,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>银川</t>
+          <t>鸡西</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -2090,7 +2090,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>银川</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -2107,7 +2107,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>长春</t>
+          <t>苏州</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -2124,7 +2124,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>长春</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -2141,7 +2141,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>东莞</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -2158,7 +2158,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>东莞</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -2175,7 +2175,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>兰州</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -2192,7 +2192,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>兰州</t>
+          <t>济南</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -2243,7 +2243,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>济南</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -2277,7 +2277,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>贵阳</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -2294,7 +2294,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>贵阳</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -2328,7 +2328,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>昆明</t>
+          <t>合肥</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -2345,7 +2345,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>昆明</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -2362,7 +2362,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>合肥</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -2379,7 +2379,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -2413,7 +2413,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -2430,7 +2430,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -2447,7 +2447,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>杭州</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -2464,7 +2464,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>杭州</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -2481,7 +2481,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -2498,7 +2498,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -2527,17 +2527,17 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>移动</t>
+          <t>联通</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>晋中</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -2549,7 +2549,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>晋中</t>
+          <t>泉州</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -2566,7 +2566,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>泉州</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -2583,7 +2583,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>呼和浩特</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -2600,7 +2600,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>呼和浩特</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -2634,7 +2634,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -2651,7 +2651,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -2668,7 +2668,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -2685,12 +2685,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>济南</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -2702,7 +2702,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>济南</t>
+          <t>贵阳</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -2719,7 +2719,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>贵阳</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -2736,7 +2736,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>南宁</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -2753,12 +2753,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>南宁</t>
+          <t>哈尔滨</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -2770,27 +2770,10 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>哈尔滨</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>重庆</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
         <is>
           <t>较多</t>
         </is>

--- a/data/sourse.xlsx
+++ b/data/sourse.xlsx
@@ -1648,7 +1648,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>包头</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -1665,7 +1665,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>秦皇岛</t>
+          <t>包头</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -1682,7 +1682,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>桂林</t>
+          <t>秦皇岛</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -1699,12 +1699,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>桂林</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>南平</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -1733,7 +1733,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>烟台</t>
+          <t>南平</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -1750,7 +1750,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>唐山</t>
+          <t>烟台</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -1767,7 +1767,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>宁波</t>
+          <t>唐山</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -1784,7 +1784,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>宜昌</t>
+          <t>宁波</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>常州</t>
+          <t>宜昌</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -1818,7 +1818,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>泉州</t>
+          <t>常州</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -1835,7 +1835,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>惠州</t>
+          <t>泉州</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -1852,7 +1852,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>佛山</t>
+          <t>惠州</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -1869,7 +1869,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>大理</t>
+          <t>佛山</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -1886,7 +1886,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>南通</t>
+          <t>大理</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -1903,7 +1903,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>温州</t>
+          <t>南通</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -1920,7 +1920,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>珠海</t>
+          <t>温州</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -1937,7 +1937,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>中山</t>
+          <t>珠海</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -1954,7 +1954,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>无锡</t>
+          <t>中山</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>洛阳</t>
+          <t>无锡</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -1988,7 +1988,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>洛阳</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -2277,7 +2277,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>贵阳</t>
+          <t>合肥</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -2294,7 +2294,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>贵阳</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -2311,7 +2311,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>哈尔滨</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -2328,7 +2328,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>合肥</t>
+          <t>哈尔滨</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">

--- a/data/sourse.xlsx
+++ b/data/sourse.xlsx
@@ -2430,7 +2430,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>杭州</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -2447,7 +2447,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>杭州</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -2583,7 +2583,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>呼和浩特</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -2600,7 +2600,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>呼和浩特</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -2634,7 +2634,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -2651,7 +2651,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -2668,7 +2668,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">

--- a/data/sourse.xlsx
+++ b/data/sourse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C138"/>
+  <dimension ref="A1:C137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2464,7 +2464,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -2481,7 +2481,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -2549,7 +2549,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>泉州</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -2566,7 +2566,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>泉州</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -2583,7 +2583,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -2634,7 +2634,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -2651,7 +2651,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -2668,12 +2668,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>济南</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -2685,7 +2685,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>济南</t>
+          <t>贵阳</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -2702,7 +2702,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>贵阳</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -2719,7 +2719,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>南宁</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -2736,12 +2736,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>南宁</t>
+          <t>哈尔滨</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -2753,27 +2753,10 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>哈尔滨</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>重庆</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
         <is>
           <t>较多</t>
         </is>

--- a/data/sourse.xlsx
+++ b/data/sourse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C137"/>
+  <dimension ref="A1:C154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2532,7 +2532,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>晋中</t>
+          <t>秦皇岛</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -2549,7 +2549,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>临沂</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -2566,7 +2566,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>泉州</t>
+          <t>长春</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -2583,7 +2583,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -2600,7 +2600,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>呼和浩特</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>银川</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -2634,7 +2634,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>合肥</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -2651,7 +2651,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>兰州</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -2668,12 +2668,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>济南</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -2685,12 +2685,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>贵阳</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -2702,12 +2702,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>呼和浩特</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -2719,7 +2719,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>南宁</t>
+          <t>苏州</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -2736,12 +2736,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>哈尔滨</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -2753,10 +2753,299 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
+          <t>海南</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>足够</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>石家庄</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>足够</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>成都</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>西安</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>福州</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>东莞</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>贵阳</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>哈尔滨</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>青岛</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>南宁</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>济南</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>南京</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>长沙</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
           <t>重庆</t>
         </is>
       </c>
-      <c r="C137" t="inlineStr">
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>北京</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>上海</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>深圳</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>广州</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
         <is>
           <t>较多</t>
         </is>

--- a/data/sourse.xlsx
+++ b/data/sourse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C154"/>
+  <dimension ref="A1:C148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,7 +526,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>牡丹江</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -543,7 +543,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>大庆</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -560,7 +560,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>大庆</t>
+          <t>朝阳</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>朝阳</t>
+          <t>赤峰</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -594,7 +594,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>韶关</t>
+          <t>丹东</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -611,7 +611,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>赤峰</t>
+          <t>松原</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -628,7 +628,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>丹东</t>
+          <t>绥化</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>松原</t>
+          <t>四平</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -662,7 +662,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>绥化</t>
+          <t>葫芦岛</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -679,7 +679,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>四平</t>
+          <t>黑河</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>葫芦岛</t>
+          <t>白城</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -713,7 +713,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>黑河</t>
+          <t>营口</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -730,7 +730,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>白城</t>
+          <t>锦州</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -747,7 +747,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>营口</t>
+          <t>佳木斯</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>锦州</t>
+          <t>商丘</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -781,7 +781,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>佳木斯</t>
+          <t>绵阳</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -798,7 +798,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>商丘</t>
+          <t>阳泉</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -815,7 +815,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>绵阳</t>
+          <t>东营</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -832,7 +832,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>阳泉</t>
+          <t>鞍山</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -849,7 +849,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>东营</t>
+          <t>沧州</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -866,7 +866,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>鞍山</t>
+          <t>莱芜</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>沧州</t>
+          <t>潍坊</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -900,7 +900,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>莱芜</t>
+          <t>通化</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -917,7 +917,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>潍坊</t>
+          <t>邢台</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -934,7 +934,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>通化</t>
+          <t>长治</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>邢台</t>
+          <t>十堰</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -968,7 +968,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>长治</t>
+          <t>汕头</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>十堰</t>
+          <t>泰安</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>泰安</t>
+          <t>濮阳</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>濮阳</t>
+          <t>台州</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1036,7 +1036,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>台州</t>
+          <t>平顶山</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1053,7 +1053,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>平顶山</t>
+          <t>恩施</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1070,7 +1070,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>恩施</t>
+          <t>枣庄</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1087,7 +1087,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>枣庄</t>
+          <t>金华</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>金华</t>
+          <t>晋中</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>晋中</t>
+          <t>肇庆</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1172,7 +1172,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>吕梁</t>
+          <t>无锡</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>红河</t>
+          <t>吕梁</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1206,7 +1206,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>聊城</t>
+          <t>桂林</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1223,7 +1223,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>大同</t>
+          <t>红河</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>安阳</t>
+          <t>聊城</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1257,7 +1257,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>德州</t>
+          <t>大同</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>淮安</t>
+          <t>安阳</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1291,7 +1291,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>蚌埠</t>
+          <t>德州</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1308,7 +1308,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>淮安</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1325,7 +1325,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>日照</t>
+          <t>蚌埠</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>黄冈</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1359,7 +1359,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>孝感</t>
+          <t>日照</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1376,7 +1376,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>德阳</t>
+          <t>黄冈</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1393,7 +1393,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>汕头</t>
+          <t>孝感</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1410,7 +1410,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>济宁</t>
+          <t>德阳</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>衢州</t>
+          <t>济宁</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1444,7 +1444,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>南阳</t>
+          <t>衢州</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1461,7 +1461,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>肇庆</t>
+          <t>南阳</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1648,7 +1648,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>包头</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -1665,7 +1665,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>包头</t>
+          <t>秦皇岛</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -1682,12 +1682,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>秦皇岛</t>
+          <t>珠海</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -1699,12 +1699,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>桂林</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>惠州</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -1750,7 +1750,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>烟台</t>
+          <t>中山</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -1767,7 +1767,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>唐山</t>
+          <t>佛山</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -1784,7 +1784,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>宁波</t>
+          <t>烟台</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>宜昌</t>
+          <t>唐山</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -1818,7 +1818,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>常州</t>
+          <t>宁波</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -1835,7 +1835,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>泉州</t>
+          <t>宜昌</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -1852,7 +1852,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>惠州</t>
+          <t>常州</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -1869,7 +1869,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>佛山</t>
+          <t>泉州</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -1937,7 +1937,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>珠海</t>
+          <t>大兴安岭</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -1954,7 +1954,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>中山</t>
+          <t>洛阳</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -1971,12 +1971,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>无锡</t>
+          <t>七台河</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -1988,12 +1988,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>洛阳</t>
+          <t>双鸭山</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -2005,7 +2005,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>七台河</t>
+          <t>遵义</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -2022,7 +2022,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>双鸭山</t>
+          <t>鸡西</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -2039,7 +2039,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>大兴安岭</t>
+          <t>银川</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>遵义</t>
+          <t>苏州</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -2073,7 +2073,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>鸡西</t>
+          <t>长春</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -2090,7 +2090,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>银川</t>
+          <t>东莞</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -2107,7 +2107,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>兰州</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -2124,7 +2124,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>长春</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -2141,7 +2141,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>东莞</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -2158,7 +2158,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -2175,7 +2175,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>兰州</t>
+          <t>济南</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -2192,7 +2192,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>济南</t>
+          <t>呼和浩特</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -2209,7 +2209,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>呼和浩特</t>
+          <t>合肥</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -2226,7 +2226,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>沈阳</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -2243,7 +2243,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>贵阳</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -2260,7 +2260,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>沈阳</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -2277,7 +2277,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>合肥</t>
+          <t>昆明</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -2294,7 +2294,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>贵阳</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -2311,7 +2311,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>哈尔滨</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -2328,7 +2328,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>哈尔滨</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -2345,7 +2345,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>昆明</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -2362,7 +2362,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -2379,7 +2379,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>杭州</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -2396,7 +2396,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -2413,7 +2413,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -2430,7 +2430,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>杭州</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -2447,7 +2447,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -2464,7 +2464,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -2476,51 +2476,51 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>移动</t>
+          <t>联通</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>秦皇岛</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>移动</t>
+          <t>联通</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>临沂</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>移动</t>
+          <t>联通</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>长春</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -2532,7 +2532,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>秦皇岛</t>
+          <t>银川</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -2549,7 +2549,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>临沂</t>
+          <t>兰州</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -2566,7 +2566,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>长春</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -2583,7 +2583,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -2600,7 +2600,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>银川</t>
+          <t>呼和浩特</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -2634,7 +2634,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>合肥</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -2651,7 +2651,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>兰州</t>
+          <t>石家庄</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -2668,12 +2668,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>苏州</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -2685,12 +2685,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -2702,12 +2702,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>呼和浩特</t>
+          <t>福州</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -2719,7 +2719,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>东莞</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -2736,7 +2736,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -2753,12 +2753,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>贵阳</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -2770,12 +2770,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>石家庄</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -2787,7 +2787,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>哈尔滨</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -2804,7 +2804,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -2821,7 +2821,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>福州</t>
+          <t>南宁</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -2838,7 +2838,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>东莞</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -2855,7 +2855,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>贵阳</t>
+          <t>济南</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>哈尔滨</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -2889,7 +2889,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -2906,7 +2906,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>南宁</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -2923,7 +2923,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>济南</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -2940,112 +2940,10 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>长沙</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>重庆</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>北京</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>上海</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>深圳</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>广州</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
         <is>
           <t>较多</t>
         </is>

--- a/data/sourse.xlsx
+++ b/data/sourse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C148"/>
+  <dimension ref="A1:C147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2515,7 +2515,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>长春</t>
+          <t>银川</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -2532,7 +2532,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>银川</t>
+          <t>兰州</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -2549,7 +2549,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>兰州</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -2566,7 +2566,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -2583,7 +2583,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -2600,7 +2600,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>呼和浩特</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>呼和浩特</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -2634,7 +2634,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>石家庄</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -2651,12 +2651,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>石家庄</t>
+          <t>苏州</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -2668,7 +2668,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -2685,7 +2685,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>福州</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -2702,7 +2702,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>福州</t>
+          <t>东莞</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -2719,7 +2719,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>东莞</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -2736,12 +2736,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>贵阳</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -2753,7 +2753,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>贵阳</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -2770,7 +2770,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>哈尔滨</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -2787,7 +2787,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>哈尔滨</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -2804,7 +2804,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>南宁</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -2821,7 +2821,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>南宁</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -2838,7 +2838,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>济南</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -2855,7 +2855,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>济南</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -2889,7 +2889,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -2906,7 +2906,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -2923,27 +2923,10 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>深圳</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
         <is>
           <t>较多</t>
         </is>

--- a/data/sourse.xlsx
+++ b/data/sourse.xlsx
@@ -1580,7 +1580,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>上饶</t>
+          <t>临沂</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -1597,7 +1597,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>岳阳</t>
+          <t>上饶</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -1614,7 +1614,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>廊坊</t>
+          <t>岳阳</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -1631,7 +1631,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>临沂</t>
+          <t>廊坊</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -1648,7 +1648,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>包头</t>
+          <t>秦皇岛</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -1665,7 +1665,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>秦皇岛</t>
+          <t>包头</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2770,7 +2770,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>哈尔滨</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -2787,7 +2787,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>哈尔滨</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">

--- a/data/sourse.xlsx
+++ b/data/sourse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C147"/>
+  <dimension ref="A1:C146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,7 +526,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>大庆</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -543,7 +543,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>大庆</t>
+          <t>朝阳</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -560,7 +560,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>朝阳</t>
+          <t>赤峰</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>赤峰</t>
+          <t>丹东</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -594,7 +594,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>丹东</t>
+          <t>松原</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -611,7 +611,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>松原</t>
+          <t>绥化</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -628,7 +628,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>绥化</t>
+          <t>四平</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>四平</t>
+          <t>葫芦岛</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -662,7 +662,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>葫芦岛</t>
+          <t>黑河</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -679,7 +679,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>黑河</t>
+          <t>白城</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>白城</t>
+          <t>营口</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -713,7 +713,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>营口</t>
+          <t>锦州</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -730,7 +730,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>锦州</t>
+          <t>佳木斯</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -747,7 +747,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>佳木斯</t>
+          <t>商丘</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>商丘</t>
+          <t>绵阳</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -781,7 +781,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>绵阳</t>
+          <t>阳泉</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -798,7 +798,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>阳泉</t>
+          <t>东营</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -815,7 +815,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>东营</t>
+          <t>鞍山</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -832,7 +832,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>鞍山</t>
+          <t>沧州</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -849,7 +849,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>沧州</t>
+          <t>莱芜</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -866,7 +866,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>莱芜</t>
+          <t>潍坊</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>潍坊</t>
+          <t>通化</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -900,7 +900,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>通化</t>
+          <t>邢台</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -917,7 +917,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>邢台</t>
+          <t>长治</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -934,7 +934,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>长治</t>
+          <t>十堰</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>十堰</t>
+          <t>汕头</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -968,7 +968,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>汕头</t>
+          <t>泰安</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>泰安</t>
+          <t>濮阳</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>濮阳</t>
+          <t>台州</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>台州</t>
+          <t>平顶山</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1036,7 +1036,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>平顶山</t>
+          <t>恩施</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1053,7 +1053,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>恩施</t>
+          <t>枣庄</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1070,7 +1070,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>枣庄</t>
+          <t>金华</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1087,7 +1087,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>金华</t>
+          <t>晋中</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>晋中</t>
+          <t>肇庆</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>肇庆</t>
+          <t>镇江</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1138,7 +1138,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>镇江</t>
+          <t>齐齐哈尔</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>齐齐哈尔</t>
+          <t>无锡</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1172,7 +1172,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>无锡</t>
+          <t>吕梁</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>吕梁</t>
+          <t>桂林</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1206,7 +1206,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>桂林</t>
+          <t>红河</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1223,7 +1223,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>红河</t>
+          <t>聊城</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>聊城</t>
+          <t>大同</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1257,7 +1257,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>大同</t>
+          <t>安阳</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>安阳</t>
+          <t>德州</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1291,7 +1291,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>德州</t>
+          <t>淮安</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1308,7 +1308,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>淮安</t>
+          <t>蚌埠</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1325,7 +1325,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>蚌埠</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>日照</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1359,7 +1359,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>日照</t>
+          <t>黄冈</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1376,7 +1376,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>黄冈</t>
+          <t>孝感</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1393,7 +1393,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>孝感</t>
+          <t>德阳</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1410,7 +1410,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>德阳</t>
+          <t>岳阳</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>济宁</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1444,7 +1444,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>衢州</t>
+          <t>徐州</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1461,7 +1461,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>南阳</t>
+          <t>济宁</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1478,7 +1478,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>衡阳</t>
+          <t>衢州</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -1495,7 +1495,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>邵阳</t>
+          <t>南阳</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -1512,7 +1512,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>漳州</t>
+          <t>衡阳</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>徐州</t>
+          <t>邵阳</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -1546,7 +1546,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>盐城</t>
+          <t>漳州</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -1563,7 +1563,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>淄博</t>
+          <t>盐城</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -1580,7 +1580,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>临沂</t>
+          <t>淄博</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -1597,7 +1597,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>上饶</t>
+          <t>临沂</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -1614,7 +1614,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>岳阳</t>
+          <t>上饶</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -1682,7 +1682,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>珠海</t>
+          <t>宜昌</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -1699,7 +1699,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>珠海</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -1835,7 +1835,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>宜昌</t>
+          <t>常州</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -1852,7 +1852,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>常州</t>
+          <t>泉州</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -1869,7 +1869,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>泉州</t>
+          <t>大理</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -1886,7 +1886,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>大理</t>
+          <t>南通</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -1903,7 +1903,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>南通</t>
+          <t>温州</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -1920,7 +1920,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>温州</t>
+          <t>大兴安岭</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -1937,7 +1937,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>大兴安岭</t>
+          <t>洛阳</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -1954,12 +1954,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>洛阳</t>
+          <t>七台河</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -1971,7 +1971,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>七台河</t>
+          <t>双鸭山</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -1988,7 +1988,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>双鸭山</t>
+          <t>遵义</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -2005,7 +2005,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>遵义</t>
+          <t>鸡西</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -2022,7 +2022,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>鸡西</t>
+          <t>银川</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -2039,7 +2039,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>银川</t>
+          <t>苏州</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>长春</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -2073,7 +2073,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>长春</t>
+          <t>东莞</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -2090,7 +2090,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>东莞</t>
+          <t>兰州</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -2107,7 +2107,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>兰州</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -2124,7 +2124,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -2141,7 +2141,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -2158,7 +2158,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>济南</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -2175,7 +2175,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>济南</t>
+          <t>呼和浩特</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -2192,7 +2192,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>呼和浩特</t>
+          <t>合肥</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -2209,7 +2209,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>合肥</t>
+          <t>沈阳</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -2226,7 +2226,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>沈阳</t>
+          <t>贵阳</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -2243,7 +2243,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>贵阳</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -2260,7 +2260,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>昆明</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -2277,7 +2277,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>昆明</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -2294,7 +2294,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>哈尔滨</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -2311,7 +2311,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>哈尔滨</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -2345,7 +2345,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -2362,7 +2362,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>杭州</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -2379,7 +2379,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>杭州</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -2396,7 +2396,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -2413,7 +2413,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -2430,7 +2430,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -2447,7 +2447,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -2459,17 +2459,17 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>移动</t>
+          <t>联通</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>秦皇岛</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -2481,7 +2481,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>秦皇岛</t>
+          <t>临沂</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -2498,7 +2498,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>临沂</t>
+          <t>银川</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>银川</t>
+          <t>兰州</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -2532,7 +2532,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>兰州</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -2549,7 +2549,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -2566,7 +2566,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -2583,7 +2583,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>呼和浩特</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -2600,7 +2600,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>呼和浩特</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>石家庄</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -2634,12 +2634,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>石家庄</t>
+          <t>苏州</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -2651,7 +2651,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -2668,7 +2668,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>福州</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -2685,7 +2685,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>福州</t>
+          <t>东莞</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -2702,7 +2702,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>东莞</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -2719,12 +2719,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>贵阳</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -2736,7 +2736,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>贵阳</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -2753,7 +2753,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -2770,7 +2770,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>哈尔滨</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -2787,7 +2787,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>哈尔滨</t>
+          <t>南宁</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -2804,7 +2804,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>南宁</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -2821,7 +2821,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>济南</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -2838,7 +2838,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>济南</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -2855,7 +2855,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -2889,7 +2889,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -2906,27 +2906,10 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>深圳</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
         <is>
           <t>较多</t>
         </is>

--- a/data/sourse.xlsx
+++ b/data/sourse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C146"/>
+  <dimension ref="A1:C144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1257,7 +1257,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>安阳</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>德州</t>
+          <t>安阳</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1291,7 +1291,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>淮安</t>
+          <t>德州</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1308,7 +1308,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>蚌埠</t>
+          <t>淮安</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1325,7 +1325,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>蚌埠</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1886,7 +1886,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>南通</t>
+          <t>长春</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -1903,7 +1903,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>温州</t>
+          <t>南通</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -1920,7 +1920,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>大兴安岭</t>
+          <t>温州</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -1937,7 +1937,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>洛阳</t>
+          <t>大兴安岭</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -1954,12 +1954,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>七台河</t>
+          <t>洛阳</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -1971,7 +1971,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>双鸭山</t>
+          <t>七台河</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -1988,7 +1988,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>遵义</t>
+          <t>双鸭山</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -2005,7 +2005,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>鸡西</t>
+          <t>遵义</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -2022,7 +2022,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>银川</t>
+          <t>鸡西</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>长春</t>
+          <t>银川</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -2481,7 +2481,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>临沂</t>
+          <t>苏州</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -2498,7 +2498,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>银川</t>
+          <t>临沂</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>兰州</t>
+          <t>银川</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -2532,7 +2532,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>兰州</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -2549,7 +2549,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -2600,7 +2600,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>石家庄</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -2617,12 +2617,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>石家庄</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -2634,7 +2634,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>福州</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -2651,7 +2651,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>东莞</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -2668,7 +2668,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>福州</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -2685,12 +2685,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>东莞</t>
+          <t>贵阳</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -2702,12 +2702,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -2719,7 +2719,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>贵阳</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -2736,7 +2736,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>哈尔滨</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -2753,7 +2753,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -2770,7 +2770,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>哈尔滨</t>
+          <t>南宁</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -2787,7 +2787,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>南宁</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -2838,7 +2838,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -2855,7 +2855,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -2872,44 +2872,10 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>广州</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>深圳</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
         <is>
           <t>较多</t>
         </is>

--- a/data/sourse.xlsx
+++ b/data/sourse.xlsx
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>邯郸</t>
+          <t>潍坊</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -475,7 +475,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>菏泽</t>
+          <t>邯郸</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -492,7 +492,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>通辽</t>
+          <t>菏泽</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -509,7 +509,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>保定</t>
+          <t>通辽</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -526,7 +526,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>大庆</t>
+          <t>金华</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -543,7 +543,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>朝阳</t>
+          <t>保定</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -560,7 +560,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>赤峰</t>
+          <t>大庆</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>丹东</t>
+          <t>朝阳</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -594,7 +594,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>松原</t>
+          <t>赤峰</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -611,7 +611,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>绥化</t>
+          <t>丹东</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -628,7 +628,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>四平</t>
+          <t>松原</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>葫芦岛</t>
+          <t>绥化</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -662,7 +662,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>黑河</t>
+          <t>四平</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -679,7 +679,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>白城</t>
+          <t>葫芦岛</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>营口</t>
+          <t>黑河</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -713,7 +713,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>锦州</t>
+          <t>白城</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -730,7 +730,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>佳木斯</t>
+          <t>营口</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -747,7 +747,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>商丘</t>
+          <t>锦州</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>绵阳</t>
+          <t>佳木斯</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -781,7 +781,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>阳泉</t>
+          <t>商丘</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -798,7 +798,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>东营</t>
+          <t>绵阳</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -815,7 +815,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>鞍山</t>
+          <t>阳泉</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -832,7 +832,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>沧州</t>
+          <t>东营</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -849,7 +849,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>莱芜</t>
+          <t>鞍山</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -866,7 +866,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>潍坊</t>
+          <t>沧州</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>通化</t>
+          <t>莱芜</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -900,7 +900,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>邢台</t>
+          <t>通化</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -917,7 +917,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>长治</t>
+          <t>邢台</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -934,7 +934,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>十堰</t>
+          <t>长治</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>汕头</t>
+          <t>十堰</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -968,7 +968,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>泰安</t>
+          <t>汕头</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>濮阳</t>
+          <t>泰安</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>台州</t>
+          <t>濮阳</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>平顶山</t>
+          <t>台州</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1036,7 +1036,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>恩施</t>
+          <t>平顶山</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1053,7 +1053,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>枣庄</t>
+          <t>恩施</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1070,7 +1070,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>金华</t>
+          <t>枣庄</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1087,7 +1087,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>晋中</t>
+          <t>淄博</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>肇庆</t>
+          <t>晋中</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>镇江</t>
+          <t>肇庆</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1138,7 +1138,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>齐齐哈尔</t>
+          <t>镇江</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>无锡</t>
+          <t>齐齐哈尔</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1172,7 +1172,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>吕梁</t>
+          <t>无锡</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>桂林</t>
+          <t>吕梁</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1206,7 +1206,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>红河</t>
+          <t>桂林</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1223,7 +1223,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>聊城</t>
+          <t>红河</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>大同</t>
+          <t>聊城</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1257,7 +1257,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>大同</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>安阳</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1291,7 +1291,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>德州</t>
+          <t>安阳</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1308,7 +1308,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>淮安</t>
+          <t>德州</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1325,7 +1325,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>蚌埠</t>
+          <t>淮安</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>日照</t>
+          <t>蚌埠</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1359,7 +1359,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>黄冈</t>
+          <t>日照</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1376,7 +1376,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>孝感</t>
+          <t>黄冈</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1393,7 +1393,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>德阳</t>
+          <t>孝感</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1410,7 +1410,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>岳阳</t>
+          <t>德阳</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>岳阳</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1444,7 +1444,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>徐州</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1461,7 +1461,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>济宁</t>
+          <t>徐州</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1478,7 +1478,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>衢州</t>
+          <t>济宁</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -1495,7 +1495,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>南阳</t>
+          <t>衢州</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -1512,7 +1512,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>衡阳</t>
+          <t>南阳</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>邵阳</t>
+          <t>衡阳</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -1546,7 +1546,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>漳州</t>
+          <t>邵阳</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -1563,7 +1563,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>盐城</t>
+          <t>漳州</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -1580,7 +1580,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>淄博</t>
+          <t>盐城</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -1597,7 +1597,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>临沂</t>
+          <t>珠海</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -1614,7 +1614,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>上饶</t>
+          <t>临沂</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -1631,7 +1631,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>廊坊</t>
+          <t>上饶</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -1648,7 +1648,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>秦皇岛</t>
+          <t>廊坊</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -1665,7 +1665,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>包头</t>
+          <t>烟台</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -1682,12 +1682,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>宜昌</t>
+          <t>秦皇岛</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -1699,12 +1699,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>珠海</t>
+          <t>包头</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -1716,12 +1716,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>惠州</t>
+          <t>常州</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -1733,12 +1733,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>南平</t>
+          <t>唐山</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -1750,7 +1750,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>中山</t>
+          <t>宜昌</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -1767,7 +1767,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>佛山</t>
+          <t>温州</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -1784,7 +1784,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>烟台</t>
+          <t>惠州</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>唐山</t>
+          <t>南平</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -1818,7 +1818,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>宁波</t>
+          <t>中山</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -1835,7 +1835,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>常州</t>
+          <t>佛山</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -1852,7 +1852,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>泉州</t>
+          <t>宁波</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -1869,7 +1869,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>大理</t>
+          <t>泉州</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -1886,7 +1886,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>长春</t>
+          <t>大理</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -1903,7 +1903,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>南通</t>
+          <t>长春</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -1920,7 +1920,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>温州</t>
+          <t>南通</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -1937,7 +1937,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>大兴安岭</t>
+          <t>苏州</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -1954,7 +1954,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>洛阳</t>
+          <t>大兴安岭</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -1971,12 +1971,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>七台河</t>
+          <t>洛阳</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -1988,7 +1988,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>双鸭山</t>
+          <t>七台河</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -2005,7 +2005,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>遵义</t>
+          <t>双鸭山</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -2022,7 +2022,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>鸡西</t>
+          <t>遵义</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -2039,7 +2039,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>鸡西</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">

--- a/data/sourse.xlsx
+++ b/data/sourse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C144"/>
+  <dimension ref="A1:C142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,7 +526,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>金华</t>
+          <t>保定</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -543,7 +543,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>保定</t>
+          <t>大庆</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -560,7 +560,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>大庆</t>
+          <t>朝阳</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>朝阳</t>
+          <t>赤峰</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -594,7 +594,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>赤峰</t>
+          <t>丹东</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -611,7 +611,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>丹东</t>
+          <t>松原</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -628,7 +628,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>松原</t>
+          <t>绥化</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>绥化</t>
+          <t>四平</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -662,7 +662,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>四平</t>
+          <t>葫芦岛</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -679,7 +679,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>葫芦岛</t>
+          <t>黑河</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>黑河</t>
+          <t>白城</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -713,7 +713,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>白城</t>
+          <t>营口</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -730,7 +730,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>营口</t>
+          <t>锦州</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -747,7 +747,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>锦州</t>
+          <t>佳木斯</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>佳木斯</t>
+          <t>佛山</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -934,7 +934,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>长治</t>
+          <t>无锡</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>十堰</t>
+          <t>长治</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -968,7 +968,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>汕头</t>
+          <t>十堰</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1138,7 +1138,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>镇江</t>
+          <t>中山</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>齐齐哈尔</t>
+          <t>镇江</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1172,7 +1172,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>无锡</t>
+          <t>齐齐哈尔</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1444,7 +1444,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>温州</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1461,7 +1461,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>徐州</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1478,7 +1478,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>济宁</t>
+          <t>徐州</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -1495,7 +1495,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>衢州</t>
+          <t>济宁</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -1512,7 +1512,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>南阳</t>
+          <t>衢州</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>衡阳</t>
+          <t>南阳</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -1546,7 +1546,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>邵阳</t>
+          <t>衡阳</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -1563,7 +1563,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>漳州</t>
+          <t>邵阳</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -1580,7 +1580,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>盐城</t>
+          <t>漳州</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -1597,7 +1597,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>珠海</t>
+          <t>盐城</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -1614,7 +1614,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>临沂</t>
+          <t>宁波</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -1631,7 +1631,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>上饶</t>
+          <t>珠海</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -1648,7 +1648,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>廊坊</t>
+          <t>常州</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -1665,7 +1665,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>烟台</t>
+          <t>临沂</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -1682,7 +1682,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>秦皇岛</t>
+          <t>上饶</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -1699,7 +1699,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>包头</t>
+          <t>廊坊</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -1716,7 +1716,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>常州</t>
+          <t>烟台</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -1733,7 +1733,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>唐山</t>
+          <t>秦皇岛</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -1750,12 +1750,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>宜昌</t>
+          <t>包头</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -1767,12 +1767,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>温州</t>
+          <t>唐山</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -1784,7 +1784,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>惠州</t>
+          <t>宜昌</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>南平</t>
+          <t>惠州</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -1818,7 +1818,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>中山</t>
+          <t>南平</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -1835,7 +1835,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>佛山</t>
+          <t>泉州</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -1852,7 +1852,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>宁波</t>
+          <t>南通</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -1869,7 +1869,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>泉州</t>
+          <t>大理</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -1886,7 +1886,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>大理</t>
+          <t>长春</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -1903,7 +1903,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>长春</t>
+          <t>东莞</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -1920,7 +1920,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>南通</t>
+          <t>苏州</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -1937,7 +1937,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>大兴安岭</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -1954,7 +1954,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>大兴安岭</t>
+          <t>洛阳</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -1971,12 +1971,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>洛阳</t>
+          <t>七台河</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -1988,7 +1988,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>七台河</t>
+          <t>双鸭山</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -2005,7 +2005,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>双鸭山</t>
+          <t>遵义</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -2022,7 +2022,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>遵义</t>
+          <t>鸡西</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -2039,7 +2039,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>鸡西</t>
+          <t>银川</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>银川</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -2073,7 +2073,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>东莞</t>
+          <t>兰州</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -2090,7 +2090,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>兰州</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -2107,7 +2107,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -2124,7 +2124,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>济南</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -2141,7 +2141,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>呼和浩特</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -2158,7 +2158,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>济南</t>
+          <t>合肥</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -2175,7 +2175,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>呼和浩特</t>
+          <t>沈阳</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -2192,7 +2192,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>合肥</t>
+          <t>贵阳</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -2209,7 +2209,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>沈阳</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -2226,7 +2226,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>贵阳</t>
+          <t>昆明</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -2243,7 +2243,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -2260,7 +2260,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>昆明</t>
+          <t>哈尔滨</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -2277,7 +2277,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -2294,7 +2294,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>哈尔滨</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -2311,7 +2311,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -2328,7 +2328,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>杭州</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -2345,7 +2345,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -2362,7 +2362,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>杭州</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -2379,7 +2379,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -2396,7 +2396,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -2413,7 +2413,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -2425,34 +2425,34 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>移动</t>
+          <t>联通</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>秦皇岛</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>移动</t>
+          <t>联通</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>苏州</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -2464,7 +2464,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>秦皇岛</t>
+          <t>临沂</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -2481,7 +2481,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>银川</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -2498,7 +2498,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>临沂</t>
+          <t>兰州</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>银川</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -2532,7 +2532,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>兰州</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -2549,7 +2549,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>呼和浩特</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -2566,7 +2566,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>石家庄</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -2583,12 +2583,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>呼和浩特</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -2600,12 +2600,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>石家庄</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -2617,7 +2617,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>福州</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -2634,7 +2634,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>福州</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -2736,7 +2736,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>哈尔滨</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -2753,7 +2753,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>哈尔滨</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -2787,7 +2787,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -2804,7 +2804,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -2842,40 +2842,6 @@
         </is>
       </c>
       <c r="C142" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>广州</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>深圳</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
         <is>
           <t>较多</t>
         </is>

--- a/data/sourse.xlsx
+++ b/data/sourse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C142"/>
+  <dimension ref="A1:C150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>潍坊</t>
+          <t>邯郸</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -475,7 +475,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>邯郸</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -509,7 +509,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>通辽</t>
+          <t>阳泉</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -526,12 +526,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>保定</t>
+          <t>日照</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -543,12 +543,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>大庆</t>
+          <t>岳阳</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -560,12 +560,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>朝阳</t>
+          <t>恩施</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -577,12 +577,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>赤峰</t>
+          <t>十堰</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -594,12 +594,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>丹东</t>
+          <t>上饶</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -611,12 +611,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>松原</t>
+          <t>朝阳</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -628,12 +628,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>绥化</t>
+          <t>吕梁</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -645,12 +645,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>四平</t>
+          <t>赤峰</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -662,12 +662,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>葫芦岛</t>
+          <t>莱芜</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -679,12 +679,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>黑河</t>
+          <t>丹东</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -696,12 +696,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>白城</t>
+          <t>松原</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -713,12 +713,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>营口</t>
+          <t>绥化</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -730,12 +730,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>锦州</t>
+          <t>牡丹江</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -747,12 +747,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>佳木斯</t>
+          <t>大庆</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -764,12 +764,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>佛山</t>
+          <t>南阳</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -781,12 +781,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>商丘</t>
+          <t>四平</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -798,12 +798,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>绵阳</t>
+          <t>葫芦岛</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -815,12 +815,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>阳泉</t>
+          <t>黑河</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -832,12 +832,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>东营</t>
+          <t>通辽</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -849,12 +849,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>鞍山</t>
+          <t>白城</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -866,12 +866,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>沧州</t>
+          <t>营口</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -883,12 +883,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>莱芜</t>
+          <t>锦州</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -900,12 +900,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>通化</t>
+          <t>南平</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -917,12 +917,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>邢台</t>
+          <t>衡阳</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -934,12 +934,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>无锡</t>
+          <t>佳木斯</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -951,12 +951,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>长治</t>
+          <t>大同</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -968,12 +968,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>十堰</t>
+          <t>商丘</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -985,12 +985,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>泰安</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -1002,12 +1002,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>濮阳</t>
+          <t>韶关</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -1019,12 +1019,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>台州</t>
+          <t>东营</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -1036,12 +1036,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>平顶山</t>
+          <t>鞍山</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -1053,12 +1053,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>恩施</t>
+          <t>沧州</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -1070,12 +1070,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>枣庄</t>
+          <t>邢台</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -1087,12 +1087,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>淄博</t>
+          <t>通化</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -1104,12 +1104,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>晋中</t>
+          <t>长治</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -1121,12 +1121,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>肇庆</t>
+          <t>柳州</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -1138,12 +1138,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>中山</t>
+          <t>泰安</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -1155,12 +1155,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>镇江</t>
+          <t>濮阳</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -1172,12 +1172,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>齐齐哈尔</t>
+          <t>保定</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -1189,12 +1189,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>吕梁</t>
+          <t>平顶山</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -1206,12 +1206,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>桂林</t>
+          <t>枣庄</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -1223,12 +1223,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>红河</t>
+          <t>晋中</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -1240,12 +1240,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>聊城</t>
+          <t>肇庆</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -1257,12 +1257,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>大同</t>
+          <t>淮安</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -1274,12 +1274,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>石家庄</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -1291,12 +1291,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>安阳</t>
+          <t>淄博</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -1308,12 +1308,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>德州</t>
+          <t>齐齐哈尔</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -1325,12 +1325,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>淮安</t>
+          <t>泉州</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -1342,12 +1342,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>蚌埠</t>
+          <t>潍坊</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -1359,12 +1359,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>日照</t>
+          <t>红河</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -1376,12 +1376,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>黄冈</t>
+          <t>聊城</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -1393,12 +1393,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>孝感</t>
+          <t>蚌埠</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -1410,12 +1410,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>德阳</t>
+          <t>镇江</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -1427,12 +1427,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>岳阳</t>
+          <t>安阳</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -1444,12 +1444,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>温州</t>
+          <t>德州</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -1461,12 +1461,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>黄冈</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -1478,12 +1478,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>徐州</t>
+          <t>孝感</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -1495,12 +1495,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>济宁</t>
+          <t>德阳</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -1512,12 +1512,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>衢州</t>
+          <t>汕头</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -1529,12 +1529,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>南阳</t>
+          <t>济宁</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -1546,12 +1546,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>衡阳</t>
+          <t>衢州</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -1568,7 +1568,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -1597,12 +1597,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>盐城</t>
+          <t>徐州</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -1614,12 +1614,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>宁波</t>
+          <t>合肥</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -1631,12 +1631,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>珠海</t>
+          <t>绵阳</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -1648,12 +1648,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>常州</t>
+          <t>台州</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -1665,12 +1665,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>临沂</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -1682,12 +1682,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>上饶</t>
+          <t>秦皇岛</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -1699,12 +1699,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>廊坊</t>
+          <t>临沂</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -1716,12 +1716,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>烟台</t>
+          <t>南宁</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -1733,12 +1733,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>秦皇岛</t>
+          <t>廊坊</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -1755,7 +1755,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -1767,12 +1767,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>唐山</t>
+          <t>桂林</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -1784,12 +1784,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>宜昌</t>
+          <t>无锡</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -1801,12 +1801,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>惠州</t>
+          <t>盐城</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -1818,12 +1818,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>南平</t>
+          <t>大兴安岭</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -1835,12 +1835,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>泉州</t>
+          <t>常州</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -1852,12 +1852,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>南通</t>
+          <t>七台河</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -1869,12 +1869,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>大理</t>
+          <t>双鸭山</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -1886,12 +1886,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>长春</t>
+          <t>遵义</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -1903,12 +1903,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>东莞</t>
+          <t>鸡西</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -1920,12 +1920,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>烟台</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -1937,12 +1937,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>大兴安岭</t>
+          <t>唐山</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -1954,12 +1954,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>洛阳</t>
+          <t>宜昌</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -1971,7 +1971,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>七台河</t>
+          <t>珠海</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -1988,7 +1988,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>双鸭山</t>
+          <t>金华</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -2005,7 +2005,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>遵义</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -2022,7 +2022,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>鸡西</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -2039,7 +2039,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>银川</t>
+          <t>大理</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>南通</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -2073,7 +2073,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>兰州</t>
+          <t>温州</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -2090,7 +2090,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>中山</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -2107,7 +2107,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>惠州</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -2124,7 +2124,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>济南</t>
+          <t>杭州</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -2141,7 +2141,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>呼和浩特</t>
+          <t>苏州</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -2158,7 +2158,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>合肥</t>
+          <t>洛阳</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -2175,7 +2175,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>沈阳</t>
+          <t>佛山</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -2192,7 +2192,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>贵阳</t>
+          <t>宁波</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -2209,7 +2209,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -2226,7 +2226,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>昆明</t>
+          <t>银川</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -2243,7 +2243,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -2260,7 +2260,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>哈尔滨</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -2277,7 +2277,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>济南</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -2294,7 +2294,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>长春</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -2311,7 +2311,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>兰州</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -2328,7 +2328,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>杭州</t>
+          <t>东莞</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -2345,7 +2345,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>贵阳</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -2362,7 +2362,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>昆明</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -2379,7 +2379,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>呼和浩特</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -2396,7 +2396,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -2413,7 +2413,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -2425,160 +2425,160 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>联通</t>
+          <t>移动</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>秦皇岛</t>
+          <t>沈阳</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>联通</t>
+          <t>移动</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>联通</t>
+          <t>移动</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>临沂</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>联通</t>
+          <t>移动</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>银川</t>
+          <t>哈尔滨</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>联通</t>
+          <t>移动</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>兰州</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>联通</t>
+          <t>移动</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>联通</t>
+          <t>移动</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>联通</t>
+          <t>移动</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>呼和浩特</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>联通</t>
+          <t>移动</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>石家庄</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>联通</t>
+          <t>移动</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -2588,7 +2588,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -2600,12 +2600,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>秦皇岛</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -2617,12 +2617,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>福州</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -2634,12 +2634,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -2651,12 +2651,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>东莞</t>
+          <t>银川</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -2668,12 +2668,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>临沂</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -2685,12 +2685,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>贵阳</t>
+          <t>兰州</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -2702,12 +2702,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>福州</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -2719,12 +2719,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -2736,12 +2736,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>呼和浩特</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -2753,12 +2753,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>哈尔滨</t>
+          <t>石家庄</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -2770,12 +2770,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>南宁</t>
+          <t>东莞</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -2787,12 +2787,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -2804,12 +2804,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -2821,7 +2821,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>济南</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -2838,10 +2838,146 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
+          <t>青岛</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>南京</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>贵阳</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>深圳</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>哈尔滨</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>长沙</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>南宁</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
           <t>重庆</t>
         </is>
       </c>
-      <c r="C142" t="inlineStr">
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>济南</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
         <is>
           <t>较多</t>
         </is>

--- a/data/sourse.xlsx
+++ b/data/sourse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C150"/>
+  <dimension ref="A1:D155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,15 +436,20 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>note</t>
+          <t>制式</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>省份</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>城市</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>数量状态</t>
         </is>
@@ -458,10 +463,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>邯郸</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
+        <is>
+          <t>厦门</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>较少</t>
         </is>
@@ -475,10 +485,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
+        <is>
+          <t>邯郸</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>较少</t>
         </is>
@@ -492,10 +507,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>山东</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>菏泽</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>较少</t>
         </is>
@@ -509,10 +529,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>山西</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>阳泉</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>较少</t>
         </is>
@@ -526,10 +551,15 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>山东</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>日照</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>足够</t>
         </is>
@@ -543,10 +573,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>湖南</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>岳阳</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>足够</t>
         </is>
@@ -560,10 +595,15 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>湖北</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>恩施</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>足够</t>
         </is>
@@ -577,10 +617,15 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>湖北</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>十堰</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>足够</t>
         </is>
@@ -594,12 +639,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>江西</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>上饶</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>较多</t>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -611,10 +661,15 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>辽宁</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>朝阳</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>较多</t>
         </is>
@@ -628,10 +683,15 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>吕梁</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
+        <is>
+          <t>本溪</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>较多</t>
         </is>
@@ -645,10 +705,15 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>赤峰</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
+        <is>
+          <t>吕梁</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>较多</t>
         </is>
@@ -662,10 +727,15 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>莱芜</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
+        <is>
+          <t>赤峰</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>较多</t>
         </is>
@@ -679,10 +749,15 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>丹东</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
+        <is>
+          <t>莱芜</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>较多</t>
         </is>
@@ -696,10 +771,15 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>松原</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
+        <is>
+          <t>丹东</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>较多</t>
         </is>
@@ -713,10 +793,15 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>黑龙江</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
           <t>绥化</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>较多</t>
         </is>
@@ -730,10 +815,15 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>牡丹江</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
+        <is>
+          <t>松原</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>较多</t>
         </is>
@@ -747,10 +837,15 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>大庆</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
+        <is>
+          <t>牡丹江</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>较多</t>
         </is>
@@ -764,10 +859,15 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>南阳</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
+        <is>
+          <t>大庆</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>较多</t>
         </is>
@@ -781,10 +881,15 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>四平</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
+        <is>
+          <t>南京</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>较多</t>
         </is>
@@ -798,10 +903,15 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>葫芦岛</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
+        <is>
+          <t>南阳</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>较多</t>
         </is>
@@ -815,10 +925,15 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>黑河</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
+        <is>
+          <t>四平</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>较多</t>
         </is>
@@ -832,10 +947,15 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>通辽</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
+        <is>
+          <t>黑河</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>较多</t>
         </is>
@@ -849,10 +969,15 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>白城</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
+        <is>
+          <t>葫芦岛</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>较多</t>
         </is>
@@ -866,10 +991,15 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>营口</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
+        <is>
+          <t>通辽</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>较多</t>
         </is>
@@ -883,10 +1013,15 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>锦州</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
+        <is>
+          <t>保定</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>较多</t>
         </is>
@@ -900,10 +1035,15 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>南平</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
+        <is>
+          <t>锦州</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>较多</t>
         </is>
@@ -917,10 +1057,15 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>衡阳</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
+        <is>
+          <t>白城</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>较多</t>
         </is>
@@ -934,10 +1079,15 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>佳木斯</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
+        <is>
+          <t>营口</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>较多</t>
         </is>
@@ -951,10 +1101,15 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>大同</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
+        <is>
+          <t>南平</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>较多</t>
         </is>
@@ -968,10 +1123,15 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>商丘</t>
+          <t>湖南</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
+        <is>
+          <t>衡阳</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>较多</t>
         </is>
@@ -985,10 +1145,15 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
+        <is>
+          <t>佳木斯</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>较多</t>
         </is>
@@ -1002,10 +1167,15 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>韶关</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
+        <is>
+          <t>大同</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>较多</t>
         </is>
@@ -1019,10 +1189,15 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>东营</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
+        <is>
+          <t>商丘</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>较多</t>
         </is>
@@ -1036,10 +1211,15 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>鞍山</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
+        <is>
+          <t>韶关</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>较多</t>
         </is>
@@ -1053,10 +1233,15 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>沧州</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
+        <is>
+          <t>鞍山</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>较多</t>
         </is>
@@ -1070,10 +1255,15 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>邢台</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
+        <is>
+          <t>东营</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>较多</t>
         </is>
@@ -1087,10 +1277,15 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>通化</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
+        <is>
+          <t>沧州</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>较多</t>
         </is>
@@ -1104,10 +1299,15 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>长治</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
+        <is>
+          <t>邢台</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>较多</t>
         </is>
@@ -1121,10 +1321,15 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>柳州</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
+        <is>
+          <t>通化</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>较多</t>
         </is>
@@ -1138,10 +1343,15 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>泰安</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
+        <is>
+          <t>长治</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>较多</t>
         </is>
@@ -1155,10 +1365,15 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>濮阳</t>
+          <t>广西</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
+        <is>
+          <t>柳州</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>较多</t>
         </is>
@@ -1172,10 +1387,15 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>保定</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
+        <is>
+          <t>濮阳</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>较多</t>
         </is>
@@ -1189,10 +1409,15 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>平顶山</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
+        <is>
+          <t>泰安</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>较多</t>
         </is>
@@ -1206,10 +1431,15 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>枣庄</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
+        <is>
+          <t>平顶山</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>较多</t>
         </is>
@@ -1223,10 +1453,15 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>晋中</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
+        <is>
+          <t>枣庄</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>较多</t>
         </is>
@@ -1240,10 +1475,15 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
+          <t>广东</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
           <t>肇庆</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="D48" t="inlineStr">
         <is>
           <t>较多</t>
         </is>
@@ -1257,10 +1497,15 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>淮安</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
+        <is>
+          <t>晋中</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>较多</t>
         </is>
@@ -1274,10 +1519,15 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>石家庄</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
+        <is>
+          <t>淮安</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>较多</t>
         </is>
@@ -1291,10 +1541,15 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>淄博</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
+        <is>
+          <t>石家庄</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>较多</t>
         </is>
@@ -1308,10 +1563,15 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>齐齐哈尔</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
+        <is>
+          <t>淄博</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>较多</t>
         </is>
@@ -1325,10 +1585,15 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>泉州</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
+        <is>
+          <t>齐齐哈尔</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>较多</t>
         </is>
@@ -1342,10 +1607,15 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>潍坊</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
+        <is>
+          <t>泉州</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>较多</t>
         </is>
@@ -1359,10 +1629,15 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>红河</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
+        <is>
+          <t>潍坊</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>较多</t>
         </is>
@@ -1376,10 +1651,15 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>聊城</t>
+          <t>云南</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
+        <is>
+          <t>红河</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>较多</t>
         </is>
@@ -1393,10 +1673,15 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>蚌埠</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
+        <is>
+          <t>聊城</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>较多</t>
         </is>
@@ -1410,10 +1695,15 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>镇江</t>
+          <t>安徽</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
+        <is>
+          <t>蚌埠</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>较多</t>
         </is>
@@ -1427,10 +1717,15 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>安阳</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
+        <is>
+          <t>镇江</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>较多</t>
         </is>
@@ -1444,10 +1739,15 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
+          <t>山东</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
           <t>德州</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="D60" t="inlineStr">
         <is>
           <t>较多</t>
         </is>
@@ -1461,10 +1761,15 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>黄冈</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
+        <is>
+          <t>安阳</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>较多</t>
         </is>
@@ -1478,10 +1783,15 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>孝感</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
+        <is>
+          <t>黄冈</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>较多</t>
         </is>
@@ -1495,10 +1805,15 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
+          <t>四川</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
           <t>德阳</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="D63" t="inlineStr">
         <is>
           <t>较多</t>
         </is>
@@ -1512,10 +1827,15 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>汕头</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
+        <is>
+          <t>孝感</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>较多</t>
         </is>
@@ -1529,10 +1849,15 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>济宁</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
+        <is>
+          <t>汕头</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>较多</t>
         </is>
@@ -1546,10 +1871,15 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>衢州</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
+        <is>
+          <t>济宁</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>较多</t>
         </is>
@@ -1563,10 +1893,15 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>邵阳</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
+        <is>
+          <t>衢州</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>较多</t>
         </is>
@@ -1580,10 +1915,15 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>漳州</t>
+          <t>湖南</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
+        <is>
+          <t>邵阳</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>较多</t>
         </is>
@@ -1597,10 +1937,15 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>徐州</t>
+          <t>安徽</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
+        <is>
+          <t>合肥</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>较多</t>
         </is>
@@ -1614,10 +1959,15 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>合肥</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
+        <is>
+          <t>漳州</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>较多</t>
         </is>
@@ -1631,10 +1981,15 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>绵阳</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
+        <is>
+          <t>徐州</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>较多</t>
         </is>
@@ -1648,10 +2003,15 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>台州</t>
+          <t>四川</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
+        <is>
+          <t>绵阳</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>较多</t>
         </is>
@@ -1665,10 +2025,15 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
+          <t>河南</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
           <t>郑州</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="D73" t="inlineStr">
         <is>
           <t>较多</t>
         </is>
@@ -1682,10 +2047,15 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>秦皇岛</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
+        <is>
+          <t>台州</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>较多</t>
         </is>
@@ -1699,10 +2069,15 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>临沂</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
+        <is>
+          <t>秦皇岛</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>较多</t>
         </is>
@@ -1716,10 +2091,15 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>南宁</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
+        <is>
+          <t>临沂</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>较多</t>
         </is>
@@ -1733,10 +2113,15 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>廊坊</t>
+          <t>广西</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
+        <is>
+          <t>南宁</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>较多</t>
         </is>
@@ -1750,10 +2135,15 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>包头</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
+        <is>
+          <t>廊坊</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
         <is>
           <t>较多</t>
         </is>
@@ -1767,10 +2157,15 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>桂林</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
+        <is>
+          <t>包头</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
         <is>
           <t>较多</t>
         </is>
@@ -1784,10 +2179,15 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>无锡</t>
+          <t>广西</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
+        <is>
+          <t>桂林</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
         <is>
           <t>较多</t>
         </is>
@@ -1801,10 +2201,15 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>盐城</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
+        <is>
+          <t>无锡</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
         <is>
           <t>较多</t>
         </is>
@@ -1818,10 +2223,15 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>大兴安岭</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
+        <is>
+          <t>盐城</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
         <is>
           <t>较多</t>
         </is>
@@ -1835,10 +2245,15 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
+          <t>江苏</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
           <t>常州</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="D83" t="inlineStr">
         <is>
           <t>较多</t>
         </is>
@@ -1852,10 +2267,15 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>七台河</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
+        <is>
+          <t>大兴安岭</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
         <is>
           <t>较多</t>
         </is>
@@ -1869,10 +2289,15 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>双鸭山</t>
+          <t>贵州</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
+        <is>
+          <t>遵义</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
         <is>
           <t>较多</t>
         </is>
@@ -1886,10 +2311,15 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>遵义</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
+        <is>
+          <t>鸡西</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
         <is>
           <t>较多</t>
         </is>
@@ -1903,10 +2333,15 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>鸡西</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
+        <is>
+          <t>七台河</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
         <is>
           <t>较多</t>
         </is>
@@ -1920,10 +2355,15 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>烟台</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
+        <is>
+          <t>双鸭山</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
         <is>
           <t>较多</t>
         </is>
@@ -1937,10 +2377,15 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>唐山</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
+        <is>
+          <t>盘锦</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
         <is>
           <t>较多</t>
         </is>
@@ -1954,10 +2399,15 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>宜昌</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
+        <is>
+          <t>烟台</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
         <is>
           <t>较多</t>
         </is>
@@ -1971,10 +2421,15 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>珠海</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
+        <is>
+          <t>唐山</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
         <is>
           <t>较多</t>
         </is>
@@ -1988,10 +2443,15 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>金华</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
+        <is>
+          <t>宜昌</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
         <is>
           <t>较多</t>
         </is>
@@ -2005,10 +2465,15 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
+        <is>
+          <t>重庆</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
         <is>
           <t>较多</t>
         </is>
@@ -2022,10 +2487,15 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
+        <is>
+          <t>大连</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
         <is>
           <t>较多</t>
         </is>
@@ -2039,10 +2509,15 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
+          <t>云南</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
           <t>大理</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+      <c r="D95" t="inlineStr">
         <is>
           <t>较多</t>
         </is>
@@ -2056,10 +2531,15 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
+          <t>江苏</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
           <t>南通</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+      <c r="D96" t="inlineStr">
         <is>
           <t>较多</t>
         </is>
@@ -2073,10 +2553,15 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
+          <t>浙江</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
           <t>温州</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+      <c r="D97" t="inlineStr">
         <is>
           <t>较多</t>
         </is>
@@ -2090,10 +2575,15 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>中山</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
+        <is>
+          <t>杭州</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
         <is>
           <t>较多</t>
         </is>
@@ -2107,10 +2597,15 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>惠州</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
+        <is>
+          <t>苏州</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
         <is>
           <t>较多</t>
         </is>
@@ -2124,10 +2619,15 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>杭州</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
+        <is>
+          <t>惠州</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
         <is>
           <t>较多</t>
         </is>
@@ -2141,10 +2641,15 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
+        <is>
+          <t>中山</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
         <is>
           <t>较多</t>
         </is>
@@ -2158,10 +2663,15 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
+          <t>河南</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
           <t>洛阳</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
+      <c r="D102" t="inlineStr">
         <is>
           <t>较多</t>
         </is>
@@ -2175,10 +2685,15 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
+          <t>广东</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
           <t>佛山</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
+      <c r="D103" t="inlineStr">
         <is>
           <t>较多</t>
         </is>
@@ -2192,10 +2707,15 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
+          <t>浙江</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
           <t>宁波</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
+      <c r="D104" t="inlineStr">
         <is>
           <t>较多</t>
         </is>
@@ -2214,6 +2734,11 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
+          <t>海南</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
           <t>较多</t>
         </is>
       </c>
@@ -2226,10 +2751,15 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
+          <t>宁夏</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
           <t>银川</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
+      <c r="D106" t="inlineStr">
         <is>
           <t>较多</t>
         </is>
@@ -2243,10 +2773,15 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
+        <is>
+          <t>长春</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
         <is>
           <t>较多</t>
         </is>
@@ -2260,10 +2795,15 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>江西</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
+        <is>
+          <t>南昌</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
         <is>
           <t>较多</t>
         </is>
@@ -2277,10 +2817,15 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>济南</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
+        <is>
+          <t>青岛</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
         <is>
           <t>较多</t>
         </is>
@@ -2294,10 +2839,15 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>长春</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
+        <is>
+          <t>济南</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
         <is>
           <t>较多</t>
         </is>
@@ -2311,10 +2861,15 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
+          <t>甘肃</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
           <t>兰州</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr">
+      <c r="D111" t="inlineStr">
         <is>
           <t>较多</t>
         </is>
@@ -2328,10 +2883,15 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
+          <t>广东</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
           <t>东莞</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
+      <c r="D112" t="inlineStr">
         <is>
           <t>较多</t>
         </is>
@@ -2345,10 +2905,15 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
+          <t>贵州</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
           <t>贵阳</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr">
+      <c r="D113" t="inlineStr">
         <is>
           <t>较多</t>
         </is>
@@ -2362,10 +2927,15 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
+          <t>云南</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
           <t>昆明</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr">
+      <c r="D114" t="inlineStr">
         <is>
           <t>较多</t>
         </is>
@@ -2379,10 +2949,15 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
+          <t>内蒙古</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
           <t>呼和浩特</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
+      <c r="D115" t="inlineStr">
         <is>
           <t>较多</t>
         </is>
@@ -2396,10 +2971,15 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
+          <t>湖南</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
           <t>长沙</t>
         </is>
       </c>
-      <c r="C116" t="inlineStr">
+      <c r="D116" t="inlineStr">
         <is>
           <t>较多</t>
         </is>
@@ -2418,6 +2998,11 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
+          <t>天津</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
           <t>较多</t>
         </is>
       </c>
@@ -2430,10 +3015,15 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
+          <t>辽宁</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
           <t>沈阳</t>
         </is>
       </c>
-      <c r="C118" t="inlineStr">
+      <c r="D118" t="inlineStr">
         <is>
           <t>较多</t>
         </is>
@@ -2447,10 +3037,15 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
+          <t>四川</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
           <t>成都</t>
         </is>
       </c>
-      <c r="C119" t="inlineStr">
+      <c r="D119" t="inlineStr">
         <is>
           <t>较多</t>
         </is>
@@ -2464,10 +3059,15 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
+          <t>山西</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
           <t>太原</t>
         </is>
       </c>
-      <c r="C120" t="inlineStr">
+      <c r="D120" t="inlineStr">
         <is>
           <t>较多</t>
         </is>
@@ -2481,10 +3081,15 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
+          <t>黑龙江</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
           <t>哈尔滨</t>
         </is>
       </c>
-      <c r="C121" t="inlineStr">
+      <c r="D121" t="inlineStr">
         <is>
           <t>较多</t>
         </is>
@@ -2498,10 +3103,15 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
+          <t>陕西</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
           <t>西安</t>
         </is>
       </c>
-      <c r="C122" t="inlineStr">
+      <c r="D122" t="inlineStr">
         <is>
           <t>较多</t>
         </is>
@@ -2515,10 +3125,15 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
+        <is>
+          <t>广州</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
         <is>
           <t>较多</t>
         </is>
@@ -2532,10 +3147,15 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
+        <is>
+          <t>武汉</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
         <is>
           <t>较多</t>
         </is>
@@ -2549,10 +3169,15 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
+        <is>
+          <t>深圳</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
         <is>
           <t>较多</t>
         </is>
@@ -2566,10 +3191,15 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
+        <is>
+          <t>上海</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
         <is>
           <t>较多</t>
         </is>
@@ -2588,6 +3218,11 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
+          <t>北京</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
           <t>较多</t>
         </is>
       </c>
@@ -2600,10 +3235,15 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
+          <t>河北</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
           <t>秦皇岛</t>
         </is>
       </c>
-      <c r="C128" t="inlineStr">
+      <c r="D128" t="inlineStr">
         <is>
           <t>较少</t>
         </is>
@@ -2617,10 +3257,15 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
+        <is>
+          <t>厦门</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
         <is>
           <t>较少</t>
         </is>
@@ -2634,10 +3279,15 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
+        <is>
+          <t>苏州</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
         <is>
           <t>较少</t>
         </is>
@@ -2651,10 +3301,15 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>银川</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
+        <is>
+          <t>天津</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
         <is>
           <t>较少</t>
         </is>
@@ -2668,10 +3323,15 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>临沂</t>
+          <t>宁夏</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
+        <is>
+          <t>银川</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
         <is>
           <t>较少</t>
         </is>
@@ -2685,10 +3345,15 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>兰州</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
+        <is>
+          <t>临沂</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
         <is>
           <t>较少</t>
         </is>
@@ -2702,10 +3367,15 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>福州</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
+        <is>
+          <t>北京</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
         <is>
           <t>较少</t>
         </is>
@@ -2719,10 +3389,15 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>甘肃</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
+        <is>
+          <t>兰州</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
         <is>
           <t>较少</t>
         </is>
@@ -2736,10 +3411,15 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>呼和浩特</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
+        <is>
+          <t>福州</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
         <is>
           <t>较少</t>
         </is>
@@ -2753,10 +3433,15 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>石家庄</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
+        <is>
+          <t>太原</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
         <is>
           <t>较少</t>
         </is>
@@ -2770,12 +3455,17 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>东莞</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>呼和浩特</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -2787,12 +3477,17 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>石家庄</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -2804,12 +3499,17 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>云南</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>昆明</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -2821,12 +3521,17 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>上海</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -2838,12 +3543,17 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>海南</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -2855,12 +3565,17 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>东莞</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -2872,12 +3587,17 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
+          <t>贵州</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
           <t>贵阳</t>
         </is>
       </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>较多</t>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -2889,10 +3609,15 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
+        <is>
+          <t>青岛</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
         <is>
           <t>较多</t>
         </is>
@@ -2906,10 +3631,15 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>哈尔滨</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
+        <is>
+          <t>深圳</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
         <is>
           <t>较多</t>
         </is>
@@ -2923,10 +3653,15 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>四川</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
+        <is>
+          <t>成都</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
         <is>
           <t>较多</t>
         </is>
@@ -2940,10 +3675,15 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>南宁</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
+        <is>
+          <t>哈尔滨</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
         <is>
           <t>较多</t>
         </is>
@@ -2957,10 +3697,15 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>陕西</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
+        <is>
+          <t>西安</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
         <is>
           <t>较多</t>
         </is>
@@ -2974,10 +3719,125 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
+          <t>广西</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>南宁</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>广东</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>广州</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>重庆</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>重庆</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>江苏</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>南京</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>山东</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
           <t>济南</t>
         </is>
       </c>
-      <c r="C150" t="inlineStr">
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>湖南</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>长沙</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
         <is>
           <t>较多</t>
         </is>

--- a/data/sourse.xlsx
+++ b/data/sourse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D155"/>
+  <dimension ref="A1:D154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3235,12 +3235,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>秦皇岛</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -3257,12 +3257,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>苏州</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -3279,12 +3279,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -3301,12 +3301,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>宁夏</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>银川</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3323,12 +3323,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>宁夏</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>银川</t>
+          <t>临沂</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -3345,12 +3345,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>临沂</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -3367,12 +3367,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>甘肃</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>兰州</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -3389,12 +3389,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>甘肃</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>兰州</t>
+          <t>福州</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -3411,12 +3411,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>福州</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -3433,12 +3433,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>呼和浩特</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -3455,12 +3455,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>呼和浩特</t>
+          <t>石家庄</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -3477,12 +3477,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>云南</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>石家庄</t>
+          <t>昆明</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -3499,17 +3499,17 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>云南</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>昆明</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -3521,12 +3521,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -3543,12 +3543,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>东莞</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -3565,12 +3565,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>贵州</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>东莞</t>
+          <t>贵阳</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -3587,17 +3587,17 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>贵州</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>贵阳</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -3609,12 +3609,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -3631,12 +3631,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>四川</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -3653,12 +3653,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>四川</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>哈尔滨</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -3675,12 +3675,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>陕西</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>哈尔滨</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -3697,12 +3697,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>陕西</t>
+          <t>广西</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>南宁</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -3719,12 +3719,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>广西</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>南宁</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -3741,12 +3741,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -3763,12 +3763,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -3785,12 +3785,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>济南</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -3807,37 +3807,15 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>湖南</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>济南</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>湖南</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>长沙</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
         <is>
           <t>较多</t>
         </is>

--- a/data/sourse.xlsx
+++ b/data/sourse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D154"/>
+  <dimension ref="A1:D155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -771,12 +771,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>丹东</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -793,12 +793,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>绥化</t>
+          <t>丹东</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -815,12 +815,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>松原</t>
+          <t>绥化</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -837,12 +837,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>牡丹江</t>
+          <t>松原</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -864,7 +864,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>大庆</t>
+          <t>牡丹江</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -881,12 +881,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>大庆</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1915,12 +1915,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>湖南</t>
+          <t>安徽</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>邵阳</t>
+          <t>合肥</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -1937,12 +1937,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>安徽</t>
+          <t>湖南</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>合肥</t>
+          <t>邵阳</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2421,12 +2421,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>唐山</t>
+          <t>宜昌</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2443,12 +2443,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>宜昌</t>
+          <t>唐山</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -3235,12 +3235,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>秦皇岛</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -3257,12 +3257,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -3279,12 +3279,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>苏州</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -3301,12 +3301,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>宁夏</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>银川</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3323,12 +3323,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>宁夏</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>临沂</t>
+          <t>银川</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -3345,12 +3345,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>临沂</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -3367,12 +3367,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>甘肃</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>兰州</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -3389,12 +3389,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>甘肃</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>福州</t>
+          <t>兰州</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -3411,12 +3411,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>福州</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -3433,12 +3433,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>呼和浩特</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -3455,12 +3455,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>石家庄</t>
+          <t>呼和浩特</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -3477,12 +3477,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>云南</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>昆明</t>
+          <t>石家庄</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -3499,17 +3499,17 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>云南</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>昆明</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -3521,12 +3521,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -3543,12 +3543,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>东莞</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -3565,12 +3565,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>贵州</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>贵阳</t>
+          <t>东莞</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -3587,17 +3587,17 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>贵州</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>贵阳</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -3609,12 +3609,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -3631,12 +3631,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>四川</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -3653,12 +3653,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>四川</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>哈尔滨</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -3675,12 +3675,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>陕西</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>哈尔滨</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -3697,12 +3697,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>广西</t>
+          <t>陕西</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>南宁</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -3719,12 +3719,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>广西</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>南宁</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -3741,12 +3741,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -3763,12 +3763,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -3785,12 +3785,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>济南</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -3807,15 +3807,37 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
+          <t>山东</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>济南</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
           <t>湖南</t>
         </is>
       </c>
-      <c r="C154" t="inlineStr">
+      <c r="C155" t="inlineStr">
         <is>
           <t>长沙</t>
         </is>
       </c>
-      <c r="D154" t="inlineStr">
+      <c r="D155" t="inlineStr">
         <is>
           <t>较多</t>
         </is>

--- a/data/sourse.xlsx
+++ b/data/sourse.xlsx
@@ -2421,12 +2421,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>宜昌</t>
+          <t>唐山</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2443,12 +2443,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>唐山</t>
+          <t>宜昌</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">

--- a/data/sourse.xlsx
+++ b/data/sourse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D155"/>
+  <dimension ref="A1:D148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,12 +463,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>邯郸</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,12 +485,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>邯郸</t>
+          <t>菏泽</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -507,12 +507,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>菏泽</t>
+          <t>阳泉</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -529,17 +529,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>阳泉</t>
+          <t>日照</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -551,12 +551,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>湖南</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>日照</t>
+          <t>岳阳</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -573,12 +573,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>湖南</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>岳阳</t>
+          <t>恩施</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -600,7 +600,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>恩施</t>
+          <t>十堰</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -617,12 +617,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>江西</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>十堰</t>
+          <t>上饶</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -639,17 +639,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>江西</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>上饶</t>
+          <t>朝阳</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -666,7 +666,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>朝阳</t>
+          <t>本溪</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -683,12 +683,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>本溪</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -771,12 +771,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>丹东</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -793,12 +793,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>丹东</t>
+          <t>绥化</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -815,12 +815,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>绥化</t>
+          <t>松原</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -837,12 +837,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>松原</t>
+          <t>牡丹江</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -864,7 +864,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>牡丹江</t>
+          <t>大庆</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -881,12 +881,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>大庆</t>
+          <t>南阳</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -903,12 +903,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>南阳</t>
+          <t>四平</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -925,12 +925,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>四平</t>
+          <t>黑河</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -947,12 +947,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>黑河</t>
+          <t>葫芦岛</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -969,12 +969,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>葫芦岛</t>
+          <t>通辽</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -991,12 +991,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>通辽</t>
+          <t>保定</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1013,12 +1013,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>保定</t>
+          <t>锦州</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1035,12 +1035,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>锦州</t>
+          <t>白城</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1057,12 +1057,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>白城</t>
+          <t>营口</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1079,12 +1079,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>营口</t>
+          <t>南平</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1101,12 +1101,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>湖南</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>南平</t>
+          <t>衡阳</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1123,12 +1123,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>湖南</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>衡阳</t>
+          <t>佳木斯</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1145,12 +1145,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>佳木斯</t>
+          <t>大同</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1167,12 +1167,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>大同</t>
+          <t>商丘</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1189,12 +1189,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>商丘</t>
+          <t>韶关</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1211,12 +1211,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>韶关</t>
+          <t>鞍山</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1233,12 +1233,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>鞍山</t>
+          <t>东营</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1255,12 +1255,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>东营</t>
+          <t>沧州</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1282,7 +1282,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>沧州</t>
+          <t>邢台</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1299,12 +1299,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>邢台</t>
+          <t>通化</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1321,12 +1321,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>通化</t>
+          <t>长治</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1343,12 +1343,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>广西</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>长治</t>
+          <t>柳州</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1365,12 +1365,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>广西</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>柳州</t>
+          <t>濮阳</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1387,12 +1387,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>濮阳</t>
+          <t>泰安</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1409,12 +1409,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>泰安</t>
+          <t>平顶山</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1431,12 +1431,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>平顶山</t>
+          <t>枣庄</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1453,12 +1453,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>枣庄</t>
+          <t>肇庆</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1475,12 +1475,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>肇庆</t>
+          <t>晋中</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1497,12 +1497,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>晋中</t>
+          <t>淮安</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1519,12 +1519,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>淮安</t>
+          <t>石家庄</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1541,12 +1541,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>石家庄</t>
+          <t>淄博</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1563,12 +1563,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>淄博</t>
+          <t>齐齐哈尔</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1585,12 +1585,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>齐齐哈尔</t>
+          <t>泉州</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1607,12 +1607,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>泉州</t>
+          <t>潍坊</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1629,12 +1629,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>云南</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>潍坊</t>
+          <t>红河</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1651,12 +1651,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>云南</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>红河</t>
+          <t>聊城</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1673,12 +1673,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>安徽</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>聊城</t>
+          <t>蚌埠</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1695,12 +1695,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>安徽</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>蚌埠</t>
+          <t>镇江</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1717,12 +1717,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>镇江</t>
+          <t>德州</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1739,12 +1739,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>德州</t>
+          <t>安阳</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1761,12 +1761,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>安阳</t>
+          <t>黄冈</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -1783,12 +1783,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>四川</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>黄冈</t>
+          <t>德阳</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -1805,12 +1805,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>四川</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>德阳</t>
+          <t>孝感</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -1827,12 +1827,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>安徽</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>孝感</t>
+          <t>合肥</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -1915,12 +1915,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>安徽</t>
+          <t>湖南</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>合肥</t>
+          <t>邵阳</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -1937,12 +1937,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>湖南</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>邵阳</t>
+          <t>漳州</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -1959,12 +1959,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>漳州</t>
+          <t>徐州</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -1981,12 +1981,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>四川</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>徐州</t>
+          <t>绵阳</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2003,12 +2003,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>四川</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>绵阳</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2025,12 +2025,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>台州</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2047,12 +2047,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>广西</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>台州</t>
+          <t>南宁</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2113,12 +2113,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>广西</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>南宁</t>
+          <t>廊坊</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2135,12 +2135,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>廊坊</t>
+          <t>包头</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2157,12 +2157,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>广西</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>包头</t>
+          <t>桂林</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2179,12 +2179,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>广西</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>桂林</t>
+          <t>无锡</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2206,7 +2206,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>无锡</t>
+          <t>盐城</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2228,7 +2228,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>盐城</t>
+          <t>常州</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2245,12 +2245,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>常州</t>
+          <t>大兴安岭</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2267,12 +2267,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>贵州</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>大兴安岭</t>
+          <t>遵义</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2289,12 +2289,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>贵州</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>遵义</t>
+          <t>鸡西</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2316,7 +2316,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>鸡西</t>
+          <t>七台河</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2338,7 +2338,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>七台河</t>
+          <t>双鸭山</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2355,12 +2355,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>双鸭山</t>
+          <t>盘锦</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2377,12 +2377,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>盘锦</t>
+          <t>烟台</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2399,12 +2399,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>烟台</t>
+          <t>宜昌</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2443,12 +2443,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>宜昌</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2465,12 +2465,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2487,12 +2487,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>云南</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>大理</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2509,12 +2509,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>云南</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>大理</t>
+          <t>南通</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2531,12 +2531,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>南通</t>
+          <t>温州</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2558,7 +2558,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>温州</t>
+          <t>杭州</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2575,12 +2575,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>杭州</t>
+          <t>苏州</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -2597,12 +2597,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>惠州</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -2624,7 +2624,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>惠州</t>
+          <t>中山</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -2641,12 +2641,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>中山</t>
+          <t>洛阳</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -2663,12 +2663,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>洛阳</t>
+          <t>佛山</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -2685,12 +2685,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>佛山</t>
+          <t>宁波</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -2707,12 +2707,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>宁波</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -2729,12 +2729,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>济南</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -2839,12 +2839,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>甘肃</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>济南</t>
+          <t>兰州</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -2861,12 +2861,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>甘肃</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>兰州</t>
+          <t>东莞</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -2883,12 +2883,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>贵州</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>东莞</t>
+          <t>贵阳</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -2905,12 +2905,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>贵州</t>
+          <t>云南</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>贵阳</t>
+          <t>昆明</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -2927,12 +2927,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>云南</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>昆明</t>
+          <t>呼和浩特</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -2949,12 +2949,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>湖南</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>呼和浩特</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -2971,12 +2971,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>湖南</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -2993,12 +2993,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>沈阳</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3015,12 +3015,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>四川</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>沈阳</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3037,12 +3037,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>四川</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3059,12 +3059,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>哈尔滨</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3081,12 +3081,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>陕西</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>哈尔滨</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3103,12 +3103,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>陕西</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3125,12 +3125,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3147,12 +3147,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3169,12 +3169,12 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3191,12 +3191,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3208,22 +3208,22 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>移动</t>
+          <t>联通</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>秦皇岛</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -3235,12 +3235,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>秦皇岛</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -3257,12 +3257,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -3279,12 +3279,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>宁夏</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>银川</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -3301,12 +3301,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>临沂</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3323,12 +3323,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>宁夏</t>
+          <t>甘肃</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>银川</t>
+          <t>兰州</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -3345,12 +3345,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>临沂</t>
+          <t>福州</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -3367,12 +3367,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -3389,12 +3389,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>甘肃</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>兰州</t>
+          <t>呼和浩特</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -3411,17 +3411,17 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>福州</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -3433,17 +3433,17 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>东莞</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -3455,17 +3455,17 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>陕西</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>呼和浩特</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -3477,17 +3477,17 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>石家庄</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -3499,17 +3499,17 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>云南</t>
+          <t>贵州</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>昆明</t>
+          <t>贵阳</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -3521,17 +3521,17 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -3543,17 +3543,17 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -3570,12 +3570,12 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>东莞</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -3587,17 +3587,17 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>贵州</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>贵阳</t>
+          <t>哈尔滨</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -3609,12 +3609,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>湖南</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -3631,12 +3631,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>广西</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>南宁</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -3653,12 +3653,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>四川</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -3675,169 +3675,15 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>哈尔滨</t>
+          <t>济南</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>陕西</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>西安</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>广西</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>南宁</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>广东</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>广州</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>重庆</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>重庆</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>江苏</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>南京</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>山东</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>济南</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>湖南</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>长沙</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
         <is>
           <t>较多</t>
         </is>

--- a/data/sourse.xlsx
+++ b/data/sourse.xlsx
@@ -463,12 +463,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>邯郸</t>
+          <t>菏泽</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,12 +485,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>菏泽</t>
+          <t>邯郸</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -617,12 +617,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>江西</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>上饶</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -639,17 +639,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>江西</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>朝阳</t>
+          <t>上饶</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -666,7 +666,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>本溪</t>
+          <t>朝阳</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -683,12 +683,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>本溪</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -771,12 +771,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>丹东</t>
+          <t>松原</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -793,12 +793,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>绥化</t>
+          <t>丹东</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -815,12 +815,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>松原</t>
+          <t>绥化</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -859,12 +859,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>大庆</t>
+          <t>南阳</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -881,12 +881,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>南阳</t>
+          <t>大庆</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -903,12 +903,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>四平</t>
+          <t>保定</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -925,12 +925,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>黑河</t>
+          <t>四平</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -947,12 +947,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>葫芦岛</t>
+          <t>黑河</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -969,12 +969,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>通辽</t>
+          <t>葫芦岛</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -991,12 +991,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>保定</t>
+          <t>通辽</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1321,12 +1321,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>广西</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>长治</t>
+          <t>柳州</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1343,12 +1343,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>广西</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>柳州</t>
+          <t>长治</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1431,12 +1431,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>枣庄</t>
+          <t>石家庄</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1453,12 +1453,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>肇庆</t>
+          <t>枣庄</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1475,12 +1475,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>晋中</t>
+          <t>肇庆</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1519,12 +1519,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>石家庄</t>
+          <t>晋中</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1629,12 +1629,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>云南</t>
+          <t>安徽</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>红河</t>
+          <t>蚌埠</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1651,12 +1651,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>云南</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>聊城</t>
+          <t>红河</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1673,12 +1673,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>安徽</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>蚌埠</t>
+          <t>镇江</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1695,12 +1695,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>镇江</t>
+          <t>聊城</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1827,12 +1827,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>安徽</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>合肥</t>
+          <t>汕头</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -1849,12 +1849,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>安徽</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>汕头</t>
+          <t>合肥</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -1915,12 +1915,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>湖南</t>
+          <t>四川</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>邵阳</t>
+          <t>绵阳</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -1937,12 +1937,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>湖南</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>漳州</t>
+          <t>邵阳</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -1959,12 +1959,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>徐州</t>
+          <t>漳州</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -1981,12 +1981,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>四川</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>绵阳</t>
+          <t>徐州</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">

--- a/data/sourse.xlsx
+++ b/data/sourse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D148"/>
+  <dimension ref="A1:D147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1959,12 +1959,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>漳州</t>
+          <t>徐州</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -1981,12 +1981,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>徐州</t>
+          <t>漳州</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2602,7 +2602,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>惠州</t>
+          <t>中山</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -2624,7 +2624,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>中山</t>
+          <t>惠州</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3235,12 +3235,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -3257,12 +3257,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>宁夏</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>银川</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -3279,12 +3279,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>宁夏</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>银川</t>
+          <t>临沂</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -3301,12 +3301,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>甘肃</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>临沂</t>
+          <t>兰州</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3323,12 +3323,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>甘肃</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>兰州</t>
+          <t>福州</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -3345,12 +3345,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>福州</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -3367,12 +3367,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>呼和浩特</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -3389,17 +3389,17 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>呼和浩特</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -3411,12 +3411,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>东莞</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -3433,12 +3433,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>陕西</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>东莞</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -3455,12 +3455,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>陕西</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -3477,12 +3477,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>贵州</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>贵阳</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -3499,17 +3499,17 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>贵州</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>贵阳</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -3521,12 +3521,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -3543,12 +3543,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -3565,12 +3565,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>哈尔滨</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -3587,12 +3587,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>湖南</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>哈尔滨</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -3609,12 +3609,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>湖南</t>
+          <t>广西</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>南宁</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -3631,12 +3631,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>广西</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>南宁</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -3653,37 +3653,15 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>济南</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>山东</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>济南</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
         <is>
           <t>较多</t>
         </is>

--- a/data/sourse.xlsx
+++ b/data/sourse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D147"/>
+  <dimension ref="A1:D148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3235,12 +3235,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -3257,12 +3257,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>宁夏</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>银川</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -3279,12 +3279,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>宁夏</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>临沂</t>
+          <t>银川</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -3301,12 +3301,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>甘肃</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>兰州</t>
+          <t>临沂</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3323,12 +3323,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>甘肃</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>福州</t>
+          <t>兰州</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -3345,12 +3345,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>福州</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -3367,12 +3367,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>呼和浩特</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -3389,17 +3389,17 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>呼和浩特</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -3411,12 +3411,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>东莞</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -3433,12 +3433,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>陕西</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>东莞</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -3455,12 +3455,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>陕西</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -3477,12 +3477,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>贵州</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>贵阳</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -3499,17 +3499,17 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>贵州</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>贵阳</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -3521,12 +3521,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -3543,12 +3543,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -3565,12 +3565,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>哈尔滨</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -3587,12 +3587,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>湖南</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>哈尔滨</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -3609,12 +3609,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>广西</t>
+          <t>湖南</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>南宁</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -3631,12 +3631,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>广西</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>南宁</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -3653,15 +3653,37 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
+          <t>重庆</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>重庆</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
           <t>山东</t>
         </is>
       </c>
-      <c r="C147" t="inlineStr">
+      <c r="C148" t="inlineStr">
         <is>
           <t>济南</t>
         </is>
       </c>
-      <c r="D147" t="inlineStr">
+      <c r="D148" t="inlineStr">
         <is>
           <t>较多</t>
         </is>

--- a/data/sourse.xlsx
+++ b/data/sourse.xlsx
@@ -1827,12 +1827,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>安徽</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>汕头</t>
+          <t>合肥</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -1849,12 +1849,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>安徽</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>合肥</t>
+          <t>汕头</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2487,12 +2487,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>云南</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>大理</t>
+          <t>南通</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2509,12 +2509,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>云南</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>南通</t>
+          <t>大理</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">

--- a/data/sourse.xlsx
+++ b/data/sourse.xlsx
@@ -2135,12 +2135,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>包头</t>
+          <t>无锡</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2157,12 +2157,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>广西</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>桂林</t>
+          <t>包头</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2179,12 +2179,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>广西</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>无锡</t>
+          <t>桂林</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -3411,17 +3411,17 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>陕西</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -3433,12 +3433,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>东莞</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -3455,12 +3455,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>陕西</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>东莞</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">

--- a/data/sourse.xlsx
+++ b/data/sourse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D148"/>
+  <dimension ref="A1:D163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1365,12 +1365,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>濮阳</t>
+          <t>石家庄</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1387,12 +1387,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>泰安</t>
+          <t>濮阳</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1409,12 +1409,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>平顶山</t>
+          <t>泰安</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1431,12 +1431,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>石家庄</t>
+          <t>平顶山</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1761,12 +1761,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>安徽</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>黄冈</t>
+          <t>合肥</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -1783,12 +1783,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>四川</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>德阳</t>
+          <t>黄冈</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -1805,12 +1805,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>四川</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>孝感</t>
+          <t>德阳</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -1827,12 +1827,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>安徽</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>合肥</t>
+          <t>孝感</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -1915,12 +1915,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>四川</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>绵阳</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -1937,12 +1937,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>湖南</t>
+          <t>四川</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>邵阳</t>
+          <t>绵阳</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -1959,12 +1959,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>湖南</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>徐州</t>
+          <t>邵阳</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -1981,12 +1981,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>漳州</t>
+          <t>徐州</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2003,12 +2003,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>漳州</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2025,12 +2025,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>广西</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>台州</t>
+          <t>南宁</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2047,12 +2047,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>广西</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>南宁</t>
+          <t>台州</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -3213,12 +3213,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>秦皇岛</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3235,12 +3235,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>宁夏</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>银川</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -3257,12 +3257,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>临沂</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -3279,12 +3279,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>宁夏</t>
+          <t>甘肃</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>银川</t>
+          <t>兰州</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -3301,12 +3301,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>临沂</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3323,12 +3323,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>甘肃</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>兰州</t>
+          <t>福州</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -3345,12 +3345,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>福州</t>
+          <t>呼和浩特</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -3367,12 +3367,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>连云港</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -3389,12 +3389,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>陕西</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>呼和浩特</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -3411,17 +3411,17 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>陕西</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -3433,12 +3433,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>东莞</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -3460,7 +3460,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>东莞</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -3477,12 +3477,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>贵州</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>贵阳</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -3499,17 +3499,17 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>贵州</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>贵阳</t>
+          <t>保定</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -3521,12 +3521,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>包头</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -3548,7 +3548,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>徐州</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -3565,12 +3565,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>安徽</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>合肥</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -3587,12 +3587,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>哈尔滨</t>
+          <t>长春</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -3609,12 +3609,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>湖南</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>石家庄</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -3631,12 +3631,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>广西</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>南宁</t>
+          <t>大同</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -3653,12 +3653,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>苏州</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -3675,15 +3675,345 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
+          <t>江西</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>南昌</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
           <t>山东</t>
         </is>
       </c>
-      <c r="C148" t="inlineStr">
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>青岛</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>江苏</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>常州</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>河北</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>秦皇岛</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>江苏</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>南京</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>广东</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>深圳</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>山西</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>太原</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>浙江</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>杭州</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>黑龙江</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>哈尔滨</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>湖南</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>长沙</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>广西</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>南宁</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>辽宁</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>大连</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>重庆</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>重庆</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>山东</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
         <is>
           <t>济南</t>
         </is>
       </c>
-      <c r="D148" t="inlineStr">
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>北京</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>北京</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>上海</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>上海</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
         <is>
           <t>较多</t>
         </is>

--- a/data/sourse.xlsx
+++ b/data/sourse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D163"/>
+  <dimension ref="A1:D162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2883,12 +2883,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>贵州</t>
+          <t>云南</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>贵阳</t>
+          <t>昆明</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -2905,12 +2905,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>云南</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>昆明</t>
+          <t>呼和浩特</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -2927,12 +2927,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>湖南</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>呼和浩特</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -2949,12 +2949,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>湖南</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -2971,12 +2971,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>沈阳</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -2993,12 +2993,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>四川</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>沈阳</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3015,12 +3015,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>四川</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3037,12 +3037,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>哈尔滨</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3059,12 +3059,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>陕西</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>哈尔滨</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3081,12 +3081,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>陕西</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3103,12 +3103,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3125,12 +3125,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3147,12 +3147,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3169,12 +3169,12 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3186,22 +3186,22 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>移动</t>
+          <t>联通</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -3213,12 +3213,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>宁夏</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>银川</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3235,12 +3235,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>宁夏</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>银川</t>
+          <t>临沂</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -3257,12 +3257,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>甘肃</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>临沂</t>
+          <t>兰州</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -3279,12 +3279,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>甘肃</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>兰州</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -3301,12 +3301,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>福州</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3323,12 +3323,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>福州</t>
+          <t>呼和浩特</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -3345,12 +3345,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>呼和浩特</t>
+          <t>连云港</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -3367,12 +3367,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>陕西</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>连云港</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -3389,17 +3389,17 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>陕西</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -3411,12 +3411,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>东莞</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -3438,7 +3438,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>东莞</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -3455,12 +3455,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>贵州</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>贵阳</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -3477,17 +3477,17 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>贵州</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>贵阳</t>
+          <t>保定</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -3499,12 +3499,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>保定</t>
+          <t>包头</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -3521,12 +3521,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>包头</t>
+          <t>徐州</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -3543,12 +3543,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>安徽</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>徐州</t>
+          <t>合肥</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -3565,12 +3565,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>安徽</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>合肥</t>
+          <t>长春</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -3587,12 +3587,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>长春</t>
+          <t>石家庄</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -3609,12 +3609,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>石家庄</t>
+          <t>大同</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -3631,12 +3631,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>大同</t>
+          <t>苏州</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -3653,12 +3653,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>江西</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -3675,12 +3675,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>江西</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -3697,12 +3697,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>常州</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -3719,12 +3719,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>常州</t>
+          <t>秦皇岛</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -3741,12 +3741,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>秦皇岛</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -3763,12 +3763,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -3785,12 +3785,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -3807,12 +3807,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>杭州</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -3829,12 +3829,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>杭州</t>
+          <t>哈尔滨</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -3851,12 +3851,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>湖南</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>哈尔滨</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -3873,12 +3873,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>湖南</t>
+          <t>广西</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>南宁</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -3895,12 +3895,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>广西</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>南宁</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -3917,12 +3917,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -3939,12 +3939,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>济南</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -3961,12 +3961,12 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>济南</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -3983,37 +3983,15 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>上海</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>上海</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
         <is>
           <t>较多</t>
         </is>

--- a/data/sourse.xlsx
+++ b/data/sourse.xlsx
@@ -3829,12 +3829,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>湖南</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>哈尔滨</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -3851,12 +3851,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>湖南</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>哈尔滨</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -3961,12 +3961,12 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -3983,12 +3983,12 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">

--- a/data/sourse.xlsx
+++ b/data/sourse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D162"/>
+  <dimension ref="A1:D158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3191,12 +3191,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>甘肃</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>兰州</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3213,12 +3213,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>宁夏</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>银川</t>
+          <t>临沂</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3235,12 +3235,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>临沂</t>
+          <t>呼和浩特</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -3257,12 +3257,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>甘肃</t>
+          <t>陕西</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>兰州</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -3279,12 +3279,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>连云港</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -3301,12 +3301,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>福州</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3323,12 +3323,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>呼和浩特</t>
+          <t>长春</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -3345,17 +3345,17 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>连云港</t>
+          <t>东莞</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -3367,17 +3367,17 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>陕西</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -3389,12 +3389,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -3411,12 +3411,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>江西</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>东莞</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -3433,12 +3433,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>石家庄</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -3455,12 +3455,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>贵州</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>贵阳</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -3477,17 +3477,17 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>保定</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -3499,17 +3499,17 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>贵州</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>包头</t>
+          <t>贵阳</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -3521,17 +3521,17 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>安徽</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>徐州</t>
+          <t>合肥</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -3543,17 +3543,17 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>安徽</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>合肥</t>
+          <t>苏州</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -3565,12 +3565,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>长春</t>
+          <t>保定</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -3587,12 +3587,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>石家庄</t>
+          <t>包头</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -3609,12 +3609,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>大同</t>
+          <t>徐州</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -3631,12 +3631,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>大同</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -3653,12 +3653,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>江西</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>常州</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -3675,12 +3675,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>秦皇岛</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -3697,12 +3697,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>常州</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -3719,12 +3719,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>湖南</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>秦皇岛</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -3741,12 +3741,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>哈尔滨</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -3763,12 +3763,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>杭州</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -3785,12 +3785,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>广西</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>南宁</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -3807,12 +3807,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>杭州</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -3829,12 +3829,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>湖南</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -3851,12 +3851,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>哈尔滨</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -3873,12 +3873,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>广西</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>南宁</t>
+          <t>济南</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -3895,103 +3895,15 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>重庆</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>重庆</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>山东</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>济南</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>上海</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>上海</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>北京</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>北京</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
         <is>
           <t>较多</t>
         </is>

--- a/data/sourse.xlsx
+++ b/data/sourse.xlsx
@@ -749,12 +749,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>莱芜</t>
+          <t>松原</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -771,12 +771,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>松原</t>
+          <t>莱芜</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1475,12 +1475,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>肇庆</t>
+          <t>淮安</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1497,12 +1497,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>淮安</t>
+          <t>肇庆</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1651,12 +1651,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>云南</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>红河</t>
+          <t>镇江</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1673,12 +1673,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>云南</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>镇江</t>
+          <t>红河</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -3411,12 +3411,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>江西</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>石家庄</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -3433,12 +3433,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>江西</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>石家庄</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">

--- a/data/sourse.xlsx
+++ b/data/sourse.xlsx
@@ -595,12 +595,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>十堰</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -617,12 +617,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>十堰</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1717,12 +1717,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>安徽</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>德州</t>
+          <t>合肥</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1739,12 +1739,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>安阳</t>
+          <t>德州</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1761,12 +1761,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>安徽</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>合肥</t>
+          <t>安阳</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -1871,12 +1871,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>济宁</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -1893,12 +1893,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>衢州</t>
+          <t>济宁</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -1915,12 +1915,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>衢州</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2267,12 +2267,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>贵州</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>遵义</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2289,12 +2289,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>贵州</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>鸡西</t>
+          <t>遵义</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2316,7 +2316,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>七台河</t>
+          <t>鸡西</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2338,7 +2338,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>双鸭山</t>
+          <t>七台河</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2355,12 +2355,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>盘锦</t>
+          <t>双鸭山</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2377,12 +2377,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>烟台</t>
+          <t>盘锦</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2399,12 +2399,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>宜昌</t>
+          <t>烟台</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2421,12 +2421,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>唐山</t>
+          <t>宜昌</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2443,12 +2443,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>唐山</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -3345,17 +3345,17 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>东莞</t>
+          <t>石家庄</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -3367,12 +3367,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>东莞</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -3389,12 +3389,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -3411,12 +3411,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>石家庄</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -3433,12 +3433,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>江西</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -3455,12 +3455,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>江西</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -3741,12 +3741,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>哈尔滨</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -3763,12 +3763,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>杭州</t>
+          <t>哈尔滨</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -3785,12 +3785,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>广西</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>南宁</t>
+          <t>杭州</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -3807,12 +3807,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>广西</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>南宁</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">

--- a/data/sourse.xlsx
+++ b/data/sourse.xlsx
@@ -1849,12 +1849,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>汕头</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -1871,12 +1871,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>汕头</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -1959,12 +1959,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>湖南</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>邵阳</t>
+          <t>漳州</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -1981,12 +1981,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>湖南</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>徐州</t>
+          <t>邵阳</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2003,12 +2003,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>漳州</t>
+          <t>徐州</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">

--- a/data/sourse.xlsx
+++ b/data/sourse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D158"/>
+  <dimension ref="A1:D165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3257,12 +3257,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>陕西</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>连云港</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -3279,17 +3279,17 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>连云港</t>
+          <t>东莞</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -3301,17 +3301,17 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -3323,17 +3323,17 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>江西</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>长春</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -3345,17 +3345,17 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>石家庄</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -3367,12 +3367,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>安徽</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>东莞</t>
+          <t>合肥</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -3389,12 +3389,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>苏州</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -3411,12 +3411,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -3433,17 +3433,17 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>保定</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -3455,17 +3455,17 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>江西</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>包头</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -3477,17 +3477,17 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>徐州</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -3499,17 +3499,17 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>贵州</t>
+          <t>云南</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>贵阳</t>
+          <t>昆明</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -3521,17 +3521,17 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>安徽</t>
+          <t>四川</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>合肥</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -3543,17 +3543,17 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -3565,12 +3565,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>保定</t>
+          <t>大同</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -3587,12 +3587,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>包头</t>
+          <t>沈阳</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -3609,12 +3609,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>宁夏</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>徐州</t>
+          <t>银川</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -3631,12 +3631,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>大同</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -3697,12 +3697,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -3719,12 +3719,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>湖南</t>
+          <t>陕西</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -3741,12 +3741,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -3763,12 +3763,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>哈尔滨</t>
+          <t>长春</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -3785,12 +3785,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>杭州</t>
+          <t>石家庄</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -3829,12 +3829,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -3851,12 +3851,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -3873,12 +3873,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>贵州</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>济南</t>
+          <t>贵阳</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -3895,15 +3895,169 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
+          <t>辽宁</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>大连</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>山西</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>太原</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>湖南</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>长沙</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
           <t>上海</t>
         </is>
       </c>
-      <c r="C158" t="inlineStr">
+      <c r="C161" t="inlineStr">
         <is>
           <t>上海</t>
         </is>
       </c>
-      <c r="D158" t="inlineStr">
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>黑龙江</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>哈尔滨</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>浙江</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>杭州</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>重庆</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>重庆</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>山东</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>济南</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
         <is>
           <t>较多</t>
         </is>

--- a/data/sourse.xlsx
+++ b/data/sourse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D165"/>
+  <dimension ref="A1:D164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3543,12 +3543,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>大同</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -3565,12 +3565,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>大同</t>
+          <t>沈阳</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -3587,12 +3587,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>宁夏</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>沈阳</t>
+          <t>银川</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -3609,12 +3609,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>宁夏</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>银川</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -3631,12 +3631,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>常州</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -3653,12 +3653,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>常州</t>
+          <t>秦皇岛</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -3675,12 +3675,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>秦皇岛</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -3741,12 +3741,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>哈尔滨</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -3763,12 +3763,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>长春</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -3785,12 +3785,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>石家庄</t>
+          <t>长春</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -3807,12 +3807,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>广西</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>南宁</t>
+          <t>石家庄</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -3829,12 +3829,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>广西</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>南宁</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -3851,12 +3851,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -3873,12 +3873,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>贵州</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>贵阳</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -3895,12 +3895,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>贵州</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>贵阳</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -3917,12 +3917,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -3983,12 +3983,12 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>哈尔滨</t>
+          <t>杭州</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -4005,12 +4005,12 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>杭州</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -4027,37 +4027,15 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>济南</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>山东</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>济南</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
         <is>
           <t>较多</t>
         </is>

--- a/data/sourse.xlsx
+++ b/data/sourse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D164"/>
+  <dimension ref="A1:D158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1695,12 +1695,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>安徽</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>聊城</t>
+          <t>合肥</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1717,12 +1717,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>安徽</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>合肥</t>
+          <t>聊城</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1827,12 +1827,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>孝感</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -1849,12 +1849,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>孝感</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2245,12 +2245,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>大兴安岭</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2267,12 +2267,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>大兴安岭</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -3257,12 +3257,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>陕西</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>连云港</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -3279,17 +3279,17 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>东莞</t>
+          <t>连云港</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -3301,17 +3301,17 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -3323,17 +3323,17 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>江西</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>长春</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -3345,17 +3345,17 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>石家庄</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -3367,12 +3367,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>安徽</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>合肥</t>
+          <t>东莞</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -3389,12 +3389,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -3411,12 +3411,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -3433,17 +3433,17 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>保定</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -3455,17 +3455,17 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>江西</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>包头</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -3477,17 +3477,17 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>徐州</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -3499,17 +3499,17 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>云南</t>
+          <t>贵州</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>昆明</t>
+          <t>贵阳</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -3521,17 +3521,17 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>四川</t>
+          <t>安徽</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>合肥</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -3543,17 +3543,17 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>大同</t>
+          <t>苏州</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -3565,12 +3565,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>沈阳</t>
+          <t>保定</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -3587,12 +3587,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>宁夏</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>银川</t>
+          <t>包头</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -3609,12 +3609,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>徐州</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -3631,12 +3631,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>常州</t>
+          <t>大同</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -3653,12 +3653,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>秦皇岛</t>
+          <t>常州</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -3675,12 +3675,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>秦皇岛</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -3697,12 +3697,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -3719,12 +3719,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>陕西</t>
+          <t>湖南</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -3741,12 +3741,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>哈尔滨</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -3763,12 +3763,12 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>哈尔滨</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -3785,12 +3785,12 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>长春</t>
+          <t>杭州</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -3807,12 +3807,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>广西</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>石家庄</t>
+          <t>南宁</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -3829,12 +3829,12 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>广西</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>南宁</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -3851,12 +3851,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -3873,12 +3873,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>济南</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -3895,147 +3895,15 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>贵州</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>贵阳</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>辽宁</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>大连</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>湖南</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>长沙</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>上海</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>上海</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>浙江</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>杭州</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>重庆</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>重庆</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>山东</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>济南</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
         <is>
           <t>较多</t>
         </is>

--- a/data/sourse.xlsx
+++ b/data/sourse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D158"/>
+  <dimension ref="A1:D151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,12 +463,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>菏泽</t>
+          <t>阳泉</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,12 +485,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>湖南</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>邯郸</t>
+          <t>邵阳</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -507,17 +507,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>阳泉</t>
+          <t>日照</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -529,12 +529,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>日照</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -551,12 +551,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>湖南</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>岳阳</t>
+          <t>恩施</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -578,7 +578,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>恩施</t>
+          <t>十堰</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -595,12 +595,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>江西</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>上饶</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -617,17 +617,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>十堰</t>
+          <t>朝阳</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -639,17 +639,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>江西</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>上饶</t>
+          <t>本溪</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -661,12 +661,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>朝阳</t>
+          <t>吕梁</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -683,12 +683,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>本溪</t>
+          <t>赤峰</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>吕梁</t>
+          <t>松原</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -727,12 +727,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>赤峰</t>
+          <t>莱芜</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -749,12 +749,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>松原</t>
+          <t>丹东</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -771,12 +771,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>莱芜</t>
+          <t>绥化</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -793,12 +793,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>丹东</t>
+          <t>南阳</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -820,7 +820,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>绥化</t>
+          <t>牡丹江</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -842,7 +842,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>牡丹江</t>
+          <t>大庆</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -859,12 +859,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>南阳</t>
+          <t>四平</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -886,7 +886,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>大庆</t>
+          <t>黑河</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -903,12 +903,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>保定</t>
+          <t>葫芦岛</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -925,12 +925,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>四平</t>
+          <t>通辽</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -947,12 +947,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>黑河</t>
+          <t>锦州</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -969,12 +969,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>葫芦岛</t>
+          <t>白城</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -991,12 +991,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>通辽</t>
+          <t>营口</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1013,12 +1013,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>锦州</t>
+          <t>南平</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1035,12 +1035,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>湖南</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>白城</t>
+          <t>衡阳</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1057,12 +1057,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>营口</t>
+          <t>商丘</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1079,12 +1079,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>南平</t>
+          <t>佳木斯</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1101,12 +1101,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>湖南</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>衡阳</t>
+          <t>大同</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1123,12 +1123,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>佳木斯</t>
+          <t>韶关</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1145,12 +1145,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>大同</t>
+          <t>鞍山</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1167,12 +1167,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>商丘</t>
+          <t>沧州</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1189,12 +1189,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>韶关</t>
+          <t>东营</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1211,12 +1211,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>鞍山</t>
+          <t>邢台</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1233,12 +1233,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>东营</t>
+          <t>石家庄</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1255,12 +1255,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>沧州</t>
+          <t>通化</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1277,12 +1277,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>广西</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>邢台</t>
+          <t>柳州</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1299,12 +1299,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>通化</t>
+          <t>长治</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1321,12 +1321,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>广西</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>柳州</t>
+          <t>泰安</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1343,12 +1343,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>长治</t>
+          <t>濮阳</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1365,12 +1365,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>石家庄</t>
+          <t>平顶山</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1387,12 +1387,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>濮阳</t>
+          <t>枣庄</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1409,12 +1409,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>泰安</t>
+          <t>淮安</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1431,12 +1431,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>平顶山</t>
+          <t>肇庆</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1453,12 +1453,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>枣庄</t>
+          <t>晋中</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1475,12 +1475,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>淮安</t>
+          <t>淄博</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1497,12 +1497,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>肇庆</t>
+          <t>泉州</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1519,12 +1519,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>晋中</t>
+          <t>齐齐哈尔</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1546,7 +1546,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>淄博</t>
+          <t>潍坊</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1563,12 +1563,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>安徽</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>齐齐哈尔</t>
+          <t>合肥</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1585,12 +1585,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>安徽</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>泉州</t>
+          <t>蚌埠</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1607,12 +1607,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>潍坊</t>
+          <t>镇江</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1629,12 +1629,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>安徽</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>蚌埠</t>
+          <t>聊城</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1651,12 +1651,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>云南</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>镇江</t>
+          <t>红河</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1673,12 +1673,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>云南</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>红河</t>
+          <t>安阳</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1695,12 +1695,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>安徽</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>合肥</t>
+          <t>德州</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1717,12 +1717,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>聊城</t>
+          <t>黄冈</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1739,12 +1739,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>四川</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>德州</t>
+          <t>德阳</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1766,7 +1766,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>安阳</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -1788,7 +1788,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>黄冈</t>
+          <t>孝感</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -1805,12 +1805,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>四川</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>德阳</t>
+          <t>汕头</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -1827,12 +1827,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>济宁</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -1849,12 +1849,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>四川</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>孝感</t>
+          <t>绵阳</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -1871,12 +1871,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>汕头</t>
+          <t>徐州</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -1893,12 +1893,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>济宁</t>
+          <t>漳州</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -1915,12 +1915,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>广西</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>衢州</t>
+          <t>南宁</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -1937,12 +1937,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>四川</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>绵阳</t>
+          <t>台州</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -1959,12 +1959,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>漳州</t>
+          <t>临沂</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -1981,12 +1981,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>湖南</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>邵阳</t>
+          <t>秦皇岛</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2003,12 +2003,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>徐州</t>
+          <t>廊坊</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2025,12 +2025,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>广西</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>南宁</t>
+          <t>无锡</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2047,12 +2047,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>台州</t>
+          <t>包头</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2069,12 +2069,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>广西</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>秦皇岛</t>
+          <t>桂林</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2091,12 +2091,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>临沂</t>
+          <t>盐城</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2113,12 +2113,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>廊坊</t>
+          <t>常州</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2135,12 +2135,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>无锡</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2157,12 +2157,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>包头</t>
+          <t>大兴安岭</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2179,12 +2179,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>广西</t>
+          <t>贵州</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>桂林</t>
+          <t>遵义</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2201,12 +2201,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>盐城</t>
+          <t>鸡西</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2223,12 +2223,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>常州</t>
+          <t>七台河</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2245,12 +2245,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>双鸭山</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2267,12 +2267,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>大兴安岭</t>
+          <t>盘锦</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2289,12 +2289,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>贵州</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>遵义</t>
+          <t>烟台</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2311,12 +2311,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>鸡西</t>
+          <t>宜昌</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2333,12 +2333,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>七台河</t>
+          <t>唐山</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2355,12 +2355,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>双鸭山</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2377,12 +2377,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>盘锦</t>
+          <t>南通</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2399,12 +2399,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>云南</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>烟台</t>
+          <t>大理</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2421,12 +2421,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>宜昌</t>
+          <t>杭州</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2443,12 +2443,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>唐山</t>
+          <t>苏州</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2465,12 +2465,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>中山</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2487,12 +2487,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>南通</t>
+          <t>惠州</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2509,12 +2509,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>云南</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>大理</t>
+          <t>洛阳</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2531,12 +2531,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>温州</t>
+          <t>佛山</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2553,12 +2553,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>杭州</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2575,12 +2575,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>济南</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -2597,12 +2597,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>中山</t>
+          <t>长春</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -2619,12 +2619,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>宁夏</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>惠州</t>
+          <t>银川</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -2641,12 +2641,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>江西</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>洛阳</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -2663,12 +2663,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>佛山</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -2685,12 +2685,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>云南</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>宁波</t>
+          <t>昆明</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -2707,12 +2707,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>甘肃</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>兰州</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -2729,12 +2729,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>济南</t>
+          <t>东莞</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -2751,12 +2751,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>宁夏</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>银川</t>
+          <t>呼和浩特</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -2773,12 +2773,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>湖南</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>长春</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -2795,12 +2795,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>江西</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -2817,12 +2817,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>沈阳</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -2839,12 +2839,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>甘肃</t>
+          <t>四川</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>兰州</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -2861,12 +2861,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>东莞</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -2883,12 +2883,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>云南</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>昆明</t>
+          <t>哈尔滨</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -2905,12 +2905,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>陕西</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>呼和浩特</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -2927,12 +2927,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>湖南</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -2949,12 +2949,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -2971,12 +2971,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>沈阳</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -2993,12 +2993,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>四川</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3015,12 +3015,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3032,95 +3032,95 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>移动</t>
+          <t>联通</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>甘肃</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>哈尔滨</t>
+          <t>兰州</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>移动</t>
+          <t>联通</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>陕西</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>临沂</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>移动</t>
+          <t>联通</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>呼和浩特</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>移动</t>
+          <t>联通</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>陕西</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>移动</t>
+          <t>联通</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -3130,56 +3130,56 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>移动</t>
+          <t>联通</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>连云港</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>移动</t>
+          <t>联通</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>长春</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -3191,12 +3191,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>甘肃</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>兰州</t>
+          <t>石家庄</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3213,17 +3213,17 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>临沂</t>
+          <t>东莞</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -3235,17 +3235,17 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>呼和浩特</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -3257,17 +3257,17 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>陕西</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -3284,12 +3284,12 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>连云港</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -3301,17 +3301,17 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>苏州</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -3323,17 +3323,17 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>江西</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>长春</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -3345,17 +3345,17 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>石家庄</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -3367,12 +3367,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>贵州</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>东莞</t>
+          <t>贵阳</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -3389,12 +3389,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>安徽</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>合肥</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -3411,12 +3411,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -3433,17 +3433,17 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>保定</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -3455,17 +3455,17 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>江西</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>包头</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -3477,17 +3477,17 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>徐州</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -3499,17 +3499,17 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>贵州</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>贵阳</t>
+          <t>大同</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -3521,17 +3521,17 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>安徽</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>合肥</t>
+          <t>常州</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -3543,17 +3543,17 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>秦皇岛</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -3565,12 +3565,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>保定</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -3587,12 +3587,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>湖南</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>包头</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -3609,12 +3609,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>徐州</t>
+          <t>杭州</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -3631,12 +3631,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>大同</t>
+          <t>哈尔滨</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -3653,12 +3653,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>广西</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>常州</t>
+          <t>南宁</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -3675,12 +3675,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>秦皇岛</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -3697,12 +3697,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -3719,12 +3719,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>湖南</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -3741,169 +3741,15 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>济南</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>黑龙江</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>哈尔滨</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>浙江</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>杭州</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>广西</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>南宁</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>重庆</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>重庆</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>辽宁</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>大连</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>山东</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>济南</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>上海</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>上海</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
         <is>
           <t>较多</t>
         </is>

--- a/data/sourse.xlsx
+++ b/data/sourse.xlsx
@@ -1959,12 +1959,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>临沂</t>
+          <t>无锡</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -1981,12 +1981,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>秦皇岛</t>
+          <t>临沂</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>廊坊</t>
+          <t>秦皇岛</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2025,12 +2025,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>无锡</t>
+          <t>廊坊</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2201,12 +2201,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>鸡西</t>
+          <t>宜昌</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2228,7 +2228,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>七台河</t>
+          <t>鸡西</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2250,7 +2250,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>双鸭山</t>
+          <t>七台河</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2267,12 +2267,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>盘锦</t>
+          <t>双鸭山</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2289,12 +2289,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>烟台</t>
+          <t>盘锦</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2311,12 +2311,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>宜昌</t>
+          <t>烟台</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">

--- a/data/sourse.xlsx
+++ b/data/sourse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D151"/>
+  <dimension ref="A1:D158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -529,12 +529,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>恩施</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -556,7 +556,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>恩施</t>
+          <t>十堰</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -573,12 +573,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>江西</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>十堰</t>
+          <t>上饶</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -595,17 +595,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>江西</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>上饶</t>
+          <t>朝阳</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -622,7 +622,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>朝阳</t>
+          <t>本溪</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -639,12 +639,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>本溪</t>
+          <t>吕梁</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -661,12 +661,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>吕梁</t>
+          <t>赤峰</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -683,12 +683,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>赤峰</t>
+          <t>松原</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>松原</t>
+          <t>莱芜</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -727,12 +727,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>莱芜</t>
+          <t>丹东</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -749,12 +749,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>丹东</t>
+          <t>绥化</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -771,12 +771,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>绥化</t>
+          <t>南阳</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -793,12 +793,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>南阳</t>
+          <t>牡丹江</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -820,7 +820,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>牡丹江</t>
+          <t>大庆</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -837,12 +837,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>大庆</t>
+          <t>四平</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -859,12 +859,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>四平</t>
+          <t>黑河</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -881,12 +881,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>黑河</t>
+          <t>葫芦岛</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -903,12 +903,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>葫芦岛</t>
+          <t>通辽</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -925,12 +925,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>通辽</t>
+          <t>南平</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1013,12 +1013,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>湖南</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>南平</t>
+          <t>衡阳</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1035,12 +1035,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>湖南</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>衡阳</t>
+          <t>商丘</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1057,12 +1057,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>商丘</t>
+          <t>佳木斯</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1079,12 +1079,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>佳木斯</t>
+          <t>大同</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1101,12 +1101,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>大同</t>
+          <t>韶关</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1123,12 +1123,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>韶关</t>
+          <t>鞍山</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1145,12 +1145,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>鞍山</t>
+          <t>沧州</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1167,12 +1167,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>沧州</t>
+          <t>东营</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1189,12 +1189,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>东营</t>
+          <t>邢台</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1216,7 +1216,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>邢台</t>
+          <t>石家庄</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1233,12 +1233,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>石家庄</t>
+          <t>通化</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1255,12 +1255,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>广西</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>通化</t>
+          <t>柳州</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1277,12 +1277,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>广西</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>柳州</t>
+          <t>长治</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1299,12 +1299,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>长治</t>
+          <t>泰安</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1321,12 +1321,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>泰安</t>
+          <t>濮阳</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1348,7 +1348,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>濮阳</t>
+          <t>平顶山</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1365,12 +1365,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>平顶山</t>
+          <t>枣庄</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1387,12 +1387,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>枣庄</t>
+          <t>淮安</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1409,12 +1409,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>淮安</t>
+          <t>肇庆</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1431,12 +1431,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>肇庆</t>
+          <t>晋中</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1453,12 +1453,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>晋中</t>
+          <t>淄博</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1475,12 +1475,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>淄博</t>
+          <t>泉州</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1497,12 +1497,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>泉州</t>
+          <t>齐齐哈尔</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1519,12 +1519,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>齐齐哈尔</t>
+          <t>潍坊</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1541,12 +1541,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>安徽</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>潍坊</t>
+          <t>合肥</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1563,12 +1563,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>安徽</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>合肥</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1761,12 +1761,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>孝感</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -1783,12 +1783,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>孝感</t>
+          <t>汕头</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -1805,12 +1805,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>汕头</t>
+          <t>济宁</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -1827,12 +1827,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>四川</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>济宁</t>
+          <t>绵阳</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -1849,12 +1849,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>四川</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>绵阳</t>
+          <t>漳州</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -1893,12 +1893,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>广西</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>漳州</t>
+          <t>南宁</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -1915,12 +1915,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>广西</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>南宁</t>
+          <t>台州</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -1937,12 +1937,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>台州</t>
+          <t>无锡</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -1959,12 +1959,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>无锡</t>
+          <t>临沂</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -1981,12 +1981,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>临沂</t>
+          <t>秦皇岛</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>秦皇岛</t>
+          <t>廊坊</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2025,12 +2025,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>廊坊</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2135,12 +2135,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>大兴安岭</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2157,12 +2157,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>贵州</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>大兴安岭</t>
+          <t>遵义</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2179,12 +2179,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>贵州</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>遵义</t>
+          <t>宜昌</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2201,12 +2201,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>宜昌</t>
+          <t>烟台</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2311,12 +2311,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>烟台</t>
+          <t>唐山</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2333,12 +2333,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>唐山</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2355,12 +2355,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>南通</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2377,12 +2377,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>云南</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>南通</t>
+          <t>大理</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2399,12 +2399,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>云南</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>大理</t>
+          <t>杭州</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2421,12 +2421,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>杭州</t>
+          <t>苏州</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2443,12 +2443,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>中山</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2470,7 +2470,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>中山</t>
+          <t>惠州</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2487,12 +2487,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>惠州</t>
+          <t>洛阳</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2509,12 +2509,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>洛阳</t>
+          <t>佛山</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2531,12 +2531,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>佛山</t>
+          <t>济南</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2575,12 +2575,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>江西</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>济南</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -2641,12 +2641,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>江西</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -2663,12 +2663,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>云南</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>昆明</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -2685,12 +2685,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>云南</t>
+          <t>甘肃</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>昆明</t>
+          <t>兰州</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -2707,12 +2707,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>甘肃</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>兰州</t>
+          <t>东莞</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -2729,12 +2729,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>东莞</t>
+          <t>呼和浩特</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -2751,12 +2751,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>湖南</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>呼和浩特</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -2773,12 +2773,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>湖南</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -2795,12 +2795,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>沈阳</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -2817,12 +2817,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>四川</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>沈阳</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -2839,12 +2839,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>四川</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -2861,12 +2861,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>哈尔滨</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -2883,12 +2883,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>陕西</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>哈尔滨</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -2905,12 +2905,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>陕西</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -2927,12 +2927,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -2949,12 +2949,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -2971,12 +2971,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -2993,12 +2993,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3010,22 +3010,22 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>移动</t>
+          <t>联通</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>临沂</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -3037,12 +3037,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>甘肃</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>兰州</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3059,12 +3059,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>陕西</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>临沂</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3081,12 +3081,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>呼和浩特</t>
+          <t>连云港</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3103,12 +3103,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>陕西</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3125,12 +3125,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>四川</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3147,17 +3147,17 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>连云港</t>
+          <t>东莞</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -3169,17 +3169,17 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>长春</t>
+          <t>苏州</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -3191,17 +3191,17 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>石家庄</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -3213,12 +3213,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>云南</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>东莞</t>
+          <t>昆明</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3235,12 +3235,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>甘肃</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>兰州</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -3257,12 +3257,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>石家庄</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -3279,12 +3279,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -3301,12 +3301,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>江西</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3323,12 +3323,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>江西</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -3345,17 +3345,17 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>保定</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -3367,17 +3367,17 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>贵州</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>贵阳</t>
+          <t>包头</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -3389,17 +3389,17 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>安徽</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>合肥</t>
+          <t>徐州</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -3411,17 +3411,17 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -3433,12 +3433,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>保定</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -3455,12 +3455,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>包头</t>
+          <t>大同</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -3477,12 +3477,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>徐州</t>
+          <t>沈阳</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -3499,12 +3499,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>宁夏</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>大同</t>
+          <t>银川</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -3521,12 +3521,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>常州</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -3543,12 +3543,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>秦皇岛</t>
+          <t>常州</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -3565,12 +3565,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>秦皇岛</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -3587,12 +3587,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>湖南</t>
+          <t>安徽</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>合肥</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -3609,12 +3609,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>杭州</t>
+          <t>呼和浩特</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -3631,12 +3631,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>哈尔滨</t>
+          <t>杭州</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -3653,12 +3653,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>广西</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>南宁</t>
+          <t>长春</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -3675,12 +3675,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -3697,12 +3697,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>湖南</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -3719,12 +3719,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>贵州</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>贵阳</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -3741,15 +3741,169 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
+          <t>江苏</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>南京</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>山西</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>太原</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>上海</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>上海</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>重庆</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>重庆</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>辽宁</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>大连</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>黑龙江</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>哈尔滨</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>广西</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>南宁</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
           <t>山东</t>
         </is>
       </c>
-      <c r="C151" t="inlineStr">
+      <c r="C158" t="inlineStr">
         <is>
           <t>济南</t>
         </is>
       </c>
-      <c r="D151" t="inlineStr">
+      <c r="D158" t="inlineStr">
         <is>
           <t>较多</t>
         </is>

--- a/data/sourse.xlsx
+++ b/data/sourse.xlsx
@@ -3103,12 +3103,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>四川</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3125,12 +3125,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>四川</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3257,12 +3257,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>石家庄</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -3279,12 +3279,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>石家庄</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -3301,12 +3301,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>江西</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3323,12 +3323,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>江西</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -3345,17 +3345,17 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>保定</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -3367,12 +3367,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>包头</t>
+          <t>保定</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -3389,12 +3389,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>徐州</t>
+          <t>包头</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -3411,12 +3411,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>徐州</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -3433,12 +3433,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -3631,12 +3631,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>湖南</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>杭州</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -3653,12 +3653,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>长春</t>
+          <t>杭州</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -3675,12 +3675,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>长春</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -3697,12 +3697,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>湖南</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">

--- a/data/sourse.xlsx
+++ b/data/sourse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D158"/>
+  <dimension ref="A1:D141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3015,12 +3015,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>陕西</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>临沂</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3037,12 +3037,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>安徽</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>合肥</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3059,12 +3059,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>陕西</t>
+          <t>湖南</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3081,12 +3081,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>江西</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>连云港</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3103,12 +3103,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>四川</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3125,12 +3125,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>石家庄</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3147,17 +3147,17 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>东莞</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -3169,17 +3169,17 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>四川</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -3191,12 +3191,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3213,12 +3213,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>云南</t>
+          <t>广西</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>昆明</t>
+          <t>南宁</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3235,12 +3235,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>甘肃</t>
+          <t>贵州</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>兰州</t>
+          <t>贵阳</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -3257,12 +3257,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -3279,12 +3279,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>甘肃</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>石家庄</t>
+          <t>兰州</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -3301,12 +3301,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>云南</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>昆明</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3323,12 +3323,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>江西</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -3345,12 +3345,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>呼和浩特</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -3367,17 +3367,17 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>保定</t>
+          <t>哈尔滨</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -3389,17 +3389,17 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>包头</t>
+          <t>长春</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -3411,12 +3411,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>徐州</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -3433,12 +3433,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -3455,12 +3455,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>大同</t>
+          <t>济南</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -3530,380 +3530,6 @@
         </is>
       </c>
       <c r="D141" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>江苏</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>常州</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>河北</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>秦皇岛</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>安徽</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>合肥</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>内蒙古</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>呼和浩特</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>湖南</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>长沙</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>浙江</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>杭州</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>吉林</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>长春</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>海南</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>海南</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>贵州</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>贵阳</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>江苏</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>南京</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>山西</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>太原</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>上海</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>上海</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>重庆</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>重庆</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>辽宁</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>大连</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>黑龙江</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>哈尔滨</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>广西</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>南宁</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>山东</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>济南</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
         <is>
           <t>较多</t>
         </is>

--- a/data/sourse.xlsx
+++ b/data/sourse.xlsx
@@ -2531,12 +2531,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>济南</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2553,12 +2553,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>济南</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">

--- a/data/sourse.xlsx
+++ b/data/sourse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D141"/>
+  <dimension ref="A1:D140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2531,12 +2531,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>济南</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2553,12 +2553,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>济南</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -3015,12 +3015,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>陕西</t>
+          <t>安徽</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>合肥</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3037,12 +3037,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>安徽</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>合肥</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3081,12 +3081,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>江西</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>石家庄</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3103,12 +3103,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>江西</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3125,12 +3125,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>四川</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>石家庄</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3169,12 +3169,12 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>四川</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3213,12 +3213,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>广西</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>南宁</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3235,12 +3235,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>贵州</t>
+          <t>广西</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>贵阳</t>
+          <t>南宁</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -3257,12 +3257,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>贵州</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>贵阳</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -3279,12 +3279,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>甘肃</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>兰州</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -3301,12 +3301,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>云南</t>
+          <t>甘肃</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>昆明</t>
+          <t>兰州</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3323,12 +3323,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>云南</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>昆明</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -3345,12 +3345,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>呼和浩特</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -3367,12 +3367,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>哈尔滨</t>
+          <t>济南</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -3389,12 +3389,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>长春</t>
+          <t>呼和浩特</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -3411,17 +3411,17 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>哈尔滨</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -3433,17 +3433,17 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>长春</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -3455,12 +3455,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>济南</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -3508,28 +3508,6 @@
         </is>
       </c>
       <c r="D140" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>河南</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>郑州</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
         <is>
           <t>较多</t>
         </is>

--- a/data/sourse.xlsx
+++ b/data/sourse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D140"/>
+  <dimension ref="A1:D147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3015,17 +3015,17 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>安徽</t>
+          <t>甘肃</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>合肥</t>
+          <t>兰州</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -3047,7 +3047,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -3059,17 +3059,17 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>湖南</t>
+          <t>陕西</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -3091,7 +3091,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -3103,17 +3103,17 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>江西</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -3125,17 +3125,17 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>四川</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -3147,17 +3147,17 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -3169,17 +3169,17 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>安徽</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>合肥</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -3191,17 +3191,17 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -3213,17 +3213,17 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>杭州</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -3235,17 +3235,17 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>广西</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>南宁</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -3257,17 +3257,17 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>贵州</t>
+          <t>湖南</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>贵阳</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -3279,17 +3279,17 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>福州</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -3301,17 +3301,17 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>甘肃</t>
+          <t>四川</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>兰州</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -3323,17 +3323,17 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>云南</t>
+          <t>江西</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>昆明</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -3345,17 +3345,17 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -3367,17 +3367,17 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>济南</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -3389,17 +3389,17 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>呼和浩特</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -3411,17 +3411,17 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>广西</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>哈尔滨</t>
+          <t>南宁</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -3433,17 +3433,17 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>长春</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -3455,12 +3455,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>济南</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -3477,12 +3477,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>贵州</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>沈阳</t>
+          <t>贵阳</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -3499,15 +3499,169 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
+          <t>海南</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>海南</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>云南</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>昆明</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>内蒙古</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>呼和浩特</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>黑龙江</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>哈尔滨</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>吉林</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>长春</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>福建</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>厦门</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>辽宁</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>沈阳</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
           <t>宁夏</t>
         </is>
       </c>
-      <c r="C140" t="inlineStr">
+      <c r="C147" t="inlineStr">
         <is>
           <t>银川</t>
         </is>
       </c>
-      <c r="D140" t="inlineStr">
+      <c r="D147" t="inlineStr">
         <is>
           <t>较多</t>
         </is>

--- a/data/sourse.xlsx
+++ b/data/sourse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D147"/>
+  <dimension ref="A1:D139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3015,17 +3015,17 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>甘肃</t>
+          <t>湖南</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>兰州</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -3037,17 +3037,17 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>安徽</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>合肥</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -3059,17 +3059,17 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>陕西</t>
+          <t>四川</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -3081,17 +3081,17 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>石家庄</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -3103,17 +3103,17 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>江西</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -3125,17 +3125,17 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -3147,17 +3147,17 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>石家庄</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -3169,17 +3169,17 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>安徽</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>合肥</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -3191,17 +3191,17 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -3213,17 +3213,17 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>广西</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>杭州</t>
+          <t>南宁</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -3235,17 +3235,17 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -3257,17 +3257,17 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>湖南</t>
+          <t>贵州</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>贵阳</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -3279,17 +3279,17 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>福州</t>
+          <t>济南</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -3301,17 +3301,17 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>四川</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -3323,17 +3323,17 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>江西</t>
+          <t>甘肃</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>兰州</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -3345,17 +3345,17 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>云南</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>昆明</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -3367,17 +3367,17 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>呼和浩特</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -3389,17 +3389,17 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>哈尔滨</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -3411,17 +3411,17 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>广西</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>南宁</t>
+          <t>长春</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -3433,12 +3433,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -3455,12 +3455,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>济南</t>
+          <t>沈阳</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -3477,191 +3477,15 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>贵州</t>
+          <t>宁夏</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>贵阳</t>
+          <t>银川</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>海南</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>海南</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>云南</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>昆明</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>内蒙古</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>呼和浩特</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>黑龙江</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>哈尔滨</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>吉林</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>长春</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>福建</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>厦门</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>辽宁</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>沈阳</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>宁夏</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>银川</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
         <is>
           <t>较多</t>
         </is>

--- a/data/sourse.xlsx
+++ b/data/sourse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D139"/>
+  <dimension ref="A1:D145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,17 +485,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>湖南</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>邵阳</t>
+          <t>日照</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -507,12 +507,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>湖南</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>日照</t>
+          <t>岳阳</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1123,12 +1123,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>鞍山</t>
+          <t>石家庄</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1145,12 +1145,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>沧州</t>
+          <t>鞍山</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1167,12 +1167,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>东营</t>
+          <t>沧州</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1189,12 +1189,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>邢台</t>
+          <t>东营</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1216,7 +1216,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>石家庄</t>
+          <t>邢台</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1299,12 +1299,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>泰安</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1321,12 +1321,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>濮阳</t>
+          <t>泰安</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1348,7 +1348,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>平顶山</t>
+          <t>濮阳</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1365,12 +1365,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>枣庄</t>
+          <t>平顶山</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1387,12 +1387,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>淮安</t>
+          <t>枣庄</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1409,12 +1409,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>肇庆</t>
+          <t>淮安</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1431,12 +1431,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>晋中</t>
+          <t>肇庆</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1453,12 +1453,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>淄博</t>
+          <t>晋中</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1475,12 +1475,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>泉州</t>
+          <t>淄博</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1497,12 +1497,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>齐齐哈尔</t>
+          <t>泉州</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1519,12 +1519,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>潍坊</t>
+          <t>齐齐哈尔</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1541,12 +1541,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>安徽</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>合肥</t>
+          <t>潍坊</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1563,12 +1563,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>安徽</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>合肥</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1805,12 +1805,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>贵州</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>济宁</t>
+          <t>贵阳</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -1827,12 +1827,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>四川</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>绵阳</t>
+          <t>济宁</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -1849,12 +1849,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>漳州</t>
+          <t>衢州</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -1871,12 +1871,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>四川</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>徐州</t>
+          <t>绵阳</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -1893,12 +1893,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>广西</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>南宁</t>
+          <t>漳州</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -1915,12 +1915,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>台州</t>
+          <t>徐州</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -1937,12 +1937,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>湖南</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>无锡</t>
+          <t>邵阳</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -1959,12 +1959,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>广西</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>临沂</t>
+          <t>南宁</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -1981,12 +1981,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>秦皇岛</t>
+          <t>台州</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2003,12 +2003,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>廊坊</t>
+          <t>无锡</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2025,12 +2025,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>临沂</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2047,12 +2047,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>包头</t>
+          <t>秦皇岛</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2069,12 +2069,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>广西</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>桂林</t>
+          <t>廊坊</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2091,12 +2091,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>盐城</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2113,12 +2113,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>常州</t>
+          <t>包头</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2135,12 +2135,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>广西</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>大兴安岭</t>
+          <t>桂林</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2157,12 +2157,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>贵州</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>遵义</t>
+          <t>盐城</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2179,12 +2179,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>宜昌</t>
+          <t>常州</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2201,12 +2201,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>烟台</t>
+          <t>大兴安岭</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2223,12 +2223,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>贵州</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>鸡西</t>
+          <t>遵义</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2245,12 +2245,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>七台河</t>
+          <t>宜昌</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2267,12 +2267,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>双鸭山</t>
+          <t>烟台</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2289,12 +2289,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>盘锦</t>
+          <t>鸡西</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2311,12 +2311,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>唐山</t>
+          <t>七台河</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2333,12 +2333,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>双鸭山</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2355,12 +2355,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>南通</t>
+          <t>盘锦</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2377,12 +2377,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>云南</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>大理</t>
+          <t>唐山</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2399,12 +2399,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>杭州</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2421,12 +2421,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2443,12 +2443,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>中山</t>
+          <t>南通</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2465,12 +2465,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>云南</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>惠州</t>
+          <t>大理</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2487,12 +2487,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>洛阳</t>
+          <t>杭州</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2509,12 +2509,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>佛山</t>
+          <t>温州</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2531,12 +2531,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>济南</t>
+          <t>苏州</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2553,12 +2553,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>中山</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2575,12 +2575,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>江西</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>惠州</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -2597,12 +2597,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>长春</t>
+          <t>洛阳</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -2619,12 +2619,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>宁夏</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>银川</t>
+          <t>佛山</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -2646,7 +2646,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>济南</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -2663,12 +2663,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>云南</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>昆明</t>
+          <t>宁波</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -2685,12 +2685,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>甘肃</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>兰州</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -2707,12 +2707,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>江西</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>东莞</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -2729,12 +2729,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>呼和浩特</t>
+          <t>长春</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -2751,12 +2751,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>湖南</t>
+          <t>宁夏</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>银川</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -2773,12 +2773,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -2795,12 +2795,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>甘肃</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>沈阳</t>
+          <t>兰州</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -2817,12 +2817,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>四川</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>东莞</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -2839,12 +2839,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>云南</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>昆明</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -2861,12 +2861,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>哈尔滨</t>
+          <t>呼和浩特</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -2883,12 +2883,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>陕西</t>
+          <t>湖南</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -2905,12 +2905,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -2927,12 +2927,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>沈阳</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -2949,12 +2949,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>四川</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -2971,12 +2971,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -2993,12 +2993,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>哈尔滨</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3010,73 +3010,73 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>联通</t>
+          <t>移动</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>湖南</t>
+          <t>陕西</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>联通</t>
+          <t>移动</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>安徽</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>合肥</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>联通</t>
+          <t>移动</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>四川</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>联通</t>
+          <t>移动</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -3091,51 +3091,51 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>联通</t>
+          <t>移动</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>江西</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>联通</t>
+          <t>移动</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -3147,12 +3147,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>四川</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>石家庄</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3169,12 +3169,12 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>湖南</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3191,12 +3191,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>安徽</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>合肥</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3213,17 +3213,17 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>广西</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>南宁</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -3235,17 +3235,17 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>江西</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -3257,17 +3257,17 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>贵州</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>贵阳</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -3279,17 +3279,17 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>济南</t>
+          <t>石家庄</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -3301,17 +3301,17 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -3323,17 +3323,17 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>甘肃</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>兰州</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -3345,17 +3345,17 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>云南</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>昆明</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -3367,17 +3367,17 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>贵州</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>呼和浩特</t>
+          <t>贵阳</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -3389,12 +3389,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>广西</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>哈尔滨</t>
+          <t>南宁</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -3411,12 +3411,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>长春</t>
+          <t>济南</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -3433,17 +3433,17 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -3455,17 +3455,17 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>甘肃</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>沈阳</t>
+          <t>兰州</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -3477,15 +3477,147 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
+          <t>云南</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>昆明</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>足够</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>福建</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>厦门</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>足够</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>吉林</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>长春</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>足够</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>内蒙古</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>呼和浩特</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>足够</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>黑龙江</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>哈尔滨</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>足够</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>辽宁</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>沈阳</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
           <t>宁夏</t>
         </is>
       </c>
-      <c r="C139" t="inlineStr">
+      <c r="C145" t="inlineStr">
         <is>
           <t>银川</t>
         </is>
       </c>
-      <c r="D139" t="inlineStr">
+      <c r="D145" t="inlineStr">
         <is>
           <t>较多</t>
         </is>

--- a/data/sourse.xlsx
+++ b/data/sourse.xlsx
@@ -1123,12 +1123,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>石家庄</t>
+          <t>鞍山</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1145,12 +1145,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>鞍山</t>
+          <t>沧州</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1167,12 +1167,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>沧州</t>
+          <t>东营</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1189,12 +1189,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>东营</t>
+          <t>邢台</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1216,7 +1216,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>邢台</t>
+          <t>石家庄</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -3147,12 +3147,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>四川</t>
+          <t>湖南</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3169,12 +3169,12 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>湖南</t>
+          <t>安徽</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>合肥</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3191,12 +3191,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>安徽</t>
+          <t>四川</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>合肥</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3377,7 +3377,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -3521,12 +3521,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>长春</t>
+          <t>呼和浩特</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -3543,12 +3543,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>呼和浩特</t>
+          <t>哈尔滨</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -3565,12 +3565,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>哈尔滨</t>
+          <t>长春</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">

--- a/data/sourse.xlsx
+++ b/data/sourse.xlsx
@@ -3301,12 +3301,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3323,12 +3323,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -3345,17 +3345,17 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>贵州</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>贵阳</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -3367,12 +3367,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>贵州</t>
+          <t>广西</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>贵阳</t>
+          <t>南宁</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -3389,12 +3389,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>广西</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>南宁</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -3499,12 +3499,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>呼和浩特</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -3521,12 +3521,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>呼和浩特</t>
+          <t>哈尔滨</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -3543,12 +3543,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>哈尔滨</t>
+          <t>长春</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -3565,17 +3565,17 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>长春</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较多</t>
         </is>
       </c>
     </row>

--- a/data/sourse.xlsx
+++ b/data/sourse.xlsx
@@ -1123,12 +1123,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>鞍山</t>
+          <t>石家庄</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1145,12 +1145,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>沧州</t>
+          <t>鞍山</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1167,12 +1167,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>东营</t>
+          <t>沧州</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1189,12 +1189,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>邢台</t>
+          <t>东营</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1216,7 +1216,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>石家庄</t>
+          <t>邢台</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2707,12 +2707,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>江西</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>长春</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -2729,12 +2729,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>江西</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>长春</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3147,12 +3147,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>湖南</t>
+          <t>四川</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3169,12 +3169,12 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>安徽</t>
+          <t>湖南</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>合肥</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3191,12 +3191,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>四川</t>
+          <t>安徽</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>合肥</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3301,12 +3301,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3323,12 +3323,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -3345,17 +3345,17 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>贵州</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>贵阳</t>
+          <t>济南</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -3367,17 +3367,17 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>广西</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>南宁</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -3389,17 +3389,17 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>贵州</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>贵阳</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -3411,12 +3411,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>广西</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>济南</t>
+          <t>南宁</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -3499,12 +3499,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>呼和浩特</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -3521,12 +3521,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>哈尔滨</t>
+          <t>长春</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -3543,12 +3543,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>长春</t>
+          <t>呼和浩特</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -3565,17 +3565,17 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>哈尔滨</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>足够</t>
         </is>
       </c>
     </row>

--- a/data/sourse.xlsx
+++ b/data/sourse.xlsx
@@ -551,12 +551,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>十堰</t>
+          <t>石家庄</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -573,12 +573,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>江西</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>上饶</t>
+          <t>十堰</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -595,17 +595,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>江西</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>朝阳</t>
+          <t>上饶</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -617,12 +617,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>本溪</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -639,12 +639,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>吕梁</t>
+          <t>朝阳</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -661,12 +661,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>赤峰</t>
+          <t>本溪</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -683,12 +683,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>松原</t>
+          <t>吕梁</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>莱芜</t>
+          <t>赤峰</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -727,12 +727,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>丹东</t>
+          <t>松原</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -749,12 +749,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>绥化</t>
+          <t>莱芜</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -771,12 +771,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>南阳</t>
+          <t>丹东</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -798,7 +798,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>牡丹江</t>
+          <t>绥化</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -815,12 +815,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>大庆</t>
+          <t>南阳</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -837,12 +837,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>四平</t>
+          <t>牡丹江</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -864,7 +864,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>黑河</t>
+          <t>大庆</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -881,12 +881,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>葫芦岛</t>
+          <t>四平</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -903,12 +903,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>通辽</t>
+          <t>黑河</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -925,12 +925,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>南平</t>
+          <t>葫芦岛</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -947,12 +947,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>锦州</t>
+          <t>通辽</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -969,12 +969,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>白城</t>
+          <t>南平</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -996,7 +996,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>营口</t>
+          <t>锦州</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1013,12 +1013,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>湖南</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>衡阳</t>
+          <t>白城</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1035,12 +1035,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>商丘</t>
+          <t>营口</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1057,12 +1057,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>湖南</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>佳木斯</t>
+          <t>衡阳</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1079,12 +1079,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>安徽</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>大同</t>
+          <t>合肥</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1101,12 +1101,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>韶关</t>
+          <t>商丘</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1123,12 +1123,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>石家庄</t>
+          <t>佳木斯</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1145,12 +1145,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>鞍山</t>
+          <t>大同</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1167,12 +1167,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>沧州</t>
+          <t>韶关</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1189,12 +1189,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>东营</t>
+          <t>鞍山</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1216,7 +1216,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>邢台</t>
+          <t>沧州</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1233,12 +1233,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>通化</t>
+          <t>东营</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1255,12 +1255,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>广西</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>柳州</t>
+          <t>邢台</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1277,12 +1277,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>长治</t>
+          <t>通化</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1299,12 +1299,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>广西</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>柳州</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1321,12 +1321,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>泰安</t>
+          <t>长治</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1343,12 +1343,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>贵州</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>濮阳</t>
+          <t>贵阳</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1365,12 +1365,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>平顶山</t>
+          <t>泰安</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1387,12 +1387,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>枣庄</t>
+          <t>濮阳</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1409,12 +1409,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>淮安</t>
+          <t>平顶山</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1431,12 +1431,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>肇庆</t>
+          <t>枣庄</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1453,12 +1453,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>晋中</t>
+          <t>淮安</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1475,12 +1475,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>淄博</t>
+          <t>肇庆</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1497,12 +1497,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>泉州</t>
+          <t>晋中</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1519,12 +1519,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>齐齐哈尔</t>
+          <t>淄博</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1541,12 +1541,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>潍坊</t>
+          <t>泉州</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1563,12 +1563,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>安徽</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>合肥</t>
+          <t>齐齐哈尔</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1585,12 +1585,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>安徽</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>蚌埠</t>
+          <t>潍坊</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1607,12 +1607,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>广西</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>镇江</t>
+          <t>南宁</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1629,12 +1629,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>安徽</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>聊城</t>
+          <t>蚌埠</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1651,12 +1651,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>云南</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>红河</t>
+          <t>镇江</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1673,12 +1673,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>安阳</t>
+          <t>聊城</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1695,12 +1695,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>云南</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>德州</t>
+          <t>红河</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1717,12 +1717,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>黄冈</t>
+          <t>安阳</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1739,12 +1739,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>四川</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>德阳</t>
+          <t>德州</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1766,7 +1766,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>孝感</t>
+          <t>黄冈</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -1783,12 +1783,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>四川</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>汕头</t>
+          <t>德阳</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -1805,12 +1805,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>贵州</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>贵阳</t>
+          <t>孝感</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -1827,12 +1827,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>济宁</t>
+          <t>汕头</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -1849,12 +1849,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>衢州</t>
+          <t>济宁</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -1871,12 +1871,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>四川</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>绵阳</t>
+          <t>衢州</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -1893,12 +1893,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>四川</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>漳州</t>
+          <t>绵阳</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -1915,12 +1915,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>徐州</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -1937,12 +1937,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>湖南</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>邵阳</t>
+          <t>漳州</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -1959,12 +1959,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>广西</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>南宁</t>
+          <t>徐州</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -1981,12 +1981,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>湖南</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>台州</t>
+          <t>邵阳</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2003,12 +2003,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>无锡</t>
+          <t>台州</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2025,12 +2025,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>临沂</t>
+          <t>无锡</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2047,12 +2047,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>秦皇岛</t>
+          <t>临沂</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>廊坊</t>
+          <t>秦皇岛</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2091,12 +2091,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>廊坊</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2179,12 +2179,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>常州</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2201,12 +2201,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>大兴安岭</t>
+          <t>常州</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2223,12 +2223,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>贵州</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>遵义</t>
+          <t>大兴安岭</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2245,12 +2245,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>贵州</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>宜昌</t>
+          <t>遵义</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2267,12 +2267,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>烟台</t>
+          <t>宜昌</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2289,12 +2289,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>鸡西</t>
+          <t>烟台</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2316,7 +2316,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>七台河</t>
+          <t>鸡西</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2338,7 +2338,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>双鸭山</t>
+          <t>七台河</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2355,12 +2355,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>盘锦</t>
+          <t>双鸭山</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2377,12 +2377,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>唐山</t>
+          <t>盘锦</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2399,12 +2399,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>杭州</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2421,12 +2421,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>唐山</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2443,12 +2443,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>南通</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2465,12 +2465,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>云南</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>大理</t>
+          <t>南通</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2487,12 +2487,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>云南</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>杭州</t>
+          <t>大理</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2597,12 +2597,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>洛阳</t>
+          <t>济南</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -2619,12 +2619,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>佛山</t>
+          <t>洛阳</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -2641,12 +2641,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>济南</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -2663,12 +2663,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>宁波</t>
+          <t>佛山</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -2685,12 +2685,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>长春</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -2707,12 +2707,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>江西</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>长春</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -2729,12 +2729,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>江西</t>
+          <t>宁夏</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>银川</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -2751,12 +2751,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>宁夏</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>银川</t>
+          <t>宁波</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">

--- a/data/sourse.xlsx
+++ b/data/sourse.xlsx
@@ -1057,12 +1057,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>湖南</t>
+          <t>安徽</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>衡阳</t>
+          <t>合肥</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1079,12 +1079,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>安徽</t>
+          <t>湖南</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>合肥</t>
+          <t>衡阳</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1277,12 +1277,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>贵州</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>通化</t>
+          <t>贵阳</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1299,12 +1299,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>广西</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>柳州</t>
+          <t>通化</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1321,12 +1321,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>广西</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>长治</t>
+          <t>柳州</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1343,12 +1343,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>贵州</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>贵阳</t>
+          <t>长治</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1519,12 +1519,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>广西</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>淄博</t>
+          <t>南宁</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1541,12 +1541,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>泉州</t>
+          <t>淄博</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1563,12 +1563,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>齐齐哈尔</t>
+          <t>泉州</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1585,12 +1585,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>潍坊</t>
+          <t>齐齐哈尔</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1607,12 +1607,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>广西</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>南宁</t>
+          <t>潍坊</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1849,12 +1849,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>济宁</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -1871,12 +1871,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>衢州</t>
+          <t>济宁</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -1893,12 +1893,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>四川</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>绵阳</t>
+          <t>衢州</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -1915,12 +1915,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>四川</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>绵阳</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2135,12 +2135,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>广西</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>桂林</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2157,12 +2157,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>广西</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>盐城</t>
+          <t>桂林</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2179,12 +2179,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>盐城</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2223,12 +2223,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>大兴安岭</t>
+          <t>杭州</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2245,12 +2245,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>贵州</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>遵义</t>
+          <t>大兴安岭</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2267,12 +2267,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>贵州</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>宜昌</t>
+          <t>遵义</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2289,12 +2289,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>烟台</t>
+          <t>宜昌</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2311,12 +2311,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>鸡西</t>
+          <t>烟台</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2338,7 +2338,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>七台河</t>
+          <t>鸡西</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2360,7 +2360,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>双鸭山</t>
+          <t>七台河</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2377,12 +2377,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>盘锦</t>
+          <t>双鸭山</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2399,12 +2399,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>杭州</t>
+          <t>盘锦</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2509,12 +2509,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>温州</t>
+          <t>苏州</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2531,12 +2531,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>温州</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -3345,12 +3345,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>广西</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>济南</t>
+          <t>南宁</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -3367,12 +3367,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>济南</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -3389,12 +3389,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>贵州</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>贵阳</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -3411,17 +3411,17 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>广西</t>
+          <t>贵州</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>南宁</t>
+          <t>贵阳</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较少</t>
         </is>
       </c>
     </row>

--- a/data/sourse.xlsx
+++ b/data/sourse.xlsx
@@ -1629,12 +1629,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>安徽</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>蚌埠</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1651,12 +1651,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>安徽</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>镇江</t>
+          <t>蚌埠</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1673,12 +1673,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>聊城</t>
+          <t>镇江</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1695,12 +1695,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>云南</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>红河</t>
+          <t>聊城</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1717,12 +1717,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>云南</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>安阳</t>
+          <t>红河</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1739,12 +1739,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>德州</t>
+          <t>安阳</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1761,12 +1761,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>黄冈</t>
+          <t>德州</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -1783,12 +1783,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>四川</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>德阳</t>
+          <t>黄冈</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -1805,12 +1805,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>四川</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>孝感</t>
+          <t>德阳</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -1827,12 +1827,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>汕头</t>
+          <t>孝感</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -1849,12 +1849,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>汕头</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">

--- a/data/sourse.xlsx
+++ b/data/sourse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D145"/>
+  <dimension ref="A1:D144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -529,12 +529,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>恩施</t>
+          <t>吕梁</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -551,12 +551,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>石家庄</t>
+          <t>恩施</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -595,12 +595,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>江西</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>上饶</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -617,17 +617,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>江西</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>上饶</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -683,12 +683,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>吕梁</t>
+          <t>赤峰</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>赤峰</t>
+          <t>松原</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -727,12 +727,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>松原</t>
+          <t>莱芜</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -749,12 +749,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>莱芜</t>
+          <t>丹东</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -771,12 +771,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>丹东</t>
+          <t>绥化</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -793,12 +793,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>绥化</t>
+          <t>南阳</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -815,12 +815,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>南阳</t>
+          <t>牡丹江</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -842,7 +842,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>牡丹江</t>
+          <t>大庆</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -859,12 +859,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>大庆</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1409,12 +1409,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>广西</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>平顶山</t>
+          <t>南宁</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1431,12 +1431,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>枣庄</t>
+          <t>平顶山</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1453,12 +1453,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>淮安</t>
+          <t>枣庄</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1475,12 +1475,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>肇庆</t>
+          <t>淮安</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1497,12 +1497,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>晋中</t>
+          <t>肇庆</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1519,12 +1519,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>广西</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>南宁</t>
+          <t>晋中</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1629,12 +1629,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>安徽</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>蚌埠</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1651,12 +1651,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>安徽</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>蚌埠</t>
+          <t>镇江</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1673,12 +1673,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>镇江</t>
+          <t>聊城</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1695,12 +1695,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>云南</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>聊城</t>
+          <t>红河</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1717,12 +1717,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>云南</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>红河</t>
+          <t>安阳</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1739,12 +1739,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>安阳</t>
+          <t>德州</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1761,12 +1761,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>德州</t>
+          <t>黄冈</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -1783,12 +1783,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>四川</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>黄冈</t>
+          <t>德阳</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -1805,12 +1805,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>四川</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>德阳</t>
+          <t>孝感</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -1827,12 +1827,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>孝感</t>
+          <t>汕头</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -1849,12 +1849,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>汕头</t>
+          <t>济宁</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -1871,12 +1871,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>济宁</t>
+          <t>衢州</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -1893,12 +1893,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>四川</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>衢州</t>
+          <t>绵阳</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -1915,12 +1915,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>四川</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>绵阳</t>
+          <t>漳州</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -1937,12 +1937,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>漳州</t>
+          <t>徐州</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -1959,12 +1959,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>湖南</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>徐州</t>
+          <t>邵阳</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -1981,12 +1981,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>湖南</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>邵阳</t>
+          <t>杭州</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2091,12 +2091,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>廊坊</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2113,12 +2113,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>包头</t>
+          <t>廊坊</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2135,12 +2135,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>包头</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2223,12 +2223,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>杭州</t>
+          <t>大兴安岭</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2245,12 +2245,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>贵州</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>大兴安岭</t>
+          <t>遵义</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2267,12 +2267,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>贵州</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>遵义</t>
+          <t>宜昌</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2289,12 +2289,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>宜昌</t>
+          <t>烟台</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2311,12 +2311,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>烟台</t>
+          <t>鸡西</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2338,7 +2338,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>鸡西</t>
+          <t>七台河</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2360,7 +2360,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>七台河</t>
+          <t>双鸭山</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2377,12 +2377,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>双鸭山</t>
+          <t>盘锦</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2399,12 +2399,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>盘锦</t>
+          <t>唐山</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2421,12 +2421,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>唐山</t>
+          <t>苏州</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2509,12 +2509,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>温州</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2531,12 +2531,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>温州</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2619,12 +2619,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>洛阳</t>
+          <t>宁波</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -2641,12 +2641,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>洛阳</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -2751,12 +2751,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>宁波</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -2773,12 +2773,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>甘肃</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>兰州</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -2795,12 +2795,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>甘肃</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>兰州</t>
+          <t>东莞</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -2817,12 +2817,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>云南</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>东莞</t>
+          <t>昆明</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -2839,12 +2839,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>云南</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>昆明</t>
+          <t>呼和浩特</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -2861,12 +2861,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>湖南</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>呼和浩特</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -2883,12 +2883,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>湖南</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -2905,12 +2905,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>四川</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -2949,12 +2949,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>四川</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -2971,12 +2971,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>哈尔滨</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -2993,12 +2993,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>陕西</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>哈尔滨</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3015,12 +3015,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>陕西</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3037,12 +3037,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3059,12 +3059,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3103,12 +3103,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3120,22 +3120,22 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>移动</t>
+          <t>联通</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>四川</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -3147,12 +3147,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>四川</t>
+          <t>湖南</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3169,12 +3169,12 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>湖南</t>
+          <t>安徽</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>合肥</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3191,12 +3191,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>安徽</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>合肥</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3213,12 +3213,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>江西</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3235,12 +3235,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>江西</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -3257,12 +3257,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>石家庄</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -3279,12 +3279,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>石家庄</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -3301,12 +3301,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3323,12 +3323,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>广西</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>南宁</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -3345,12 +3345,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>广西</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>南宁</t>
+          <t>济南</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -3367,12 +3367,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>济南</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -3389,12 +3389,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>贵州</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>贵阳</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -3411,17 +3411,17 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>贵州</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>贵阳</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -3433,12 +3433,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>甘肃</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>兰州</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -3455,12 +3455,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>甘肃</t>
+          <t>云南</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>兰州</t>
+          <t>昆明</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -3477,12 +3477,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>云南</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>昆明</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -3499,12 +3499,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>长春</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -3521,12 +3521,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>长春</t>
+          <t>呼和浩特</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -3543,12 +3543,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>呼和浩特</t>
+          <t>哈尔滨</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -3565,17 +3565,17 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>哈尔滨</t>
+          <t>沈阳</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -3587,37 +3587,15 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>宁夏</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>沈阳</t>
+          <t>银川</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>宁夏</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>银川</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
         <is>
           <t>较多</t>
         </is>

--- a/data/sourse.xlsx
+++ b/data/sourse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D144"/>
+  <dimension ref="A1:D145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -529,12 +529,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>吕梁</t>
+          <t>恩施</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -551,12 +551,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>恩施</t>
+          <t>石家庄</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -595,12 +595,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>江西</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>上饶</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -617,17 +617,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>江西</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>上饶</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -683,12 +683,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>赤峰</t>
+          <t>吕梁</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>松原</t>
+          <t>赤峰</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -727,12 +727,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>莱芜</t>
+          <t>松原</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -749,12 +749,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>丹东</t>
+          <t>莱芜</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -771,12 +771,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>绥化</t>
+          <t>丹东</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -793,12 +793,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>南阳</t>
+          <t>绥化</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -815,12 +815,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>牡丹江</t>
+          <t>南阳</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -842,7 +842,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>大庆</t>
+          <t>牡丹江</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -859,12 +859,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>大庆</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1409,12 +1409,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>广西</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>南宁</t>
+          <t>平顶山</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1431,12 +1431,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>平顶山</t>
+          <t>枣庄</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1453,12 +1453,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>枣庄</t>
+          <t>淮安</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1475,12 +1475,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>淮安</t>
+          <t>肇庆</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1497,12 +1497,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>肇庆</t>
+          <t>晋中</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1519,12 +1519,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>广西</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>晋中</t>
+          <t>南宁</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1629,12 +1629,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>安徽</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>蚌埠</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1651,12 +1651,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>安徽</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>镇江</t>
+          <t>蚌埠</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1673,12 +1673,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>聊城</t>
+          <t>镇江</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1695,12 +1695,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>云南</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>红河</t>
+          <t>聊城</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1717,12 +1717,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>云南</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>安阳</t>
+          <t>红河</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1739,12 +1739,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>德州</t>
+          <t>安阳</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1761,12 +1761,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>黄冈</t>
+          <t>德州</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -1783,12 +1783,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>四川</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>德阳</t>
+          <t>黄冈</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -1805,12 +1805,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>四川</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>孝感</t>
+          <t>德阳</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -1827,12 +1827,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>汕头</t>
+          <t>孝感</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -1849,12 +1849,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>济宁</t>
+          <t>汕头</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -1871,12 +1871,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>衢州</t>
+          <t>济宁</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -1893,12 +1893,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>四川</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>绵阳</t>
+          <t>衢州</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -1915,12 +1915,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>四川</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>漳州</t>
+          <t>绵阳</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -1937,12 +1937,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>徐州</t>
+          <t>漳州</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -1959,12 +1959,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>湖南</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>邵阳</t>
+          <t>徐州</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -1981,12 +1981,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>湖南</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>杭州</t>
+          <t>邵阳</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2091,12 +2091,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>廊坊</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2113,12 +2113,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>廊坊</t>
+          <t>包头</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2135,12 +2135,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>包头</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2223,12 +2223,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>大兴安岭</t>
+          <t>杭州</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2245,12 +2245,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>贵州</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>遵义</t>
+          <t>大兴安岭</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2267,12 +2267,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>贵州</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>宜昌</t>
+          <t>遵义</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2289,12 +2289,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>烟台</t>
+          <t>宜昌</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2311,12 +2311,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>鸡西</t>
+          <t>烟台</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2338,7 +2338,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>七台河</t>
+          <t>鸡西</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2360,7 +2360,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>双鸭山</t>
+          <t>七台河</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2377,12 +2377,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>盘锦</t>
+          <t>双鸭山</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2399,12 +2399,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>唐山</t>
+          <t>盘锦</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2421,12 +2421,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>唐山</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2509,12 +2509,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>温州</t>
+          <t>苏州</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2531,12 +2531,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>温州</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2619,12 +2619,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>宁波</t>
+          <t>洛阳</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -2641,12 +2641,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>洛阳</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -2751,12 +2751,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>宁波</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -2773,12 +2773,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>甘肃</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>兰州</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -2795,12 +2795,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>甘肃</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>东莞</t>
+          <t>兰州</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -2817,12 +2817,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>云南</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>昆明</t>
+          <t>东莞</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -2839,12 +2839,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>云南</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>呼和浩特</t>
+          <t>昆明</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -2861,12 +2861,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>湖南</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>呼和浩特</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -2883,12 +2883,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>湖南</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -2905,12 +2905,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>四川</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -2949,12 +2949,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>四川</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -2971,12 +2971,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>哈尔滨</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -2993,12 +2993,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>陕西</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>哈尔滨</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3015,12 +3015,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>陕西</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3037,12 +3037,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3059,12 +3059,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3081,12 +3081,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3103,12 +3103,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3120,22 +3120,22 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>联通</t>
+          <t>移动</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>四川</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -3147,12 +3147,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>湖南</t>
+          <t>四川</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3169,12 +3169,12 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>安徽</t>
+          <t>湖南</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>合肥</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3191,12 +3191,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>安徽</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>合肥</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3213,12 +3213,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>江西</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3235,12 +3235,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>江西</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -3257,12 +3257,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>石家庄</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -3279,12 +3279,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>石家庄</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -3301,12 +3301,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3323,12 +3323,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>广西</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>南宁</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -3345,12 +3345,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>广西</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>济南</t>
+          <t>南宁</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -3367,12 +3367,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>济南</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -3389,12 +3389,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>贵州</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>贵阳</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -3411,17 +3411,17 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>贵州</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>贵阳</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -3433,12 +3433,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>甘肃</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>兰州</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -3455,12 +3455,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>云南</t>
+          <t>甘肃</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>昆明</t>
+          <t>兰州</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -3477,12 +3477,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>云南</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>昆明</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -3499,12 +3499,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>长春</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -3521,12 +3521,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>呼和浩特</t>
+          <t>长春</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -3543,12 +3543,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>哈尔滨</t>
+          <t>呼和浩特</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -3565,17 +3565,17 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>沈阳</t>
+          <t>哈尔滨</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -3587,15 +3587,37 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
+          <t>辽宁</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>沈阳</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
           <t>宁夏</t>
         </is>
       </c>
-      <c r="C144" t="inlineStr">
+      <c r="C145" t="inlineStr">
         <is>
           <t>银川</t>
         </is>
       </c>
-      <c r="D144" t="inlineStr">
+      <c r="D145" t="inlineStr">
         <is>
           <t>较多</t>
         </is>

--- a/data/sourse.xlsx
+++ b/data/sourse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D145"/>
+  <dimension ref="A1:D153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,17 +485,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>日照</t>
+          <t>石家庄</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -507,12 +507,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>湖南</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>岳阳</t>
+          <t>日照</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -529,12 +529,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>湖南</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>恩施</t>
+          <t>岳阳</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -551,12 +551,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>石家庄</t>
+          <t>恩施</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -771,12 +771,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>安徽</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>丹东</t>
+          <t>合肥</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -793,12 +793,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>绥化</t>
+          <t>丹东</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -815,12 +815,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>南阳</t>
+          <t>绥化</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -837,12 +837,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>牡丹江</t>
+          <t>南阳</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -864,7 +864,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>大庆</t>
+          <t>牡丹江</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -881,12 +881,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>四平</t>
+          <t>大庆</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -903,12 +903,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>黑河</t>
+          <t>四平</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -925,12 +925,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>葫芦岛</t>
+          <t>黑河</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -947,12 +947,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>通辽</t>
+          <t>葫芦岛</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -969,12 +969,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>南平</t>
+          <t>通辽</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -991,12 +991,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>锦州</t>
+          <t>南平</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1013,12 +1013,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>白城</t>
+          <t>锦州</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1035,12 +1035,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>营口</t>
+          <t>白城</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1057,12 +1057,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>安徽</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>合肥</t>
+          <t>营口</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1585,12 +1585,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>齐齐哈尔</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1607,12 +1607,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>潍坊</t>
+          <t>齐齐哈尔</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1629,12 +1629,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>潍坊</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2091,12 +2091,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>廊坊</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2113,12 +2113,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>包头</t>
+          <t>廊坊</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2135,12 +2135,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>广西</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>桂林</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2157,12 +2157,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>广西</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>桂林</t>
+          <t>包头</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2201,12 +2201,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>常州</t>
+          <t>杭州</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2223,12 +2223,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>杭州</t>
+          <t>常州</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2685,12 +2685,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>江西</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>长春</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -2707,12 +2707,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>江西</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>长春</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3147,17 +3147,17 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>四川</t>
+          <t>甘肃</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>兰州</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -3169,17 +3169,17 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>湖南</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -3191,17 +3191,17 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>安徽</t>
+          <t>陕西</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>合肥</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -3213,17 +3213,17 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -3235,17 +3235,17 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>江西</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>石家庄</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -3257,17 +3257,17 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -3279,17 +3279,17 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>四川</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>石家庄</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -3301,17 +3301,17 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -3323,17 +3323,17 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>安徽</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>合肥</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -3345,17 +3345,17 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>广西</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>南宁</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -3367,17 +3367,17 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>济南</t>
+          <t>杭州</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -3389,17 +3389,17 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -3411,17 +3411,17 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>贵州</t>
+          <t>湖南</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>贵阳</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -3433,17 +3433,17 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -3455,17 +3455,17 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>甘肃</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>兰州</t>
+          <t>福州</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -3477,17 +3477,17 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>云南</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>昆明</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -3499,17 +3499,17 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>江西</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -3521,17 +3521,17 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>长春</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -3543,17 +3543,17 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>云南</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>呼和浩特</t>
+          <t>昆明</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -3565,17 +3565,17 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>广西</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>哈尔滨</t>
+          <t>南宁</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -3587,12 +3587,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>沈阳</t>
+          <t>济南</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -3609,15 +3609,191 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
+          <t>山西</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>太原</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>贵州</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>贵阳</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>海南</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>海南</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>福建</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>厦门</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>吉林</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>长春</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>黑龙江</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>哈尔滨</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>内蒙古</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>呼和浩特</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>辽宁</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>沈阳</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
           <t>宁夏</t>
         </is>
       </c>
-      <c r="C145" t="inlineStr">
+      <c r="C153" t="inlineStr">
         <is>
           <t>银川</t>
         </is>
       </c>
-      <c r="D145" t="inlineStr">
+      <c r="D153" t="inlineStr">
         <is>
           <t>较多</t>
         </is>

--- a/data/sourse.xlsx
+++ b/data/sourse.xlsx
@@ -3719,12 +3719,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>哈尔滨</t>
+          <t>呼和浩特</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -3741,12 +3741,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>呼和浩特</t>
+          <t>哈尔滨</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">

--- a/data/sourse.xlsx
+++ b/data/sourse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D153"/>
+  <dimension ref="A1:D152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,17 +485,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>石家庄</t>
+          <t>日照</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -507,12 +507,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>湖南</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>日照</t>
+          <t>岳阳</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -529,12 +529,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>湖南</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>岳阳</t>
+          <t>吕梁</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,12 +573,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>十堰</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -595,12 +595,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>江西</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>上饶</t>
+          <t>十堰</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -617,12 +617,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>江西</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>上饶</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -683,12 +683,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>吕梁</t>
+          <t>赤峰</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>赤峰</t>
+          <t>松原</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -727,12 +727,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>松原</t>
+          <t>莱芜</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -749,12 +749,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>莱芜</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1343,12 +1343,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>广西</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>长治</t>
+          <t>南宁</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1365,12 +1365,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>泰安</t>
+          <t>长治</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1387,12 +1387,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>濮阳</t>
+          <t>泰安</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1414,7 +1414,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>平顶山</t>
+          <t>濮阳</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1431,12 +1431,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>枣庄</t>
+          <t>平顶山</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1453,12 +1453,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>淮安</t>
+          <t>枣庄</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1475,12 +1475,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>肇庆</t>
+          <t>淮安</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1497,12 +1497,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>晋中</t>
+          <t>肇庆</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1519,12 +1519,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>广西</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>南宁</t>
+          <t>晋中</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1585,12 +1585,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>齐齐哈尔</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1607,12 +1607,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>齐齐哈尔</t>
+          <t>潍坊</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1629,12 +1629,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>安徽</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>潍坊</t>
+          <t>蚌埠</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1651,12 +1651,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>安徽</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>蚌埠</t>
+          <t>镇江</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1673,12 +1673,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>镇江</t>
+          <t>聊城</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1695,12 +1695,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>云南</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>聊城</t>
+          <t>红河</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1717,12 +1717,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>云南</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>红河</t>
+          <t>安阳</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1739,12 +1739,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>安阳</t>
+          <t>德州</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1761,12 +1761,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>德州</t>
+          <t>黄冈</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -1783,12 +1783,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>四川</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>黄冈</t>
+          <t>德阳</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -1805,12 +1805,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>四川</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>德阳</t>
+          <t>孝感</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -1827,12 +1827,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>孝感</t>
+          <t>汕头</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -1849,12 +1849,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>汕头</t>
+          <t>济宁</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -1871,12 +1871,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>济宁</t>
+          <t>衢州</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -1893,12 +1893,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>四川</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>衢州</t>
+          <t>绵阳</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -1915,12 +1915,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>四川</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>绵阳</t>
+          <t>杭州</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2047,12 +2047,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>临沂</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2069,12 +2069,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>秦皇岛</t>
+          <t>临沂</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2091,12 +2091,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>秦皇岛</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2201,12 +2201,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>杭州</t>
+          <t>常州</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2223,12 +2223,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>常州</t>
+          <t>大兴安岭</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2245,12 +2245,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>贵州</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>大兴安岭</t>
+          <t>遵义</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2267,12 +2267,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>贵州</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>遵义</t>
+          <t>宜昌</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2289,12 +2289,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>宜昌</t>
+          <t>烟台</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2311,12 +2311,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>烟台</t>
+          <t>鸡西</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2338,7 +2338,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>鸡西</t>
+          <t>七台河</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2360,7 +2360,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>七台河</t>
+          <t>双鸭山</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2377,12 +2377,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>双鸭山</t>
+          <t>盘锦</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2399,12 +2399,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>盘锦</t>
+          <t>苏州</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2509,12 +2509,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>温州</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2531,12 +2531,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>温州</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2619,12 +2619,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>洛阳</t>
+          <t>宁波</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -2641,12 +2641,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>洛阳</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -2751,12 +2751,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>宁波</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -2773,12 +2773,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>甘肃</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>兰州</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -2795,12 +2795,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>甘肃</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>兰州</t>
+          <t>东莞</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -2817,12 +2817,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>云南</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>东莞</t>
+          <t>昆明</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -2839,12 +2839,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>云南</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>昆明</t>
+          <t>呼和浩特</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -2861,12 +2861,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>湖南</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>呼和浩特</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -2883,12 +2883,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>湖南</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -2905,12 +2905,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>四川</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -2949,12 +2949,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>四川</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -2971,12 +2971,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>哈尔滨</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -2993,12 +2993,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>陕西</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>哈尔滨</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3015,12 +3015,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>陕西</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3037,12 +3037,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3059,12 +3059,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3081,12 +3081,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3103,12 +3103,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3120,22 +3120,22 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>移动</t>
+          <t>联通</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>甘肃</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>兰州</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -3147,12 +3147,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>甘肃</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>兰州</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3169,12 +3169,12 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>陕西</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3191,12 +3191,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>陕西</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3213,12 +3213,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>石家庄</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3235,12 +3235,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>石家庄</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -3257,12 +3257,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>四川</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -3279,17 +3279,17 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>四川</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -3301,12 +3301,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>安徽</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>合肥</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3323,12 +3323,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>安徽</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>合肥</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -3345,12 +3345,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>杭州</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -3367,12 +3367,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>杭州</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -3389,12 +3389,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>湖南</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -3411,12 +3411,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>湖南</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -3433,12 +3433,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>福州</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -3455,12 +3455,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>福州</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -3477,12 +3477,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>江西</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -3499,12 +3499,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>江西</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -3521,12 +3521,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>云南</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>昆明</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -3543,12 +3543,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>云南</t>
+          <t>广西</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>昆明</t>
+          <t>南宁</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -3565,12 +3565,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>广西</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>南宁</t>
+          <t>济南</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -3587,12 +3587,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>济南</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -3609,12 +3609,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>贵州</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>贵阳</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -3631,12 +3631,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>贵州</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>贵阳</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -3653,12 +3653,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -3675,12 +3675,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>长春</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -3697,12 +3697,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>长春</t>
+          <t>呼和浩特</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -3719,12 +3719,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>呼和浩特</t>
+          <t>哈尔滨</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -3741,12 +3741,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>哈尔滨</t>
+          <t>沈阳</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -3763,37 +3763,15 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>宁夏</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>沈阳</t>
+          <t>银川</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>宁夏</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>银川</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
         <is>
           <t>较多</t>
         </is>

--- a/data/sourse.xlsx
+++ b/data/sourse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D152"/>
+  <dimension ref="A1:D154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3135,7 +3135,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -3152,12 +3152,12 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -3169,17 +3169,17 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>陕西</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>呼和浩特</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -3191,17 +3191,17 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>陕西</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -3213,17 +3213,17 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>石家庄</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -3235,17 +3235,17 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>石家庄</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -3257,17 +3257,17 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>四川</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -3279,17 +3279,17 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -3301,17 +3301,17 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>安徽</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>合肥</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -3323,17 +3323,17 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>连云港</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -3345,17 +3345,17 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>杭州</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -3367,17 +3367,17 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>长春</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -3389,17 +3389,17 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>湖南</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>哈尔滨</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -3411,17 +3411,17 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>苏州</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -3433,17 +3433,17 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>江西</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>福州</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -3455,17 +3455,17 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>东莞</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -3477,17 +3477,17 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>江西</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -3499,17 +3499,17 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>贵州</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>贵阳</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -3521,17 +3521,17 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>云南</t>
+          <t>湖南</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>昆明</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -3543,17 +3543,17 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>广西</t>
+          <t>安徽</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>南宁</t>
+          <t>合肥</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -3565,17 +3565,17 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>济南</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -3587,12 +3587,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>保定</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -3609,12 +3609,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>贵州</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>贵阳</t>
+          <t>包头</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -3631,12 +3631,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>徐州</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -3653,12 +3653,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>秦皇岛</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -3675,12 +3675,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>长春</t>
+          <t>大同</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -3697,12 +3697,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>呼和浩特</t>
+          <t>常州</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -3719,12 +3719,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>哈尔滨</t>
+          <t>杭州</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -3741,12 +3741,12 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>沈阳</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -3763,15 +3763,59 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>宁夏</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>银川</t>
+          <t>济南</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>广西</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>南宁</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>辽宁</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>大连</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
         <is>
           <t>较多</t>
         </is>

--- a/data/sourse.xlsx
+++ b/data/sourse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D154"/>
+  <dimension ref="A1:D148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3147,12 +3147,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>呼和浩特</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3169,12 +3169,12 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>呼和浩特</t>
+          <t>保定</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3191,12 +3191,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>陕西</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>苏州</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3213,12 +3213,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>江西</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3235,12 +3235,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>陕西</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>石家庄</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -3257,12 +3257,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>石家庄</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -3279,12 +3279,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -3301,12 +3301,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3389,12 +3389,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>湖南</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>哈尔滨</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -3411,17 +3411,17 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>哈尔滨</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -3433,12 +3433,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>江西</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>东莞</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -3455,12 +3455,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>安徽</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>东莞</t>
+          <t>合肥</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -3477,12 +3477,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -3499,12 +3499,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>贵州</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>贵阳</t>
+          <t>杭州</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -3521,12 +3521,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>湖南</t>
+          <t>广西</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>南宁</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -3543,17 +3543,17 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>安徽</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>合肥</t>
+          <t>包头</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -3565,17 +3565,17 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>徐州</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -3592,7 +3592,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>保定</t>
+          <t>秦皇岛</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -3609,12 +3609,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>包头</t>
+          <t>大同</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -3636,7 +3636,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>徐州</t>
+          <t>常州</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -3653,12 +3653,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>秦皇岛</t>
+          <t>济南</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -3675,147 +3675,15 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>大同</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>江苏</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>常州</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>浙江</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>杭州</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>上海</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>上海</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>山东</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>济南</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>广西</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>南宁</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>辽宁</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>大连</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
         <is>
           <t>较多</t>
         </is>

--- a/data/sourse.xlsx
+++ b/data/sourse.xlsx
@@ -2619,12 +2619,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>宁波</t>
+          <t>洛阳</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -2641,12 +2641,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>洛阳</t>
+          <t>宁波</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -2993,12 +2993,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>陕西</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3015,12 +3015,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>陕西</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3147,12 +3147,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>呼和浩特</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3169,12 +3169,12 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>保定</t>
+          <t>东莞</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3191,12 +3191,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>呼和浩特</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3213,12 +3213,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>江西</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>保定</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3235,12 +3235,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>陕西</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>苏州</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -3257,12 +3257,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>江西</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>石家庄</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -3279,12 +3279,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>陕西</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -3301,12 +3301,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>石家庄</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3323,12 +3323,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>连云港</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -3345,12 +3345,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>连云港</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -3367,12 +3367,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>长春</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -3389,12 +3389,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>湖南</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>长春</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -3411,12 +3411,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>湖南</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>哈尔滨</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -3433,17 +3433,17 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>东莞</t>
+          <t>哈尔滨</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较少</t>
         </is>
       </c>
     </row>

--- a/data/sourse.xlsx
+++ b/data/sourse.xlsx
@@ -705,12 +705,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>松原</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -727,12 +727,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>莱芜</t>
+          <t>松原</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -749,12 +749,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>莱芜</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">

--- a/data/sourse.xlsx
+++ b/data/sourse.xlsx
@@ -1167,12 +1167,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>贵州</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>韶关</t>
+          <t>贵阳</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1189,12 +1189,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>鞍山</t>
+          <t>韶关</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1211,12 +1211,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>沧州</t>
+          <t>鞍山</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1233,12 +1233,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>东营</t>
+          <t>沧州</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1255,12 +1255,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>邢台</t>
+          <t>东营</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1277,12 +1277,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>贵州</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>贵阳</t>
+          <t>邢台</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -3147,12 +3147,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>石家庄</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3174,7 +3174,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>东莞</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3191,12 +3191,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>呼和浩特</t>
+          <t>东莞</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3213,12 +3213,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>保定</t>
+          <t>呼和浩特</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3235,12 +3235,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>保定</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -3257,12 +3257,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>江西</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>苏州</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -3279,12 +3279,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>陕西</t>
+          <t>江西</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -3301,12 +3301,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>陕西</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>石家庄</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">

--- a/data/sourse.xlsx
+++ b/data/sourse.xlsx
@@ -573,12 +573,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -595,12 +595,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>十堰</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -617,12 +617,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>江西</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>上饶</t>
+          <t>十堰</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -639,17 +639,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>江西</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>朝阳</t>
+          <t>上饶</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -666,7 +666,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>本溪</t>
+          <t>朝阳</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -683,12 +683,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>赤峰</t>
+          <t>本溪</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>赤峰</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -3037,12 +3037,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3059,12 +3059,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">

--- a/data/sourse.xlsx
+++ b/data/sourse.xlsx
@@ -1211,12 +1211,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>鞍山</t>
+          <t>沧州</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1233,12 +1233,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>沧州</t>
+          <t>鞍山</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1585,12 +1585,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>齐齐哈尔</t>
+          <t>潍坊</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1607,12 +1607,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>潍坊</t>
+          <t>齐齐哈尔</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1849,12 +1849,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>济宁</t>
+          <t>杭州</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -1871,12 +1871,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>衢州</t>
+          <t>济宁</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -1893,12 +1893,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>四川</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>绵阳</t>
+          <t>衢州</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -1915,12 +1915,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>四川</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>杭州</t>
+          <t>绵阳</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -1937,12 +1937,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>漳州</t>
+          <t>徐州</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -1959,12 +1959,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>徐州</t>
+          <t>漳州</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -3191,12 +3191,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>东莞</t>
+          <t>呼和浩特</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3213,12 +3213,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>呼和浩特</t>
+          <t>东莞</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">

--- a/data/sourse.xlsx
+++ b/data/sourse.xlsx
@@ -1211,12 +1211,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>沧州</t>
+          <t>鞍山</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1233,12 +1233,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>鞍山</t>
+          <t>沧州</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1585,12 +1585,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>潍坊</t>
+          <t>齐齐哈尔</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1607,12 +1607,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>齐齐哈尔</t>
+          <t>潍坊</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1937,12 +1937,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>徐州</t>
+          <t>漳州</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -1959,12 +1959,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>漳州</t>
+          <t>徐州</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">

--- a/data/sourse.xlsx
+++ b/data/sourse.xlsx
@@ -485,17 +485,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>日照</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -507,12 +507,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>湖南</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>岳阳</t>
+          <t>日照</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -529,12 +529,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>湖南</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>吕梁</t>
+          <t>岳阳</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -551,12 +551,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>恩施</t>
+          <t>吕梁</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -573,12 +573,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>恩施</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1299,12 +1299,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>广西</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>通化</t>
+          <t>南宁</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1321,12 +1321,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>广西</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>柳州</t>
+          <t>通化</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1348,7 +1348,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>南宁</t>
+          <t>柳州</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1805,12 +1805,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>孝感</t>
+          <t>杭州</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -1827,12 +1827,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>汕头</t>
+          <t>孝感</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -1849,12 +1849,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>杭州</t>
+          <t>汕头</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2003,12 +2003,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>台州</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2025,12 +2025,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>无锡</t>
+          <t>台州</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2047,12 +2047,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>无锡</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2509,12 +2509,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>温州</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2531,12 +2531,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>温州</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2949,12 +2949,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -2971,12 +2971,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>哈尔滨</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -2993,12 +2993,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>哈尔滨</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">

--- a/data/sourse.xlsx
+++ b/data/sourse.xlsx
@@ -463,12 +463,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>阳泉</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,12 +485,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>阳泉</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -661,12 +661,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>安徽</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>朝阳</t>
+          <t>合肥</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -688,7 +688,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>本溪</t>
+          <t>朝阳</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>赤峰</t>
+          <t>本溪</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -727,12 +727,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>松原</t>
+          <t>赤峰</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -749,12 +749,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>莱芜</t>
+          <t>松原</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -771,12 +771,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>安徽</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>合肥</t>
+          <t>莱芜</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -798,7 +798,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>丹东</t>
+          <t>锦州</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -815,12 +815,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>绥化</t>
+          <t>丹东</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -837,12 +837,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>南阳</t>
+          <t>绥化</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -859,12 +859,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>牡丹江</t>
+          <t>南阳</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -886,7 +886,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>大庆</t>
+          <t>牡丹江</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -903,12 +903,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>四平</t>
+          <t>大庆</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -925,12 +925,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>黑河</t>
+          <t>四平</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -947,12 +947,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>葫芦岛</t>
+          <t>黑河</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -969,12 +969,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>通辽</t>
+          <t>葫芦岛</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -991,12 +991,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>南平</t>
+          <t>通辽</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1013,12 +1013,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>锦州</t>
+          <t>南平</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1211,12 +1211,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>鞍山</t>
+          <t>沧州</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1233,12 +1233,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>沧州</t>
+          <t>鞍山</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1541,12 +1541,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>淄博</t>
+          <t>泉州</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1563,12 +1563,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>泉州</t>
+          <t>淄博</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1585,12 +1585,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>齐齐哈尔</t>
+          <t>潍坊</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1607,12 +1607,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>潍坊</t>
+          <t>齐齐哈尔</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1761,12 +1761,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>黄冈</t>
+          <t>杭州</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -1783,12 +1783,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>四川</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>德阳</t>
+          <t>黄冈</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -1805,12 +1805,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>四川</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>杭州</t>
+          <t>德阳</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -1937,12 +1937,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>漳州</t>
+          <t>徐州</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -1959,12 +1959,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>徐州</t>
+          <t>漳州</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2267,12 +2267,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>宜昌</t>
+          <t>烟台</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2289,12 +2289,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>烟台</t>
+          <t>宜昌</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2663,12 +2663,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>江西</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>佛山</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -2685,12 +2685,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>江西</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>佛山</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">

--- a/data/sourse.xlsx
+++ b/data/sourse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D148"/>
+  <dimension ref="A1:D147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3235,12 +3235,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>保定</t>
+          <t>杭州</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -3257,12 +3257,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>保定</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -3279,12 +3279,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>江西</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>苏州</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -3301,12 +3301,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>陕西</t>
+          <t>江西</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3323,12 +3323,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>陕西</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -3345,12 +3345,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>连云港</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -3367,12 +3367,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>连云港</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -3389,12 +3389,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>长春</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -3411,12 +3411,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>湖南</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -3433,12 +3433,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>哈尔滨</t>
+          <t>长春</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -3455,17 +3455,17 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>安徽</t>
+          <t>湖南</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>合肥</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -3477,17 +3477,17 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>哈尔滨</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -3499,12 +3499,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>广西</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>杭州</t>
+          <t>南宁</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -3521,12 +3521,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>广西</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>南宁</t>
+          <t>徐州</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -3543,17 +3543,17 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>包头</t>
+          <t>秦皇岛</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -3565,17 +3565,17 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>徐州</t>
+          <t>大同</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -3587,17 +3587,17 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>秦皇岛</t>
+          <t>常州</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -3609,17 +3609,17 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>大同</t>
+          <t>济南</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -3631,12 +3631,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>常州</t>
+          <t>包头</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -3653,37 +3653,15 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>济南</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>辽宁</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>大连</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
         <is>
           <t>较多</t>
         </is>

--- a/data/sourse.xlsx
+++ b/data/sourse.xlsx
@@ -1739,12 +1739,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>德州</t>
+          <t>杭州</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1761,12 +1761,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>杭州</t>
+          <t>德州</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -1959,12 +1959,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>漳州</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -1981,12 +1981,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>湖南</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>邵阳</t>
+          <t>漳州</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2003,12 +2003,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>湖南</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>邵阳</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2553,12 +2553,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>中山</t>
+          <t>济南</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2580,7 +2580,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>惠州</t>
+          <t>中山</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -2597,12 +2597,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>济南</t>
+          <t>惠州</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">

--- a/data/sourse.xlsx
+++ b/data/sourse.xlsx
@@ -639,12 +639,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>江西</t>
+          <t>安徽</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>上饶</t>
+          <t>合肥</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -661,17 +661,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>安徽</t>
+          <t>江西</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>合肥</t>
+          <t>上饶</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -1871,12 +1871,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>济宁</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -1893,12 +1893,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>衢州</t>
+          <t>济宁</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -1915,12 +1915,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>四川</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>绵阳</t>
+          <t>衢州</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -1937,12 +1937,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>四川</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>徐州</t>
+          <t>绵阳</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -1959,12 +1959,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>徐州</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2773,12 +2773,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>甘肃</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>兰州</t>
+          <t>东莞</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -2795,12 +2795,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>甘肃</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>东莞</t>
+          <t>兰州</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">

--- a/data/sourse.xlsx
+++ b/data/sourse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D147"/>
+  <dimension ref="A1:D132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,12 +463,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>泰安</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,12 +485,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>阳泉</t>
+          <t>枣庄</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -507,17 +507,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>湖南</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>日照</t>
+          <t>衡阳</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -529,17 +529,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>湖南</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>岳阳</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -551,17 +551,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>湖南</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>吕梁</t>
+          <t>岳阳</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -583,7 +583,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -595,17 +595,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>南阳</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -617,17 +617,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>十堰</t>
+          <t>日照</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -639,17 +639,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>安徽</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>合肥</t>
+          <t>济宁</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -661,17 +661,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>江西</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>上饶</t>
+          <t>十堰</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -683,17 +683,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>江西</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>朝阳</t>
+          <t>上饶</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -705,17 +705,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>贵州</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>本溪</t>
+          <t>遵义</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -727,17 +727,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>赤峰</t>
+          <t>丹东</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -749,17 +749,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>松原</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>莱芜</t>
+          <t>松原</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -798,12 +798,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>锦州</t>
+          <t>本溪</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -815,17 +815,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>丹东</t>
+          <t>七台河</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -842,12 +842,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>绥化</t>
+          <t>哈尔滨</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -859,17 +859,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>南阳</t>
+          <t>朝阳</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -881,17 +881,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>牡丹江</t>
+          <t>濮阳</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -903,17 +903,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>大庆</t>
+          <t>莱芜</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -925,17 +925,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>四平</t>
+          <t>赤峰</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -947,12 +947,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>黑河</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -974,7 +974,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>葫芦岛</t>
+          <t>锦州</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -991,12 +991,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>通辽</t>
+          <t>沧州</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1013,12 +1013,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>南平</t>
+          <t>绥化</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1035,12 +1035,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>白城</t>
+          <t>牡丹江</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1057,12 +1057,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>营口</t>
+          <t>大庆</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1079,12 +1079,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>湖南</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>衡阳</t>
+          <t>商丘</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1101,12 +1101,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>商丘</t>
+          <t>葫芦岛</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1123,12 +1123,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>佳木斯</t>
+          <t>南平</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1145,12 +1145,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>大同</t>
+          <t>黑河</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1167,12 +1167,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>贵州</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>贵阳</t>
+          <t>四平</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1189,12 +1189,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>韶关</t>
+          <t>鞍山</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1211,12 +1211,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>沧州</t>
+          <t>通辽</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1233,12 +1233,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>鞍山</t>
+          <t>泉州</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1260,7 +1260,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>东营</t>
+          <t>济南</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1277,12 +1277,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>邢台</t>
+          <t>大同</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1299,12 +1299,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>广西</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>南宁</t>
+          <t>白城</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1321,12 +1321,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>通化</t>
+          <t>邢台</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1343,12 +1343,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>广西</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>柳州</t>
+          <t>佳木斯</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1365,12 +1365,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>长治</t>
+          <t>平顶山</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1387,12 +1387,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>泰安</t>
+          <t>韶关</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1409,12 +1409,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>广西</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>濮阳</t>
+          <t>柳州</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1431,12 +1431,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>平顶山</t>
+          <t>常州</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1453,12 +1453,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>枣庄</t>
+          <t>长治</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1475,12 +1475,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>淮安</t>
+          <t>通化</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1497,12 +1497,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>肇庆</t>
+          <t>苏州</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1541,12 +1541,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>泉州</t>
+          <t>淮安</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1563,12 +1563,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>淄博</t>
+          <t>肇庆</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1585,12 +1585,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>潍坊</t>
+          <t>安阳</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1607,12 +1607,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>齐齐哈尔</t>
+          <t>淄博</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1629,12 +1629,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>安徽</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>蚌埠</t>
+          <t>齐齐哈尔</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1651,12 +1651,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>云南</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>镇江</t>
+          <t>红河</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1673,12 +1673,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>安徽</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>聊城</t>
+          <t>蚌埠</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1695,12 +1695,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>云南</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>红河</t>
+          <t>镇江</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1717,12 +1717,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>安阳</t>
+          <t>黄冈</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1739,12 +1739,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>四川</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>杭州</t>
+          <t>德阳</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1761,12 +1761,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>德州</t>
+          <t>孝感</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -1783,12 +1783,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>黄冈</t>
+          <t>汕头</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -1805,12 +1805,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>四川</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>德阳</t>
+          <t>徐州</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -1827,12 +1827,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>孝感</t>
+          <t>衢州</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -1849,12 +1849,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>四川</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>汕头</t>
+          <t>绵阳</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -1871,12 +1871,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>漳州</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -1893,12 +1893,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>湖南</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>济宁</t>
+          <t>邵阳</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -1915,12 +1915,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>衢州</t>
+          <t>秦皇岛</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -1937,12 +1937,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>四川</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>绵阳</t>
+          <t>台州</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -1964,7 +1964,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>徐州</t>
+          <t>无锡</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -1981,12 +1981,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>漳州</t>
+          <t>廊坊</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2003,12 +2003,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>湖南</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>邵阳</t>
+          <t>临沂</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2025,12 +2025,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>广西</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>台州</t>
+          <t>桂林</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2047,12 +2047,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>无锡</t>
+          <t>包头</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2069,12 +2069,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>临沂</t>
+          <t>盐城</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2091,12 +2091,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>秦皇岛</t>
+          <t>烟台</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2113,12 +2113,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>廊坊</t>
+          <t>中山</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2135,12 +2135,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>广西</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>桂林</t>
+          <t>南通</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2157,12 +2157,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>包头</t>
+          <t>宜昌</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2179,12 +2179,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>盐城</t>
+          <t>大兴安岭</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2201,12 +2201,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>常州</t>
+          <t>唐山</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2228,7 +2228,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>大兴安岭</t>
+          <t>鸡西</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2245,12 +2245,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>贵州</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>遵义</t>
+          <t>双鸭山</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2267,12 +2267,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>烟台</t>
+          <t>盘锦</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2289,12 +2289,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>宜昌</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2311,12 +2311,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>鸡西</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2333,12 +2333,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>云南</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>七台河</t>
+          <t>大理</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2355,12 +2355,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>双鸭山</t>
+          <t>温州</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2377,12 +2377,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>盘锦</t>
+          <t>长春</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2399,12 +2399,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>江西</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2421,12 +2421,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>唐山</t>
+          <t>宁波</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2443,12 +2443,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>洛阳</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2465,12 +2465,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>宁夏</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>南通</t>
+          <t>银川</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2487,12 +2487,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>云南</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>大理</t>
+          <t>佛山</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2509,12 +2509,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>东莞</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2531,12 +2531,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>甘肃</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>温州</t>
+          <t>兰州</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2553,12 +2553,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>云南</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>济南</t>
+          <t>昆明</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2575,12 +2575,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>湖南</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>中山</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -2597,12 +2597,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>惠州</t>
+          <t>呼和浩特</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -2619,12 +2619,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>四川</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>洛阳</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -2641,12 +2641,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>宁波</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -2663,12 +2663,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>江西</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -2685,12 +2685,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>佛山</t>
+          <t>沈阳</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -2707,12 +2707,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>陕西</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>长春</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -2729,12 +2729,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>宁夏</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>银川</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -2751,12 +2751,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -2778,7 +2778,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>东莞</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -2795,12 +2795,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>甘肃</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>兰州</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -2812,308 +2812,308 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>移动</t>
+          <t>联通</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>云南</t>
+          <t>甘肃</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>昆明</t>
+          <t>兰州</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>移动</t>
+          <t>联通</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>呼和浩特</t>
+          <t>石家庄</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>移动</t>
+          <t>联通</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>湖南</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>移动</t>
+          <t>联通</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>呼和浩特</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>移动</t>
+          <t>联通</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>四川</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>东莞</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>移动</t>
+          <t>联通</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>沈阳</t>
+          <t>保定</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>移动</t>
+          <t>联通</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>苏州</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>移动</t>
+          <t>联通</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>江西</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>移动</t>
+          <t>联通</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>陕西</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>哈尔滨</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>移动</t>
+          <t>联通</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>陕西</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>移动</t>
+          <t>联通</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>连云港</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>移动</t>
+          <t>联通</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>移动</t>
+          <t>联通</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>移动</t>
+          <t>联通</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>长春</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -3125,12 +3125,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>甘肃</t>
+          <t>湖南</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>兰州</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3147,12 +3147,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>石家庄</t>
+          <t>哈尔滨</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3169,17 +3169,17 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>广西</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>南宁</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -3191,17 +3191,17 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>呼和浩特</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -3213,17 +3213,17 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>东莞</t>
+          <t>徐州</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -3235,17 +3235,17 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>杭州</t>
+          <t>秦皇岛</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -3257,17 +3257,17 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>保定</t>
+          <t>大同</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -3284,12 +3284,12 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>常州</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -3301,17 +3301,17 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>江西</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>济南</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -3323,345 +3323,15 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>陕西</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>包头</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
-        <is>
-          <t>较少</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>海南</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>海南</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>较少</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>江苏</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>连云港</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>较少</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>山东</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>青岛</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>较少</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>山西</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>太原</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>较少</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>吉林</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>长春</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>较少</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>湖南</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>长沙</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>较少</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>黑龙江</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>哈尔滨</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>较少</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>广西</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>南宁</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>足够</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>江苏</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>徐州</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>足够</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>河北</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>秦皇岛</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>足够</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>山西</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>大同</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>足够</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>江苏</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>常州</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>足够</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>山东</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>济南</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>足够</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>内蒙古</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>包头</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>辽宁</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>大连</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
         <is>
           <t>较多</t>
         </is>

--- a/data/sourse.xlsx
+++ b/data/sourse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D132"/>
+  <dimension ref="A1:D118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -529,12 +529,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>湖南</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>岳阳</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -551,12 +551,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>湖南</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>岳阳</t>
+          <t>恩施</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -573,12 +573,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>恩施</t>
+          <t>南阳</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -595,12 +595,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>南阳</t>
+          <t>日照</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -622,7 +622,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>日照</t>
+          <t>济宁</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -639,12 +639,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>济宁</t>
+          <t>十堰</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -661,17 +661,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>江西</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>十堰</t>
+          <t>上饶</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -683,12 +683,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>江西</t>
+          <t>贵州</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>上饶</t>
+          <t>遵义</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>贵州</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>遵义</t>
+          <t>丹东</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -727,12 +727,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>丹东</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -749,12 +749,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>松原</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -771,12 +771,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>松原</t>
+          <t>本溪</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -793,12 +793,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>本溪</t>
+          <t>七台河</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -820,7 +820,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>七台河</t>
+          <t>哈尔滨</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -837,12 +837,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>哈尔滨</t>
+          <t>朝阳</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -859,12 +859,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>朝阳</t>
+          <t>濮阳</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -881,12 +881,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>濮阳</t>
+          <t>莱芜</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -903,12 +903,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>莱芜</t>
+          <t>赤峰</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -925,17 +925,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>赤峰</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -947,12 +947,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>锦州</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -969,12 +969,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>锦州</t>
+          <t>沧州</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -991,12 +991,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>沧州</t>
+          <t>绥化</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1018,7 +1018,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>绥化</t>
+          <t>牡丹江</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1040,7 +1040,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>牡丹江</t>
+          <t>大庆</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1057,12 +1057,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>大庆</t>
+          <t>商丘</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1079,12 +1079,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>商丘</t>
+          <t>葫芦岛</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1101,12 +1101,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>葫芦岛</t>
+          <t>南平</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1123,12 +1123,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>南平</t>
+          <t>黑河</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1145,12 +1145,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>黑河</t>
+          <t>四平</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1167,12 +1167,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>四平</t>
+          <t>鞍山</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1189,12 +1189,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>鞍山</t>
+          <t>通辽</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1211,12 +1211,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>通辽</t>
+          <t>泉州</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1233,12 +1233,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>泉州</t>
+          <t>济南</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1255,12 +1255,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>济南</t>
+          <t>大同</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1277,12 +1277,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>大同</t>
+          <t>白城</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1299,12 +1299,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>白城</t>
+          <t>邢台</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1321,12 +1321,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>邢台</t>
+          <t>佳木斯</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1343,12 +1343,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>佳木斯</t>
+          <t>平顶山</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1365,12 +1365,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>平顶山</t>
+          <t>韶关</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1387,12 +1387,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>广西</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>韶关</t>
+          <t>柳州</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1409,12 +1409,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>广西</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>柳州</t>
+          <t>常州</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1431,12 +1431,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>常州</t>
+          <t>长治</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1453,12 +1453,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>长治</t>
+          <t>通化</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1475,12 +1475,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>通化</t>
+          <t>苏州</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1497,12 +1497,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>晋中</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1519,12 +1519,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>晋中</t>
+          <t>淮安</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1541,12 +1541,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>淮安</t>
+          <t>肇庆</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1563,12 +1563,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>肇庆</t>
+          <t>安阳</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1585,12 +1585,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>安阳</t>
+          <t>淄博</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1607,12 +1607,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>淄博</t>
+          <t>齐齐哈尔</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1629,12 +1629,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>云南</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>齐齐哈尔</t>
+          <t>红河</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1651,12 +1651,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>云南</t>
+          <t>安徽</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>红河</t>
+          <t>蚌埠</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1673,12 +1673,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>安徽</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>蚌埠</t>
+          <t>镇江</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1695,12 +1695,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>镇江</t>
+          <t>黄冈</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1717,12 +1717,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>四川</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>黄冈</t>
+          <t>德阳</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1739,12 +1739,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>四川</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>德阳</t>
+          <t>孝感</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1761,12 +1761,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>孝感</t>
+          <t>汕头</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -1783,12 +1783,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>汕头</t>
+          <t>徐州</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -1805,12 +1805,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>徐州</t>
+          <t>衢州</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -1827,12 +1827,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>四川</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>衢州</t>
+          <t>绵阳</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -1849,12 +1849,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>四川</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>绵阳</t>
+          <t>漳州</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -1871,12 +1871,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>湖南</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>漳州</t>
+          <t>邵阳</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -1893,12 +1893,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>湖南</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>邵阳</t>
+          <t>秦皇岛</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -1915,12 +1915,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>秦皇岛</t>
+          <t>台州</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -1937,12 +1937,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>台州</t>
+          <t>无锡</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -1959,12 +1959,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>无锡</t>
+          <t>廊坊</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -1981,12 +1981,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>廊坊</t>
+          <t>临沂</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2003,12 +2003,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>广西</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>临沂</t>
+          <t>桂林</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2025,12 +2025,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>广西</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>桂林</t>
+          <t>包头</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2047,12 +2047,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>包头</t>
+          <t>盐城</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2069,12 +2069,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>盐城</t>
+          <t>烟台</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2091,12 +2091,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>烟台</t>
+          <t>中山</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2113,12 +2113,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>中山</t>
+          <t>南通</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2135,12 +2135,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>南通</t>
+          <t>宜昌</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2157,12 +2157,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>宜昌</t>
+          <t>大兴安岭</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2179,12 +2179,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>大兴安岭</t>
+          <t>唐山</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2201,12 +2201,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>唐山</t>
+          <t>鸡西</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2228,7 +2228,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>鸡西</t>
+          <t>双鸭山</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2245,12 +2245,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>双鸭山</t>
+          <t>盘锦</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2272,7 +2272,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>盘锦</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2289,12 +2289,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2311,12 +2311,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>云南</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>大理</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2333,12 +2333,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>云南</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>大理</t>
+          <t>长春</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2377,12 +2377,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>江西</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>长春</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2399,12 +2399,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>江西</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>宁波</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2421,12 +2421,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>宁波</t>
+          <t>洛阳</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2443,12 +2443,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>宁夏</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>洛阳</t>
+          <t>银川</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2465,12 +2465,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>宁夏</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>银川</t>
+          <t>佛山</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2492,7 +2492,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>佛山</t>
+          <t>东莞</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2509,12 +2509,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>甘肃</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>东莞</t>
+          <t>兰州</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2531,12 +2531,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>甘肃</t>
+          <t>云南</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>兰州</t>
+          <t>昆明</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2553,12 +2553,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>云南</t>
+          <t>湖南</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>昆明</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2575,12 +2575,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>湖南</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>呼和浩特</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -2597,12 +2597,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>四川</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>呼和浩特</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -2619,12 +2619,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>四川</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -2641,12 +2641,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -2663,12 +2663,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>沈阳</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -2685,12 +2685,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>陕西</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>沈阳</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -2707,12 +2707,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>陕西</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -2729,12 +2729,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -2751,12 +2751,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -2773,12 +2773,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -2790,22 +2790,22 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>移动</t>
+          <t>联通</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>甘肃</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>兰州</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -2817,12 +2817,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>甘肃</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>兰州</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -2839,12 +2839,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>石家庄</t>
+          <t>呼和浩特</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -2866,7 +2866,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>东莞</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -2883,12 +2883,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>陕西</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>呼和浩特</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -2905,12 +2905,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>东莞</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -2927,12 +2927,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>保定</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -2949,12 +2949,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>湖南</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -2971,12 +2971,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>江西</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>哈尔滨</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -2993,17 +2993,17 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>陕西</t>
+          <t>广西</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>南宁</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -3015,325 +3015,17 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>济南</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>较少</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>江苏</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>连云港</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>较少</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>山东</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>青岛</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>较少</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>山西</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>太原</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>较少</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>吉林</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>长春</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>较少</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>湖南</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>长沙</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>较少</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>黑龙江</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>哈尔滨</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>较少</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>广西</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>南宁</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
           <t>足够</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>辽宁</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>大连</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>足够</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>江苏</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>徐州</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>足够</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>河北</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>秦皇岛</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>足够</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>山西</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>大同</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>足够</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>江苏</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>常州</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>足够</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>山东</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>济南</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>足够</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>内蒙古</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>包头</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>较多</t>
         </is>
       </c>
     </row>

--- a/data/sourse.xlsx
+++ b/data/sourse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D118"/>
+  <dimension ref="A1:D140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,7 +468,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>泰安</t>
+          <t>潍坊</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -490,7 +490,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>枣庄</t>
+          <t>泰安</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -529,12 +529,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>湖南</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>岳阳</t>
+          <t>枣庄</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -551,12 +551,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>湖南</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>恩施</t>
+          <t>岳阳</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -573,12 +573,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>南阳</t>
+          <t>恩施</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -595,12 +595,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>日照</t>
+          <t>南阳</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -622,7 +622,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>济宁</t>
+          <t>日照</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -639,12 +639,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>十堰</t>
+          <t>济宁</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -661,17 +661,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>江西</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>上饶</t>
+          <t>十堰</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -683,17 +683,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>贵州</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>遵义</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -705,12 +705,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>江西</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>丹东</t>
+          <t>上饶</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -727,12 +727,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>贵州</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>遵义</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -749,12 +749,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>松原</t>
+          <t>丹东</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -771,12 +771,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>本溪</t>
+          <t>石家庄</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -793,12 +793,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>七台河</t>
+          <t>松原</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -815,12 +815,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>哈尔滨</t>
+          <t>本溪</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -837,12 +837,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>朝阳</t>
+          <t>哈尔滨</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -859,12 +859,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>濮阳</t>
+          <t>七台河</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -881,12 +881,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>莱芜</t>
+          <t>朝阳</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -947,17 +947,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>锦州</t>
+          <t>濮阳</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -969,17 +969,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>沧州</t>
+          <t>莱芜</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -991,12 +991,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>绥化</t>
+          <t>济南</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1013,12 +1013,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>牡丹江</t>
+          <t>锦州</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1035,12 +1035,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>大庆</t>
+          <t>沧州</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1057,12 +1057,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>商丘</t>
+          <t>绥化</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1079,12 +1079,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>葫芦岛</t>
+          <t>牡丹江</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1101,12 +1101,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>南平</t>
+          <t>大庆</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1123,12 +1123,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>黑河</t>
+          <t>商丘</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1145,12 +1145,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>四平</t>
+          <t>葫芦岛</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1167,12 +1167,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>鞍山</t>
+          <t>南平</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1189,12 +1189,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>通辽</t>
+          <t>黑河</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1211,12 +1211,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>泉州</t>
+          <t>四平</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1233,12 +1233,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>济南</t>
+          <t>鞍山</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1255,12 +1255,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>大同</t>
+          <t>通辽</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1277,12 +1277,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>白城</t>
+          <t>泉州</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1299,12 +1299,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>邢台</t>
+          <t>大同</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1321,12 +1321,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>佳木斯</t>
+          <t>白城</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1343,12 +1343,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>平顶山</t>
+          <t>邢台</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1365,12 +1365,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>韶关</t>
+          <t>佳木斯</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1387,12 +1387,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>广西</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>柳州</t>
+          <t>平顶山</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1409,12 +1409,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>常州</t>
+          <t>韶关</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1431,12 +1431,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>长治</t>
+          <t>苏州</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1453,12 +1453,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>广西</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>通化</t>
+          <t>柳州</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>常州</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1502,7 +1502,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>晋中</t>
+          <t>长治</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1519,12 +1519,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>淮安</t>
+          <t>通化</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1541,12 +1541,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>肇庆</t>
+          <t>晋中</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1563,12 +1563,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>安阳</t>
+          <t>淮安</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1585,12 +1585,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>淄博</t>
+          <t>肇庆</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1607,12 +1607,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>齐齐哈尔</t>
+          <t>安阳</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1629,12 +1629,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>云南</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>红河</t>
+          <t>淄博</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1651,12 +1651,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>安徽</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>蚌埠</t>
+          <t>齐齐哈尔</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1673,12 +1673,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>安徽</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>镇江</t>
+          <t>蚌埠</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1695,12 +1695,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>云南</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>黄冈</t>
+          <t>红河</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1717,12 +1717,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>四川</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>德阳</t>
+          <t>镇江</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1744,7 +1744,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>孝感</t>
+          <t>黄冈</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1761,12 +1761,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>四川</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>汕头</t>
+          <t>德阳</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -1783,12 +1783,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>徐州</t>
+          <t>孝感</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -1805,12 +1805,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>衢州</t>
+          <t>汕头</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -1827,12 +1827,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>四川</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>绵阳</t>
+          <t>徐州</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -1849,12 +1849,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>漳州</t>
+          <t>衢州</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -1871,12 +1871,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>湖南</t>
+          <t>四川</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>邵阳</t>
+          <t>绵阳</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -1893,12 +1893,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>秦皇岛</t>
+          <t>漳州</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -1915,12 +1915,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>湖南</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>台州</t>
+          <t>邵阳</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -1937,12 +1937,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>无锡</t>
+          <t>秦皇岛</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -1959,12 +1959,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>廊坊</t>
+          <t>无锡</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -1981,12 +1981,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>临沂</t>
+          <t>台州</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2003,12 +2003,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>广西</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>桂林</t>
+          <t>廊坊</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2025,12 +2025,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>包头</t>
+          <t>临沂</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2047,12 +2047,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>广西</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>盐城</t>
+          <t>桂林</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2069,12 +2069,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>烟台</t>
+          <t>包头</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2091,12 +2091,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>中山</t>
+          <t>盐城</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2113,12 +2113,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>南通</t>
+          <t>烟台</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2135,12 +2135,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>宜昌</t>
+          <t>中山</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2157,12 +2157,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>大兴安岭</t>
+          <t>南通</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2179,12 +2179,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>唐山</t>
+          <t>宜昌</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2201,12 +2201,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>鸡西</t>
+          <t>唐山</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2228,7 +2228,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>双鸭山</t>
+          <t>大兴安岭</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2245,12 +2245,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>盘锦</t>
+          <t>鸡西</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2267,12 +2267,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>双鸭山</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2289,12 +2289,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>盘锦</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2311,12 +2311,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>云南</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>大理</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2333,12 +2333,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>长春</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2355,12 +2355,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>云南</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>温州</t>
+          <t>大理</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2377,12 +2377,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>江西</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>长春</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2399,12 +2399,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>江西</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>宁波</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2421,12 +2421,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>洛阳</t>
+          <t>温州</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2443,12 +2443,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>宁夏</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>银川</t>
+          <t>宁波</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2465,12 +2465,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>佛山</t>
+          <t>洛阳</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2487,12 +2487,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>宁夏</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>东莞</t>
+          <t>银川</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2509,12 +2509,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>甘肃</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>兰州</t>
+          <t>佛山</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2531,12 +2531,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>云南</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>昆明</t>
+          <t>东莞</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2553,12 +2553,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>湖南</t>
+          <t>甘肃</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>兰州</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2575,12 +2575,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>云南</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>呼和浩特</t>
+          <t>昆明</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -2597,12 +2597,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>四川</t>
+          <t>湖南</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -2619,12 +2619,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>呼和浩特</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -2641,12 +2641,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -2663,12 +2663,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>四川</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>沈阳</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -2685,12 +2685,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>陕西</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -2707,12 +2707,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>沈阳</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -2729,12 +2729,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>陕西</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -2751,12 +2751,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -2773,12 +2773,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -2790,29 +2790,29 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>联通</t>
+          <t>移动</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>甘肃</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>兰州</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>联通</t>
+          <t>移动</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -2827,29 +2827,29 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>联通</t>
+          <t>移动</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>呼和浩特</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -2861,12 +2861,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>东莞</t>
+          <t>石家庄</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -2883,17 +2883,17 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>陕西</t>
+          <t>甘肃</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>兰州</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -2905,17 +2905,17 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -2927,17 +2927,17 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>陕西</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -2949,17 +2949,17 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>湖南</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -2971,17 +2971,17 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>哈尔滨</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -2993,12 +2993,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>广西</t>
+          <t>四川</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>南宁</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3015,17 +3015,501 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
+          <t>北京</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>北京</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>安徽</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>合肥</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>广东</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>广州</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>浙江</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>杭州</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>上海</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>上海</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>湖南</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>长沙</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>湖北</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>武汉</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>福建</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>福州</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>河南</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>郑州</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>江西</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>南昌</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>天津</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>天津</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>云南</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>昆明</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>广西</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>南宁</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
           <t>山东</t>
         </is>
       </c>
-      <c r="C118" t="inlineStr">
+      <c r="C131" t="inlineStr">
         <is>
           <t>济南</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>足够</t>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>山西</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>太原</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>贵州</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>贵阳</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>海南</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>海南</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>福建</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>厦门</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>吉林</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>长春</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>内蒙古</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>呼和浩特</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>黑龙江</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>哈尔滨</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>辽宁</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>沈阳</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>宁夏</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>银川</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>较多</t>
         </is>
       </c>
     </row>

--- a/data/sourse.xlsx
+++ b/data/sourse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D140"/>
+  <dimension ref="A1:D139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -771,12 +771,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>石家庄</t>
+          <t>松原</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -793,12 +793,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>松原</t>
+          <t>本溪</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -815,12 +815,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>本溪</t>
+          <t>哈尔滨</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -837,12 +837,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>哈尔滨</t>
+          <t>赤峰</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -903,12 +903,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>赤峰</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -925,12 +925,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>濮阳</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -947,12 +947,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>濮阳</t>
+          <t>莱芜</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -974,12 +974,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>莱芜</t>
+          <t>济南</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -991,12 +991,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>济南</t>
+          <t>锦州</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1013,12 +1013,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>锦州</t>
+          <t>沧州</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1035,12 +1035,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>沧州</t>
+          <t>绥化</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1062,7 +1062,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>绥化</t>
+          <t>牡丹江</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1084,7 +1084,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>牡丹江</t>
+          <t>大庆</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1101,12 +1101,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>大庆</t>
+          <t>商丘</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1123,12 +1123,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>商丘</t>
+          <t>葫芦岛</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1145,12 +1145,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>葫芦岛</t>
+          <t>南平</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1167,12 +1167,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>南平</t>
+          <t>黑河</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1189,12 +1189,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>黑河</t>
+          <t>四平</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1211,12 +1211,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>四平</t>
+          <t>鞍山</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1233,12 +1233,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>鞍山</t>
+          <t>通辽</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1255,12 +1255,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>通辽</t>
+          <t>泉州</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1277,12 +1277,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>泉州</t>
+          <t>大同</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1299,12 +1299,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>大同</t>
+          <t>白城</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1321,12 +1321,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>白城</t>
+          <t>邢台</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1343,12 +1343,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>邢台</t>
+          <t>佳木斯</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1365,12 +1365,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>佳木斯</t>
+          <t>平顶山</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1387,12 +1387,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>平顶山</t>
+          <t>韶关</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1409,12 +1409,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>韶关</t>
+          <t>苏州</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1431,12 +1431,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>广西</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>柳州</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1453,12 +1453,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>广西</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>柳州</t>
+          <t>常州</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1475,12 +1475,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>常州</t>
+          <t>长治</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1497,12 +1497,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>长治</t>
+          <t>通化</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1519,12 +1519,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>通化</t>
+          <t>晋中</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1541,12 +1541,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>晋中</t>
+          <t>淮安</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1563,12 +1563,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>淮安</t>
+          <t>肇庆</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1585,12 +1585,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>肇庆</t>
+          <t>安阳</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1607,12 +1607,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>安阳</t>
+          <t>淄博</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1629,12 +1629,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>淄博</t>
+          <t>齐齐哈尔</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1651,12 +1651,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>安徽</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>齐齐哈尔</t>
+          <t>蚌埠</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1673,12 +1673,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>安徽</t>
+          <t>云南</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>蚌埠</t>
+          <t>红河</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1695,12 +1695,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>云南</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>红河</t>
+          <t>镇江</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1717,12 +1717,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>镇江</t>
+          <t>黄冈</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1739,12 +1739,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>四川</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>黄冈</t>
+          <t>德阳</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1761,12 +1761,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>四川</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>德阳</t>
+          <t>孝感</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -1783,12 +1783,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>孝感</t>
+          <t>汕头</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -1805,12 +1805,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>汕头</t>
+          <t>徐州</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -1827,12 +1827,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>徐州</t>
+          <t>衢州</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -1849,12 +1849,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>四川</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>衢州</t>
+          <t>绵阳</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -1871,12 +1871,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>四川</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>绵阳</t>
+          <t>漳州</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -1893,12 +1893,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>湖南</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>漳州</t>
+          <t>邵阳</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -1915,12 +1915,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>湖南</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>邵阳</t>
+          <t>秦皇岛</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -1937,12 +1937,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>秦皇岛</t>
+          <t>无锡</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -1959,12 +1959,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>无锡</t>
+          <t>台州</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -1981,12 +1981,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>台州</t>
+          <t>廊坊</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2003,12 +2003,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>廊坊</t>
+          <t>临沂</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2025,12 +2025,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>广西</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>临沂</t>
+          <t>桂林</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2047,12 +2047,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>广西</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>桂林</t>
+          <t>包头</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2069,12 +2069,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>包头</t>
+          <t>盐城</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2091,12 +2091,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>盐城</t>
+          <t>烟台</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2113,12 +2113,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>烟台</t>
+          <t>中山</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2135,12 +2135,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>中山</t>
+          <t>南通</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2157,12 +2157,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>南通</t>
+          <t>宜昌</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2179,12 +2179,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>宜昌</t>
+          <t>唐山</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2201,12 +2201,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>唐山</t>
+          <t>大兴安岭</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2228,7 +2228,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>大兴安岭</t>
+          <t>鸡西</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2250,7 +2250,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>鸡西</t>
+          <t>双鸭山</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2267,12 +2267,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>双鸭山</t>
+          <t>盘锦</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2294,7 +2294,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>盘锦</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2311,12 +2311,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2333,12 +2333,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>云南</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>大理</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2355,12 +2355,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>云南</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>大理</t>
+          <t>长春</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2377,12 +2377,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>江西</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>长春</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2399,12 +2399,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>江西</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>温州</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2426,7 +2426,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>温州</t>
+          <t>宁波</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2443,12 +2443,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>宁波</t>
+          <t>洛阳</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2465,12 +2465,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>宁夏</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>洛阳</t>
+          <t>银川</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2487,12 +2487,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>宁夏</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>银川</t>
+          <t>佛山</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2514,7 +2514,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>佛山</t>
+          <t>东莞</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2531,12 +2531,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>甘肃</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>东莞</t>
+          <t>兰州</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2553,12 +2553,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>甘肃</t>
+          <t>云南</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>兰州</t>
+          <t>昆明</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2575,12 +2575,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>云南</t>
+          <t>湖南</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>昆明</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -2597,12 +2597,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>湖南</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>呼和浩特</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -2619,12 +2619,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>呼和浩特</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -2641,12 +2641,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>四川</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -2663,12 +2663,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>四川</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -2685,12 +2685,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>沈阳</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -2707,12 +2707,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>陕西</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>沈阳</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -2729,12 +2729,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>陕西</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -2751,12 +2751,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -2773,12 +2773,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -2795,12 +2795,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -2817,12 +2817,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -2834,22 +2834,22 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>移动</t>
+          <t>联通</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>石家庄</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -2861,17 +2861,17 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>甘肃</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>石家庄</t>
+          <t>兰州</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -2883,12 +2883,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>甘肃</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>兰州</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -2905,12 +2905,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>陕西</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -2927,12 +2927,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>陕西</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -2949,12 +2949,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -2971,12 +2971,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>四川</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -2993,17 +2993,17 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>四川</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -3015,12 +3015,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>安徽</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>合肥</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3037,12 +3037,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>安徽</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>合肥</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3059,12 +3059,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>杭州</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3081,12 +3081,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>杭州</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3103,12 +3103,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>湖南</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3125,12 +3125,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>湖南</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3147,12 +3147,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>福州</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3169,12 +3169,12 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>福州</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3191,12 +3191,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>江西</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3213,12 +3213,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>江西</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3235,12 +3235,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>云南</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>昆明</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -3257,12 +3257,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>云南</t>
+          <t>广西</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>昆明</t>
+          <t>南宁</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -3279,12 +3279,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>广西</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>南宁</t>
+          <t>济南</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -3301,12 +3301,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>济南</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3323,12 +3323,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>贵州</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>贵阳</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -3345,12 +3345,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>贵州</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>贵阳</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -3367,12 +3367,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -3389,12 +3389,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>长春</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -3411,12 +3411,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>长春</t>
+          <t>呼和浩特</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -3433,12 +3433,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>呼和浩特</t>
+          <t>哈尔滨</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -3455,12 +3455,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>哈尔滨</t>
+          <t>沈阳</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -3477,37 +3477,15 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>宁夏</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>沈阳</t>
+          <t>银川</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>宁夏</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>银川</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
         <is>
           <t>较多</t>
         </is>

--- a/data/sourse.xlsx
+++ b/data/sourse.xlsx
@@ -952,7 +952,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>莱芜</t>
+          <t>济南</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -974,12 +974,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>济南</t>
+          <t>莱芜</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -1783,12 +1783,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>汕头</t>
+          <t>徐州</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -1805,12 +1805,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>徐州</t>
+          <t>汕头</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2333,12 +2333,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>云南</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>大理</t>
+          <t>长春</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2355,12 +2355,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>云南</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>长春</t>
+          <t>大理</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2861,12 +2861,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>甘肃</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>兰州</t>
+          <t>福州</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -2883,12 +2883,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>甘肃</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>兰州</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -2905,12 +2905,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>陕西</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -2927,12 +2927,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>陕西</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -2949,12 +2949,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -2971,12 +2971,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>四川</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -2993,17 +2993,17 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>四川</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -3015,12 +3015,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>安徽</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>合肥</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3037,12 +3037,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>安徽</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>合肥</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3059,12 +3059,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>杭州</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3081,12 +3081,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>杭州</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3103,12 +3103,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>湖南</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3125,12 +3125,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>湖南</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3147,12 +3147,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>福州</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">

--- a/data/sourse.xlsx
+++ b/data/sourse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D139"/>
+  <dimension ref="A1:D137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -639,12 +639,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>济宁</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -661,12 +661,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>十堰</t>
+          <t>济宁</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -683,12 +683,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>十堰</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>江西</t>
+          <t>贵州</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>上饶</t>
+          <t>遵义</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -727,12 +727,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>贵州</t>
+          <t>江西</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>遵义</t>
+          <t>上饶</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -749,12 +749,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>丹东</t>
+          <t>济南</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -771,12 +771,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>松原</t>
+          <t>丹东</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -793,12 +793,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>本溪</t>
+          <t>赤峰</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -815,12 +815,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>哈尔滨</t>
+          <t>松原</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -837,12 +837,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>赤峰</t>
+          <t>本溪</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -864,7 +864,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>七台河</t>
+          <t>哈尔滨</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -881,12 +881,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>朝阳</t>
+          <t>七台河</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -903,12 +903,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>朝阳</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -925,12 +925,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>濮阳</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -947,12 +947,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>济南</t>
+          <t>濮阳</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -991,12 +991,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>锦州</t>
+          <t>沧州</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1013,12 +1013,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>沧州</t>
+          <t>锦州</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1211,12 +1211,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>鞍山</t>
+          <t>通辽</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1233,12 +1233,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>通辽</t>
+          <t>鞍山</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1299,12 +1299,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>白城</t>
+          <t>苏州</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1321,12 +1321,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>邢台</t>
+          <t>白城</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1343,12 +1343,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>佳木斯</t>
+          <t>邢台</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1387,12 +1387,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>韶关</t>
+          <t>佳木斯</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1409,12 +1409,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>韶关</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1585,12 +1585,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>安阳</t>
+          <t>淄博</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1607,12 +1607,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>淄博</t>
+          <t>安阳</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1827,12 +1827,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>四川</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>衢州</t>
+          <t>绵阳</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -1849,12 +1849,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>四川</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>绵阳</t>
+          <t>衢州</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2003,12 +2003,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>广西</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>临沂</t>
+          <t>桂林</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2025,12 +2025,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>广西</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>桂林</t>
+          <t>临沂</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2223,12 +2223,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>鸡西</t>
+          <t>盘锦</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2250,7 +2250,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>双鸭山</t>
+          <t>鸡西</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2267,12 +2267,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>盘锦</t>
+          <t>双鸭山</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2575,12 +2575,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>湖南</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -2597,12 +2597,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>湖南</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>呼和浩特</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -2619,12 +2619,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>四川</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -2641,12 +2641,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>四川</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>呼和浩特</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -2839,12 +2839,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>石家庄</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -2871,7 +2871,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -2883,17 +2883,17 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>甘肃</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>兰州</t>
+          <t>石家庄</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -2905,17 +2905,17 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>四川</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -2927,17 +2927,17 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>陕西</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>杭州</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -2971,12 +2971,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>陕西</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -2993,12 +2993,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>四川</t>
+          <t>甘肃</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>兰州</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3015,17 +3015,17 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>安徽</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>合肥</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -3037,17 +3037,17 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>安徽</t>
+          <t>湖南</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>合肥</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -3059,17 +3059,17 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -3081,17 +3081,17 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>杭州</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -3103,12 +3103,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3125,12 +3125,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>湖南</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3147,12 +3147,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>江西</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3169,12 +3169,12 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3191,12 +3191,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>江西</t>
+          <t>云南</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>昆明</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3213,12 +3213,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>广西</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>南宁</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3235,12 +3235,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>云南</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>昆明</t>
+          <t>济南</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -3257,12 +3257,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>广西</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>南宁</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -3279,12 +3279,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>贵州</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>济南</t>
+          <t>贵阳</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -3301,12 +3301,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3323,12 +3323,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>贵州</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>贵阳</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -3345,12 +3345,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>长春</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -3367,12 +3367,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>呼和浩特</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -3389,12 +3389,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>长春</t>
+          <t>哈尔滨</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -3411,12 +3411,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>呼和浩特</t>
+          <t>沈阳</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -3433,59 +3433,15 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>宁夏</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>哈尔滨</t>
+          <t>银川</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>辽宁</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>沈阳</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>宁夏</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>银川</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
         <is>
           <t>较多</t>
         </is>

--- a/data/sourse.xlsx
+++ b/data/sourse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D137"/>
+  <dimension ref="A1:D136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2927,17 +2927,17 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>杭州</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -2949,12 +2949,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>陕西</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -2971,12 +2971,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>陕西</t>
+          <t>甘肃</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>兰州</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -2993,12 +2993,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>甘肃</t>
+          <t>安徽</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>兰州</t>
+          <t>合肥</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3015,12 +3015,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>安徽</t>
+          <t>湖南</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>合肥</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3037,12 +3037,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>湖南</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3059,12 +3059,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3081,17 +3081,17 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -3103,12 +3103,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3125,12 +3125,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>江西</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3147,12 +3147,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>江西</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3169,12 +3169,12 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>云南</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>昆明</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3191,12 +3191,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>云南</t>
+          <t>广西</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>昆明</t>
+          <t>南宁</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3213,12 +3213,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>广西</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>南宁</t>
+          <t>济南</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3235,12 +3235,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>济南</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -3257,12 +3257,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>贵州</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>贵阳</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -3279,12 +3279,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>贵州</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>贵阳</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -3301,12 +3301,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3323,12 +3323,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>长春</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -3345,12 +3345,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>长春</t>
+          <t>呼和浩特</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -3367,12 +3367,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>呼和浩特</t>
+          <t>哈尔滨</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -3389,12 +3389,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>哈尔滨</t>
+          <t>沈阳</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -3411,37 +3411,15 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>宁夏</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>沈阳</t>
+          <t>银川</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>宁夏</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>银川</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
         <is>
           <t>较多</t>
         </is>

--- a/data/sourse.xlsx
+++ b/data/sourse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D136"/>
+  <dimension ref="A1:D133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -705,12 +705,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>贵州</t>
+          <t>江西</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>遵义</t>
+          <t>上饶</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -727,12 +727,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>江西</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>上饶</t>
+          <t>苏州</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -749,12 +749,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>济南</t>
+          <t>丹东</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -771,12 +771,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>丹东</t>
+          <t>赤峰</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -793,12 +793,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>赤峰</t>
+          <t>松原</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -815,12 +815,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>松原</t>
+          <t>本溪</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -837,12 +837,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>本溪</t>
+          <t>哈尔滨</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -864,7 +864,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>哈尔滨</t>
+          <t>七台河</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -881,12 +881,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>七台河</t>
+          <t>泉州</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -925,12 +925,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>牡丹江</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1062,7 +1062,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>牡丹江</t>
+          <t>大庆</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1079,12 +1079,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>大庆</t>
+          <t>商丘</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1101,12 +1101,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>商丘</t>
+          <t>葫芦岛</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1123,12 +1123,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>葫芦岛</t>
+          <t>南平</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1145,12 +1145,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>南平</t>
+          <t>黑河</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1167,12 +1167,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>黑河</t>
+          <t>四平</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1189,12 +1189,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>四平</t>
+          <t>通辽</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1211,12 +1211,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>通辽</t>
+          <t>鞍山</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1233,12 +1233,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>鞍山</t>
+          <t>大同</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1255,12 +1255,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>泉州</t>
+          <t>邢台</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1277,12 +1277,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>大同</t>
+          <t>白城</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1299,12 +1299,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>平顶山</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1321,12 +1321,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>白城</t>
+          <t>佳木斯</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1343,12 +1343,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>邢台</t>
+          <t>韶关</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1365,12 +1365,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>广西</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>平顶山</t>
+          <t>柳州</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1387,12 +1387,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>佳木斯</t>
+          <t>常州</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1409,12 +1409,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>韶关</t>
+          <t>长治</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1431,12 +1431,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>广西</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>柳州</t>
+          <t>通化</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1453,12 +1453,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>常州</t>
+          <t>晋中</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1475,12 +1475,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>长治</t>
+          <t>淄博</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1497,12 +1497,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>通化</t>
+          <t>淮安</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1519,12 +1519,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>晋中</t>
+          <t>肇庆</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1541,12 +1541,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>安徽</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>淮安</t>
+          <t>蚌埠</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1563,12 +1563,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>肇庆</t>
+          <t>安阳</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1585,12 +1585,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>淄博</t>
+          <t>齐齐哈尔</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1607,12 +1607,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>云南</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>安阳</t>
+          <t>红河</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1629,12 +1629,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>齐齐哈尔</t>
+          <t>镇江</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1651,12 +1651,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>安徽</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>蚌埠</t>
+          <t>黄冈</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1673,12 +1673,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>云南</t>
+          <t>四川</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>红河</t>
+          <t>德阳</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1695,12 +1695,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>镇江</t>
+          <t>孝感</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1717,12 +1717,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>黄冈</t>
+          <t>秦皇岛</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1739,12 +1739,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>四川</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>德阳</t>
+          <t>徐州</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1761,12 +1761,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>孝感</t>
+          <t>汕头</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -1783,12 +1783,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>四川</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>徐州</t>
+          <t>绵阳</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -1805,12 +1805,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>汕头</t>
+          <t>衢州</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -1827,12 +1827,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>四川</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>绵阳</t>
+          <t>漳州</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -1849,12 +1849,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>湖南</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>衢州</t>
+          <t>邵阳</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -1871,12 +1871,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>漳州</t>
+          <t>无锡</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -1893,12 +1893,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>湖南</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>邵阳</t>
+          <t>台州</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -1915,12 +1915,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>广西</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>秦皇岛</t>
+          <t>桂林</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -1937,12 +1937,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>无锡</t>
+          <t>廊坊</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -1959,12 +1959,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>台州</t>
+          <t>临沂</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -1981,12 +1981,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>廊坊</t>
+          <t>包头</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2003,12 +2003,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>广西</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>桂林</t>
+          <t>盐城</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2030,7 +2030,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>临沂</t>
+          <t>烟台</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2047,12 +2047,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>包头</t>
+          <t>中山</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>盐城</t>
+          <t>南通</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2091,12 +2091,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>江西</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>烟台</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2113,12 +2113,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>中山</t>
+          <t>宜昌</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2135,12 +2135,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>南通</t>
+          <t>唐山</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2157,12 +2157,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>宜昌</t>
+          <t>长春</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2179,12 +2179,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>唐山</t>
+          <t>大兴安岭</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2201,12 +2201,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>大兴安岭</t>
+          <t>盘锦</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2223,12 +2223,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>盘锦</t>
+          <t>鸡西</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2250,7 +2250,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>鸡西</t>
+          <t>双鸭山</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2267,12 +2267,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>双鸭山</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2311,12 +2311,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>温州</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2333,12 +2333,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>云南</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>长春</t>
+          <t>大理</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2355,12 +2355,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>云南</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>大理</t>
+          <t>洛阳</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2377,12 +2377,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>江西</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>宁波</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2399,12 +2399,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>温州</t>
+          <t>佛山</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2421,12 +2421,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>宁夏</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>宁波</t>
+          <t>银川</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2443,12 +2443,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>洛阳</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2465,12 +2465,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>宁夏</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>银川</t>
+          <t>东莞</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2487,12 +2487,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>甘肃</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>佛山</t>
+          <t>兰州</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2509,12 +2509,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>云南</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>东莞</t>
+          <t>昆明</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2531,12 +2531,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>甘肃</t>
+          <t>湖南</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>兰州</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2553,12 +2553,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>云南</t>
+          <t>四川</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>昆明</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2575,12 +2575,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>呼和浩特</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -2597,12 +2597,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>湖南</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -2619,12 +2619,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>四川</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>沈阳</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -2641,12 +2641,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>陕西</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>呼和浩特</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -2663,12 +2663,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -2685,12 +2685,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>沈阳</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -2707,12 +2707,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>陕西</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -2729,12 +2729,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -2751,12 +2751,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -2768,66 +2768,66 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>移动</t>
+          <t>联通</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>移动</t>
+          <t>联通</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>福州</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>移动</t>
+          <t>联通</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>石家庄</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -2839,12 +2839,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>四川</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -2861,17 +2861,17 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>福州</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -2883,17 +2883,17 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>陕西</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>石家庄</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -2905,17 +2905,17 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>四川</t>
+          <t>甘肃</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>兰州</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -2927,12 +2927,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>安徽</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>合肥</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -2949,12 +2949,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>陕西</t>
+          <t>湖南</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -2971,12 +2971,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>甘肃</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>兰州</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -2993,12 +2993,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>安徽</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>合肥</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3015,17 +3015,17 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>湖南</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -3037,17 +3037,17 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -3059,17 +3059,17 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>江西</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -3081,12 +3081,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3103,12 +3103,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>云南</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>昆明</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3125,12 +3125,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>江西</t>
+          <t>广西</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>南宁</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3147,12 +3147,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>济南</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3169,12 +3169,12 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>云南</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>昆明</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3191,12 +3191,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>广西</t>
+          <t>贵州</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>南宁</t>
+          <t>贵阳</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3213,12 +3213,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>济南</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3235,12 +3235,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -3257,12 +3257,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>贵州</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>贵阳</t>
+          <t>长春</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -3279,12 +3279,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>呼和浩特</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -3301,12 +3301,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>哈尔滨</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -3323,12 +3323,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>长春</t>
+          <t>沈阳</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -3345,81 +3345,15 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>宁夏</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>呼和浩特</t>
+          <t>银川</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>黑龙江</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>哈尔滨</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>辽宁</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>沈阳</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>宁夏</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>银川</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
         <is>
           <t>较多</t>
         </is>

--- a/data/sourse.xlsx
+++ b/data/sourse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D133"/>
+  <dimension ref="A1:D117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2773,12 +2773,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>甘肃</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>兰州</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -2795,12 +2795,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>福州</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -2817,12 +2817,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>石家庄</t>
+          <t>呼和浩特</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -2839,12 +2839,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>四川</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>东莞</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -2861,17 +2861,17 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>陕西</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -2883,17 +2883,17 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>陕西</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -2905,17 +2905,17 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>甘肃</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>兰州</t>
+          <t>青岛</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -2927,17 +2927,17 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>安徽</t>
+          <t>湖南</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>合肥</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -2949,17 +2949,17 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>湖南</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>哈尔滨</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -2971,12 +2971,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>广西</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>南宁</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -2993,369 +2993,17 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>济南</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
           <t>足够</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>广东</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>广州</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>河南</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>郑州</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>江西</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>南昌</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>天津</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>天津</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>云南</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>昆明</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>广西</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>南宁</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>山东</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>济南</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>山西</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>太原</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>贵州</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>贵阳</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>海南</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>海南</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>福建</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>厦门</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>吉林</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>长春</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>内蒙古</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>呼和浩特</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>黑龙江</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>哈尔滨</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>辽宁</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>沈阳</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>宁夏</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>银川</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>较多</t>
         </is>
       </c>
     </row>

--- a/data/sourse.xlsx
+++ b/data/sourse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D117"/>
+  <dimension ref="A1:D133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2773,12 +2773,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>甘肃</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>兰州</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -2795,12 +2795,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>福州</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -2817,12 +2817,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>呼和浩特</t>
+          <t>石家庄</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -2839,12 +2839,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>四川</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>东莞</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -2861,17 +2861,17 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>陕西</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -2883,17 +2883,17 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>陕西</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -2905,17 +2905,17 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>甘肃</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>青岛</t>
+          <t>兰州</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -2927,17 +2927,17 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>湖南</t>
+          <t>安徽</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>合肥</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -2949,17 +2949,17 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>湖南</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>哈尔滨</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -2971,12 +2971,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>广西</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>南宁</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -2993,17 +2993,369 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
+          <t>重庆</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>重庆</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>足够</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>广东</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>广州</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>河南</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>郑州</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>江西</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>南昌</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>天津</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>天津</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>云南</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>昆明</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>广西</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>南宁</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
           <t>山东</t>
         </is>
       </c>
-      <c r="C117" t="inlineStr">
+      <c r="C124" t="inlineStr">
         <is>
           <t>济南</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>足够</t>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>山西</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>太原</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>贵州</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>贵阳</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>海南</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>海南</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>福建</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>厦门</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>吉林</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>长春</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>内蒙古</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>呼和浩特</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>黑龙江</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>哈尔滨</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>辽宁</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>沈阳</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>宁夏</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>银川</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>较多</t>
         </is>
       </c>
     </row>

--- a/data/sourse.xlsx
+++ b/data/sourse.xlsx
@@ -2404,7 +2404,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>佛山</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2421,12 +2421,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>宁夏</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>银川</t>
+          <t>佛山</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2443,12 +2443,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>宁夏</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>银川</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2641,12 +2641,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>陕西</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -2663,12 +2663,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>陕西</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -2685,12 +2685,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">

--- a/data/sourse.xlsx
+++ b/data/sourse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D133"/>
+  <dimension ref="A1:D126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2773,12 +2773,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>福州</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -2795,12 +2795,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>福州</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -2817,12 +2817,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>石家庄</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -2839,12 +2839,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>四川</t>
+          <t>安徽</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>合肥</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -2861,17 +2861,17 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>甘肃</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>兰州</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -2883,12 +2883,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>陕西</t>
+          <t>湖南</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -2905,12 +2905,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>甘肃</t>
+          <t>云南</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>兰州</t>
+          <t>昆明</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -2927,12 +2927,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>安徽</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>合肥</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -2949,17 +2949,17 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>湖南</t>
+          <t>江西</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -2971,17 +2971,17 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>广西</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>南宁</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -2993,17 +2993,17 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>济南</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -3015,12 +3015,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3037,12 +3037,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>长春</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3059,12 +3059,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>江西</t>
+          <t>贵州</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>贵阳</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3081,12 +3081,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>沈阳</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3103,12 +3103,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>云南</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>昆明</t>
+          <t>哈尔滨</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3125,12 +3125,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>广西</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>南宁</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3147,12 +3147,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>济南</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3169,12 +3169,12 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>呼和浩特</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3191,169 +3191,15 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>贵州</t>
+          <t>宁夏</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>贵阳</t>
+          <t>银川</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>海南</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>海南</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>福建</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>厦门</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>吉林</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>长春</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>内蒙古</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>呼和浩特</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>黑龙江</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>哈尔滨</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>辽宁</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>沈阳</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>宁夏</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>银川</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
         <is>
           <t>较多</t>
         </is>

--- a/data/sourse.xlsx
+++ b/data/sourse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D126"/>
+  <dimension ref="A1:D129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2773,12 +2773,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>福州</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -2817,12 +2817,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>陕西</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -2839,12 +2839,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>安徽</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>合肥</t>
+          <t>福州</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -2861,12 +2861,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>甘肃</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>兰州</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -2883,17 +2883,17 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>湖南</t>
+          <t>安徽</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>合肥</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -2905,17 +2905,17 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>云南</t>
+          <t>甘肃</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>昆明</t>
+          <t>兰州</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -2927,12 +2927,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -2949,17 +2949,17 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>江西</t>
+          <t>湖南</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -2971,17 +2971,17 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>广西</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>南宁</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -2993,17 +2993,17 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>云南</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>济南</t>
+          <t>昆明</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -3015,12 +3015,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>广西</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>南宁</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3037,12 +3037,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>江西</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>长春</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3059,12 +3059,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>贵州</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>贵阳</t>
+          <t>济南</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3081,12 +3081,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>沈阳</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3103,12 +3103,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>哈尔滨</t>
+          <t>长春</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3125,12 +3125,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>贵州</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>贵阳</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3147,12 +3147,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>沈阳</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3169,12 +3169,12 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>呼和浩特</t>
+          <t>哈尔滨</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3191,15 +3191,81 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
+          <t>海南</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>海南</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>福建</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>厦门</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>内蒙古</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>呼和浩特</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
           <t>宁夏</t>
         </is>
       </c>
-      <c r="C126" t="inlineStr">
+      <c r="C129" t="inlineStr">
         <is>
           <t>银川</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr">
+      <c r="D129" t="inlineStr">
         <is>
           <t>较多</t>
         </is>

--- a/data/sourse.xlsx
+++ b/data/sourse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D129"/>
+  <dimension ref="A1:D115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,12 +463,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>江西</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>潍坊</t>
+          <t>上饶</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,12 +485,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>泰安</t>
+          <t>十堰</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -507,12 +507,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>湖南</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>衡阳</t>
+          <t>泉州</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -529,12 +529,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>枣庄</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -551,17 +551,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>湖南</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>岳阳</t>
+          <t>南平</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -573,17 +573,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>恩施</t>
+          <t>丹东</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -595,17 +595,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>南阳</t>
+          <t>松原</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -617,17 +617,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>日照</t>
+          <t>赤峰</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -639,17 +639,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>本溪</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -661,17 +661,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>济宁</t>
+          <t>濮阳</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -683,17 +683,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>十堰</t>
+          <t>大同</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -705,12 +705,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>江西</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>上饶</t>
+          <t>牡丹江</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -727,12 +727,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>苏州</t>
+          <t>朝阳</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -749,12 +749,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>丹东</t>
+          <t>莱芜</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -771,12 +771,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>赤峰</t>
+          <t>沧州</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -793,12 +793,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>松原</t>
+          <t>七台河</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -815,12 +815,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>本溪</t>
+          <t>常州</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -837,12 +837,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>哈尔滨</t>
+          <t>锦州</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -864,7 +864,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>七台河</t>
+          <t>绥化</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -881,12 +881,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>泉州</t>
+          <t>商丘</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -908,7 +908,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>朝阳</t>
+          <t>鞍山</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -930,7 +930,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>牡丹江</t>
+          <t>大庆</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -947,12 +947,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>濮阳</t>
+          <t>葫芦岛</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -969,12 +969,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>莱芜</t>
+          <t>黑河</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -991,17 +991,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>沧州</t>
+          <t>通辽</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -1013,17 +1013,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>锦州</t>
+          <t>邢台</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -1035,17 +1035,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>绥化</t>
+          <t>四平</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -1057,17 +1057,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>广西</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>大庆</t>
+          <t>柳州</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -1084,7 +1084,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>商丘</t>
+          <t>平顶山</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1101,12 +1101,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>葫芦岛</t>
+          <t>白城</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1123,12 +1123,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>南平</t>
+          <t>韶关</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>黑河</t>
+          <t>佳木斯</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1167,12 +1167,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>四平</t>
+          <t>长治</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1189,12 +1189,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>通辽</t>
+          <t>淄博</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1211,12 +1211,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>江西</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>鞍山</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1233,12 +1233,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>大同</t>
+          <t>通化</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1255,12 +1255,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>邢台</t>
+          <t>肇庆</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1277,12 +1277,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>白城</t>
+          <t>淮安</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1299,12 +1299,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>平顶山</t>
+          <t>晋中</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1321,12 +1321,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>安徽</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>佳木斯</t>
+          <t>蚌埠</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1343,12 +1343,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>韶关</t>
+          <t>安阳</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1365,12 +1365,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>广西</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>柳州</t>
+          <t>齐齐哈尔</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1387,12 +1387,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>云南</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>常州</t>
+          <t>红河</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1409,12 +1409,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>长治</t>
+          <t>镇江</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1431,12 +1431,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>通化</t>
+          <t>无锡</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1453,12 +1453,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>晋中</t>
+          <t>秦皇岛</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1475,12 +1475,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>四川</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>淄博</t>
+          <t>德阳</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1497,12 +1497,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>淮安</t>
+          <t>黄冈</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1519,12 +1519,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>肇庆</t>
+          <t>徐州</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1541,12 +1541,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>安徽</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>蚌埠</t>
+          <t>孝感</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1563,12 +1563,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>安阳</t>
+          <t>汕头</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1585,12 +1585,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>四川</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>齐齐哈尔</t>
+          <t>绵阳</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1607,12 +1607,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>云南</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>红河</t>
+          <t>衢州</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1629,12 +1629,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>镇江</t>
+          <t>漳州</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1651,12 +1651,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>广西</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>黄冈</t>
+          <t>桂林</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1673,12 +1673,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>四川</t>
+          <t>湖南</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>德阳</t>
+          <t>邵阳</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1695,12 +1695,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>孝感</t>
+          <t>台州</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1722,7 +1722,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>秦皇岛</t>
+          <t>廊坊</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1739,12 +1739,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>徐州</t>
+          <t>临沂</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1761,12 +1761,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>汕头</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -1783,12 +1783,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>四川</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>绵阳</t>
+          <t>长春</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -1805,12 +1805,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>衢州</t>
+          <t>包头</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -1827,12 +1827,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>漳州</t>
+          <t>中山</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -1849,12 +1849,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>湖南</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>邵阳</t>
+          <t>盐城</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -1871,12 +1871,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>无锡</t>
+          <t>烟台</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -1893,12 +1893,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>台州</t>
+          <t>南通</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -1915,12 +1915,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>广西</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>桂林</t>
+          <t>宜昌</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -1942,7 +1942,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>廊坊</t>
+          <t>唐山</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -1959,12 +1959,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>临沂</t>
+          <t>温州</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -1981,12 +1981,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>包头</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2003,12 +2003,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>盐城</t>
+          <t>大兴安岭</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2025,12 +2025,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>烟台</t>
+          <t>盘锦</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2047,12 +2047,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>中山</t>
+          <t>鸡西</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2069,12 +2069,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>南通</t>
+          <t>双鸭山</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2091,12 +2091,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>江西</t>
+          <t>云南</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>大理</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2113,12 +2113,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>宜昌</t>
+          <t>宁波</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2135,12 +2135,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>湖南</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>唐山</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2157,12 +2157,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>长春</t>
+          <t>洛阳</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2179,12 +2179,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>大兴安岭</t>
+          <t>佛山</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2201,12 +2201,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>宁夏</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>盘锦</t>
+          <t>银川</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2223,12 +2223,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>鸡西</t>
+          <t>东莞</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2245,12 +2245,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>云南</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>双鸭山</t>
+          <t>昆明</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2267,12 +2267,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>甘肃</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>兰州</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2289,12 +2289,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>呼和浩特</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2311,12 +2311,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>温州</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2333,12 +2333,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>云南</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>大理</t>
+          <t>沈阳</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2355,12 +2355,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>洛阳</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2377,12 +2377,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>陕西</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>宁波</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2399,12 +2399,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2421,12 +2421,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>佛山</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2443,12 +2443,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>宁夏</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>银川</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2460,259 +2460,259 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>移动</t>
+          <t>联通</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>东莞</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>移动</t>
+          <t>联通</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>甘肃</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>兰州</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>移动</t>
+          <t>联通</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>云南</t>
+          <t>陕西</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>昆明</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>移动</t>
+          <t>联通</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>湖南</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>福州</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>移动</t>
+          <t>联通</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>四川</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>移动</t>
+          <t>联通</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>安徽</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>呼和浩特</t>
+          <t>合肥</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>移动</t>
+          <t>联通</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>甘肃</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>兰州</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>移动</t>
+          <t>联通</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>沈阳</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>移动</t>
+          <t>联通</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>湖南</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>移动</t>
+          <t>联通</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>陕西</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>移动</t>
+          <t>联通</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>云南</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>昆明</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>移动</t>
+          <t>联通</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>广西</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>南宁</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -2724,17 +2724,17 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>移动</t>
+          <t>联通</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>江西</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -2746,17 +2746,17 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>移动</t>
+          <t>联通</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>济南</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -2773,17 +2773,17 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -2795,17 +2795,17 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>长春</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -2817,17 +2817,17 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>陕西</t>
+          <t>贵州</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>贵阳</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -2839,17 +2839,17 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>福州</t>
+          <t>沈阳</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -2861,17 +2861,17 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>哈尔滨</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -2883,17 +2883,17 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>安徽</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>合肥</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -2905,17 +2905,17 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>甘肃</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>兰州</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -2927,17 +2927,17 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>呼和浩特</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -2949,323 +2949,15 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>湖南</t>
+          <t>宁夏</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>银川</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
-        <is>
-          <t>足够</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>河南</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>郑州</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>足够</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>云南</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>昆明</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>足够</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>广西</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>南宁</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>江西</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>南昌</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>山东</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>济南</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>山西</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>太原</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>吉林</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>长春</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>贵州</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>贵阳</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>辽宁</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>沈阳</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>黑龙江</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>哈尔滨</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>海南</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>海南</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>福建</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>厦门</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>内蒙古</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>呼和浩特</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>宁夏</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>银川</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
         <is>
           <t>较多</t>
         </is>

--- a/data/sourse.xlsx
+++ b/data/sourse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D115"/>
+  <dimension ref="A1:D127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,12 +463,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>江西</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>上饶</t>
+          <t>潍坊</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,12 +485,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>十堰</t>
+          <t>泰安</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -507,12 +507,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>湖南</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>泉州</t>
+          <t>衡阳</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -529,12 +529,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>枣庄</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -551,17 +551,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>湖南</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>南平</t>
+          <t>岳阳</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -573,17 +573,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>丹东</t>
+          <t>恩施</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -595,17 +595,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>松原</t>
+          <t>南阳</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -617,17 +617,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>赤峰</t>
+          <t>日照</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -639,17 +639,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>本溪</t>
+          <t>济宁</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -661,17 +661,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>濮阳</t>
+          <t>十堰</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -683,12 +683,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>江西</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>大同</t>
+          <t>上饶</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>牡丹江</t>
+          <t>丹东</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -727,12 +727,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>朝阳</t>
+          <t>赤峰</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -749,12 +749,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>莱芜</t>
+          <t>松原</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -771,12 +771,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>沧州</t>
+          <t>本溪</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -798,7 +798,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>七台河</t>
+          <t>哈尔滨</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -815,12 +815,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>常州</t>
+          <t>七台河</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -837,12 +837,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>锦州</t>
+          <t>泉州</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -859,12 +859,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>绥化</t>
+          <t>朝阳</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -881,12 +881,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>商丘</t>
+          <t>牡丹江</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -903,12 +903,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>鞍山</t>
+          <t>濮阳</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -925,12 +925,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>大庆</t>
+          <t>莱芜</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -947,17 +947,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>葫芦岛</t>
+          <t>沧州</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -969,17 +969,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>黑河</t>
+          <t>锦州</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -991,17 +991,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>通辽</t>
+          <t>绥化</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -1013,17 +1013,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>邢台</t>
+          <t>大庆</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -1035,17 +1035,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>四平</t>
+          <t>商丘</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -1057,17 +1057,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>广西</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>柳州</t>
+          <t>葫芦岛</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -1079,12 +1079,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>平顶山</t>
+          <t>南平</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1101,12 +1101,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>白城</t>
+          <t>黑河</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1123,12 +1123,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>韶关</t>
+          <t>四平</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1145,12 +1145,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>佳木斯</t>
+          <t>通辽</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1167,12 +1167,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>长治</t>
+          <t>鞍山</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1189,12 +1189,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>淄博</t>
+          <t>大同</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1211,12 +1211,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>江西</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>邢台</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1238,7 +1238,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>通化</t>
+          <t>白城</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1255,12 +1255,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>肇庆</t>
+          <t>平顶山</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1277,12 +1277,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>淮安</t>
+          <t>佳木斯</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1299,12 +1299,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>晋中</t>
+          <t>韶关</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1321,12 +1321,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>安徽</t>
+          <t>广西</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>蚌埠</t>
+          <t>柳州</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1343,12 +1343,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>安阳</t>
+          <t>常州</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1365,12 +1365,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>齐齐哈尔</t>
+          <t>长治</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1387,12 +1387,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>云南</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>红河</t>
+          <t>通化</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1409,12 +1409,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>镇江</t>
+          <t>晋中</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1431,12 +1431,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>无锡</t>
+          <t>淄博</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1453,12 +1453,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>秦皇岛</t>
+          <t>淮安</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1475,12 +1475,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>四川</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>德阳</t>
+          <t>肇庆</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1497,12 +1497,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>安徽</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>黄冈</t>
+          <t>蚌埠</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1519,12 +1519,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>徐州</t>
+          <t>安阳</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1541,12 +1541,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>孝感</t>
+          <t>齐齐哈尔</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1563,12 +1563,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>云南</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>汕头</t>
+          <t>红河</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1585,12 +1585,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>四川</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>绵阳</t>
+          <t>镇江</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1607,12 +1607,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>衢州</t>
+          <t>黄冈</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1629,12 +1629,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>四川</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>漳州</t>
+          <t>德阳</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1651,12 +1651,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>广西</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>桂林</t>
+          <t>孝感</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1673,12 +1673,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>湖南</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>邵阳</t>
+          <t>秦皇岛</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1695,12 +1695,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>台州</t>
+          <t>徐州</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1717,12 +1717,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>廊坊</t>
+          <t>汕头</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1739,12 +1739,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>四川</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>临沂</t>
+          <t>绵阳</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1761,12 +1761,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>衢州</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -1783,12 +1783,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>长春</t>
+          <t>漳州</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -1805,12 +1805,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>湖南</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>包头</t>
+          <t>邵阳</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -1827,12 +1827,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>中山</t>
+          <t>无锡</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -1849,12 +1849,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>盐城</t>
+          <t>台州</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -1871,12 +1871,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>广西</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>烟台</t>
+          <t>桂林</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -1893,12 +1893,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>南通</t>
+          <t>长春</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -1915,12 +1915,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>宜昌</t>
+          <t>廊坊</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -1937,12 +1937,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>唐山</t>
+          <t>临沂</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -1959,12 +1959,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>温州</t>
+          <t>包头</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -1981,12 +1981,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>盐城</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2003,12 +2003,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>大兴安岭</t>
+          <t>烟台</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2025,12 +2025,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>盘锦</t>
+          <t>中山</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2047,12 +2047,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>鸡西</t>
+          <t>南通</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2069,12 +2069,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>江西</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>双鸭山</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2091,12 +2091,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>云南</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>大理</t>
+          <t>宜昌</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2113,12 +2113,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>宁波</t>
+          <t>唐山</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2135,12 +2135,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>湖南</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>大兴安岭</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2157,12 +2157,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>洛阳</t>
+          <t>盘锦</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2179,12 +2179,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>佛山</t>
+          <t>鸡西</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2201,12 +2201,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>宁夏</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>银川</t>
+          <t>双鸭山</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2223,12 +2223,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>东莞</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2245,12 +2245,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>云南</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>昆明</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2267,12 +2267,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>甘肃</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>兰州</t>
+          <t>温州</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2289,12 +2289,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>呼和浩特</t>
+          <t>宁波</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2311,12 +2311,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>云南</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>大理</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2333,12 +2333,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>宁夏</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>沈阳</t>
+          <t>银川</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2360,7 +2360,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>佛山</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2377,12 +2377,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>陕西</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>洛阳</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2399,12 +2399,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2421,12 +2421,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>东莞</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2443,12 +2443,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>甘肃</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>兰州</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2460,259 +2460,259 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>联通</t>
+          <t>移动</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>云南</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>昆明</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>联通</t>
+          <t>移动</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>湖南</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>联通</t>
+          <t>移动</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>陕西</t>
+          <t>四川</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>联通</t>
+          <t>移动</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>福州</t>
+          <t>呼和浩特</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>联通</t>
+          <t>移动</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>联通</t>
+          <t>移动</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>安徽</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>合肥</t>
+          <t>沈阳</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>联通</t>
+          <t>移动</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>甘肃</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>兰州</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>联通</t>
+          <t>移动</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>陕西</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>联通</t>
+          <t>移动</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>湖南</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>联通</t>
+          <t>移动</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>联通</t>
+          <t>移动</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>云南</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>昆明</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>联通</t>
+          <t>移动</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>广西</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>南宁</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -2729,17 +2729,17 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>江西</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -2751,17 +2751,17 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>济南</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -2773,17 +2773,17 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>陕西</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -2795,17 +2795,17 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>长春</t>
+          <t>福州</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -2817,17 +2817,17 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>贵州</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>贵阳</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -2839,17 +2839,17 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>安徽</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>沈阳</t>
+          <t>合肥</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -2861,17 +2861,17 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>甘肃</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>哈尔滨</t>
+          <t>兰州</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -2883,17 +2883,17 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -2905,17 +2905,17 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>湖南</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -2927,17 +2927,17 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>呼和浩特</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -2949,15 +2949,279 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
+          <t>云南</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>昆明</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>足够</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>广西</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>南宁</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>江西</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>南昌</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>山东</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>济南</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>山西</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>太原</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>吉林</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>长春</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>贵州</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>贵阳</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>辽宁</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>沈阳</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>黑龙江</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>哈尔滨</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>海南</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>海南</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>福建</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>厦门</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>内蒙古</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>呼和浩特</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
           <t>宁夏</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
+      <c r="C127" t="inlineStr">
         <is>
           <t>银川</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
+      <c r="D127" t="inlineStr">
         <is>
           <t>较多</t>
         </is>

--- a/data/sourse.xlsx
+++ b/data/sourse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D127"/>
+  <dimension ref="A1:D114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,12 +463,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>江西</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>潍坊</t>
+          <t>上饶</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,12 +485,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>泰安</t>
+          <t>十堰</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -507,12 +507,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>湖南</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>衡阳</t>
+          <t>泉州</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -529,12 +529,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>枣庄</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -551,17 +551,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>湖南</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>岳阳</t>
+          <t>南平</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -573,17 +573,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>恩施</t>
+          <t>丹东</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -595,17 +595,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>南阳</t>
+          <t>松原</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -617,17 +617,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>日照</t>
+          <t>赤峰</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -639,17 +639,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>济宁</t>
+          <t>本溪</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -661,17 +661,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>十堰</t>
+          <t>濮阳</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -683,12 +683,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>江西</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>上饶</t>
+          <t>大同</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>丹东</t>
+          <t>牡丹江</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -727,12 +727,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>赤峰</t>
+          <t>朝阳</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -749,12 +749,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>松原</t>
+          <t>莱芜</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -771,12 +771,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>本溪</t>
+          <t>沧州</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -798,7 +798,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>哈尔滨</t>
+          <t>七台河</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -815,12 +815,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>七台河</t>
+          <t>常州</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -837,12 +837,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>泉州</t>
+          <t>锦州</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -859,12 +859,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>朝阳</t>
+          <t>绥化</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -881,12 +881,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>牡丹江</t>
+          <t>商丘</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -903,12 +903,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>濮阳</t>
+          <t>鞍山</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -925,12 +925,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>莱芜</t>
+          <t>大庆</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -947,17 +947,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>沧州</t>
+          <t>葫芦岛</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -969,17 +969,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>锦州</t>
+          <t>黑河</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -991,17 +991,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>绥化</t>
+          <t>通辽</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -1013,17 +1013,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>大庆</t>
+          <t>邢台</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -1035,17 +1035,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>商丘</t>
+          <t>四平</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -1057,17 +1057,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>广西</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>葫芦岛</t>
+          <t>柳州</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -1079,12 +1079,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>南平</t>
+          <t>平顶山</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1101,12 +1101,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>黑河</t>
+          <t>白城</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1123,12 +1123,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>四平</t>
+          <t>韶关</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1145,12 +1145,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>通辽</t>
+          <t>佳木斯</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1167,12 +1167,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>鞍山</t>
+          <t>长治</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1189,12 +1189,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>大同</t>
+          <t>淄博</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1211,12 +1211,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>江西</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>邢台</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1238,7 +1238,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>白城</t>
+          <t>通化</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1255,12 +1255,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>平顶山</t>
+          <t>肇庆</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1277,12 +1277,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>佳木斯</t>
+          <t>淮安</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1299,12 +1299,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>韶关</t>
+          <t>晋中</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1321,12 +1321,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>广西</t>
+          <t>安徽</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>柳州</t>
+          <t>蚌埠</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1343,12 +1343,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>常州</t>
+          <t>安阳</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1365,12 +1365,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>长治</t>
+          <t>齐齐哈尔</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1387,12 +1387,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>云南</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>通化</t>
+          <t>红河</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1409,12 +1409,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>晋中</t>
+          <t>镇江</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1431,12 +1431,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>淄博</t>
+          <t>无锡</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1453,12 +1453,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>淮安</t>
+          <t>秦皇岛</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1475,12 +1475,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>四川</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>肇庆</t>
+          <t>德阳</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1497,12 +1497,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>安徽</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>蚌埠</t>
+          <t>黄冈</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1519,12 +1519,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>安阳</t>
+          <t>徐州</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1541,12 +1541,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>齐齐哈尔</t>
+          <t>孝感</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1563,12 +1563,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>云南</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>红河</t>
+          <t>汕头</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1585,12 +1585,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>四川</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>镇江</t>
+          <t>绵阳</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1607,12 +1607,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>黄冈</t>
+          <t>衢州</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1629,12 +1629,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>四川</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>德阳</t>
+          <t>漳州</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1651,12 +1651,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>广西</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>孝感</t>
+          <t>桂林</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1673,12 +1673,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>湖南</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>秦皇岛</t>
+          <t>邵阳</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1695,12 +1695,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>徐州</t>
+          <t>台州</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1717,12 +1717,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>汕头</t>
+          <t>廊坊</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1739,12 +1739,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>四川</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>绵阳</t>
+          <t>临沂</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1761,12 +1761,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>衢州</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -1783,12 +1783,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>漳州</t>
+          <t>长春</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -1805,12 +1805,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>湖南</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>邵阳</t>
+          <t>包头</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -1827,12 +1827,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>无锡</t>
+          <t>中山</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -1849,12 +1849,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>台州</t>
+          <t>盐城</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -1871,12 +1871,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>广西</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>桂林</t>
+          <t>烟台</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -1893,12 +1893,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>长春</t>
+          <t>南通</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -1915,12 +1915,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>廊坊</t>
+          <t>宜昌</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -1937,12 +1937,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>临沂</t>
+          <t>唐山</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -1959,12 +1959,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>包头</t>
+          <t>温州</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -1981,12 +1981,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>盐城</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2003,12 +2003,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>烟台</t>
+          <t>大兴安岭</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2025,12 +2025,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>中山</t>
+          <t>盘锦</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2047,12 +2047,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>南通</t>
+          <t>鸡西</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2069,12 +2069,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>江西</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>双鸭山</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2091,12 +2091,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>云南</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>宜昌</t>
+          <t>大理</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2113,12 +2113,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>唐山</t>
+          <t>宁波</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2135,12 +2135,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>湖南</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>大兴安岭</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2157,12 +2157,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>盘锦</t>
+          <t>洛阳</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2179,12 +2179,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>鸡西</t>
+          <t>佛山</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2201,12 +2201,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>宁夏</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>双鸭山</t>
+          <t>银川</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2223,12 +2223,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>东莞</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2245,12 +2245,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>云南</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>昆明</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2267,12 +2267,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>甘肃</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>温州</t>
+          <t>兰州</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2289,12 +2289,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>宁波</t>
+          <t>呼和浩特</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2311,12 +2311,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>云南</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>大理</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2333,12 +2333,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>宁夏</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>银川</t>
+          <t>沈阳</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2360,7 +2360,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>佛山</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2377,12 +2377,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>陕西</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>洛阳</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2399,12 +2399,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2421,12 +2421,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>东莞</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2443,12 +2443,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>甘肃</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>兰州</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2460,237 +2460,237 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>移动</t>
+          <t>联通</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>云南</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>昆明</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>移动</t>
+          <t>联通</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>湖南</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>移动</t>
+          <t>联通</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>四川</t>
+          <t>陕西</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>移动</t>
+          <t>联通</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>呼和浩特</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>移动</t>
+          <t>联通</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>福州</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>移动</t>
+          <t>联通</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>安徽</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>沈阳</t>
+          <t>合肥</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>移动</t>
+          <t>联通</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>甘肃</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>兰州</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>移动</t>
+          <t>联通</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>陕西</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>移动</t>
+          <t>联通</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>云南</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>昆明</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>移动</t>
+          <t>联通</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>湖南</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>移动</t>
+          <t>联通</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>长春</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -2702,17 +2702,17 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>移动</t>
+          <t>联通</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>广西</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>南宁</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -2729,17 +2729,17 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>江西</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -2751,17 +2751,17 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>济南</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -2773,17 +2773,17 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>陕西</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -2795,17 +2795,17 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>贵州</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>福州</t>
+          <t>贵阳</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -2817,17 +2817,17 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>沈阳</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -2839,17 +2839,17 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>安徽</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>合肥</t>
+          <t>哈尔滨</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -2861,17 +2861,17 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>甘肃</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>兰州</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -2883,17 +2883,17 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -2905,17 +2905,17 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>湖南</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>呼和浩特</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -2927,301 +2927,15 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>宁夏</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>银川</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
-        <is>
-          <t>足够</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>云南</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>昆明</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>足够</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>广西</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>南宁</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>江西</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>南昌</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>山东</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>济南</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>山西</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>太原</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>吉林</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>长春</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>贵州</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>贵阳</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>辽宁</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>沈阳</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>黑龙江</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>哈尔滨</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>海南</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>海南</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>福建</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>厦门</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>内蒙古</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>呼和浩特</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>宁夏</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>银川</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
         <is>
           <t>较多</t>
         </is>

--- a/data/sourse.xlsx
+++ b/data/sourse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D114"/>
+  <dimension ref="A1:D113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2487,12 +2487,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>陕西</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2509,12 +2509,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>陕西</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2531,12 +2531,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>福州</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2553,12 +2553,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>安徽</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>福州</t>
+          <t>合肥</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2575,12 +2575,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>安徽</t>
+          <t>甘肃</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>合肥</t>
+          <t>兰州</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -2597,12 +2597,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>甘肃</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>兰州</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -2619,12 +2619,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>云南</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>昆明</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -2641,17 +2641,17 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>云南</t>
+          <t>湖南</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>昆明</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -2663,17 +2663,17 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>湖南</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>长春</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -2685,12 +2685,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>广西</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>长春</t>
+          <t>南宁</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -2707,12 +2707,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>广西</t>
+          <t>江西</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>南宁</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -2729,12 +2729,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>江西</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>济南</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -2751,12 +2751,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>济南</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -2773,12 +2773,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>贵州</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>贵阳</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -2795,12 +2795,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>贵州</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>贵阳</t>
+          <t>沈阳</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -2817,12 +2817,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>沈阳</t>
+          <t>哈尔滨</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -2839,12 +2839,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>哈尔滨</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -2861,12 +2861,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -2883,12 +2883,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>呼和浩特</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -2905,37 +2905,15 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>宁夏</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>呼和浩特</t>
+          <t>银川</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>宁夏</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>银川</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
         <is>
           <t>较多</t>
         </is>

--- a/data/sourse.xlsx
+++ b/data/sourse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D113"/>
+  <dimension ref="A1:D111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2465,12 +2465,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2487,12 +2487,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>陕西</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>福州</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2509,12 +2509,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>郑州</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2531,12 +2531,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>安徽</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>福州</t>
+          <t>合肥</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2553,12 +2553,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>安徽</t>
+          <t>云南</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>合肥</t>
+          <t>昆明</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2597,17 +2597,17 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>湖南</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -2619,17 +2619,17 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>云南</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>昆明</t>
+          <t>长春</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -2641,17 +2641,17 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>湖南</t>
+          <t>江西</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -2663,12 +2663,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>长春</t>
+          <t>济南</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -2707,12 +2707,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>江西</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -2729,12 +2729,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>贵州</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>济南</t>
+          <t>贵阳</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -2751,12 +2751,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -2773,12 +2773,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>贵州</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>贵阳</t>
+          <t>沈阳</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -2795,12 +2795,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>沈阳</t>
+          <t>哈尔滨</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -2817,12 +2817,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>哈尔滨</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -2839,12 +2839,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>呼和浩特</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -2861,59 +2861,15 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>宁夏</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>银川</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>内蒙古</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>呼和浩特</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>宁夏</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>银川</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
         <is>
           <t>较多</t>
         </is>

--- a/data/sourse.xlsx
+++ b/data/sourse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D111"/>
+  <dimension ref="A1:D110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,12 +463,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>江西</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>上饶</t>
+          <t>福州</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,12 +485,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>江西</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>十堰</t>
+          <t>上饶</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -507,12 +507,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>泉州</t>
+          <t>十堰</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -529,12 +529,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>泉州</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -551,17 +551,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>南平</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -573,12 +573,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>丹东</t>
+          <t>南平</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -595,12 +595,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>松原</t>
+          <t>丹东</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -617,12 +617,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>赤峰</t>
+          <t>松原</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -639,12 +639,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>本溪</t>
+          <t>赤峰</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -661,12 +661,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>濮阳</t>
+          <t>本溪</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -683,12 +683,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>大同</t>
+          <t>南京</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>牡丹江</t>
+          <t>濮阳</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -727,12 +727,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>朝阳</t>
+          <t>大同</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -749,12 +749,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>莱芜</t>
+          <t>牡丹江</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -771,12 +771,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>沧州</t>
+          <t>朝阳</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -793,12 +793,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>七台河</t>
+          <t>莱芜</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -815,12 +815,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>常州</t>
+          <t>沧州</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -837,12 +837,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>锦州</t>
+          <t>七台河</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -859,12 +859,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>绥化</t>
+          <t>常州</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -881,12 +881,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>商丘</t>
+          <t>锦州</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -903,12 +903,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>鞍山</t>
+          <t>绥化</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -925,12 +925,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>大庆</t>
+          <t>商丘</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>葫芦岛</t>
+          <t>鞍山</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -974,7 +974,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>黑河</t>
+          <t>大庆</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -991,12 +991,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>通辽</t>
+          <t>葫芦岛</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1013,12 +1013,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>邢台</t>
+          <t>黑河</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1035,12 +1035,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>四平</t>
+          <t>通辽</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1057,12 +1057,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>广西</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>柳州</t>
+          <t>邢台</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1079,17 +1079,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>平顶山</t>
+          <t>四平</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -1101,17 +1101,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>广西</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>白城</t>
+          <t>柳州</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -1123,12 +1123,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>韶关</t>
+          <t>平顶山</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1145,12 +1145,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>佳木斯</t>
+          <t>白城</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1167,12 +1167,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>长治</t>
+          <t>韶关</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1189,12 +1189,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>淄博</t>
+          <t>佳木斯</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1211,12 +1211,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>江西</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>长治</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1233,12 +1233,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>通化</t>
+          <t>淄博</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1255,12 +1255,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>江西</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>肇庆</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1277,12 +1277,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>淮安</t>
+          <t>通化</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1299,12 +1299,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>晋中</t>
+          <t>肇庆</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1321,12 +1321,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>安徽</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>蚌埠</t>
+          <t>淮安</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1343,12 +1343,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>安阳</t>
+          <t>晋中</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1365,12 +1365,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>安徽</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>齐齐哈尔</t>
+          <t>蚌埠</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1387,12 +1387,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>云南</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>红河</t>
+          <t>安阳</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1409,12 +1409,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>镇江</t>
+          <t>齐齐哈尔</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1431,12 +1431,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>云南</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>无锡</t>
+          <t>红河</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1453,12 +1453,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>秦皇岛</t>
+          <t>镇江</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1475,12 +1475,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>四川</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>德阳</t>
+          <t>无锡</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1497,12 +1497,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>黄冈</t>
+          <t>秦皇岛</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1519,12 +1519,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>四川</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>徐州</t>
+          <t>德阳</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1546,7 +1546,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>孝感</t>
+          <t>黄冈</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1563,12 +1563,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>汕头</t>
+          <t>徐州</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1585,12 +1585,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>四川</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>绵阳</t>
+          <t>孝感</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1607,12 +1607,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>衢州</t>
+          <t>汕头</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1629,12 +1629,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>四川</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>漳州</t>
+          <t>绵阳</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1651,12 +1651,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>广西</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>桂林</t>
+          <t>衢州</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1673,12 +1673,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>湖南</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>邵阳</t>
+          <t>漳州</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1695,12 +1695,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>广西</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>台州</t>
+          <t>桂林</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1717,12 +1717,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>湖南</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>廊坊</t>
+          <t>邵阳</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1739,12 +1739,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>临沂</t>
+          <t>台州</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1761,12 +1761,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>廊坊</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -1783,12 +1783,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>长春</t>
+          <t>临沂</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -1805,12 +1805,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>包头</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -1827,12 +1827,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>贵州</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>中山</t>
+          <t>贵阳</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -1849,12 +1849,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>盐城</t>
+          <t>长春</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -1871,12 +1871,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>烟台</t>
+          <t>包头</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -1893,12 +1893,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>南通</t>
+          <t>中山</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -1915,12 +1915,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>宜昌</t>
+          <t>盐城</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -1937,12 +1937,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>唐山</t>
+          <t>烟台</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -1959,12 +1959,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>温州</t>
+          <t>南通</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -1981,12 +1981,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>宜昌</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2003,12 +2003,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>大兴安岭</t>
+          <t>唐山</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2025,12 +2025,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>盘锦</t>
+          <t>温州</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2047,12 +2047,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>鸡西</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>双鸭山</t>
+          <t>大兴安岭</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2091,12 +2091,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>云南</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>大理</t>
+          <t>盘锦</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2113,12 +2113,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>宁波</t>
+          <t>鸡西</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2135,12 +2135,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>湖南</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>双鸭山</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2157,12 +2157,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>云南</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>洛阳</t>
+          <t>大理</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2179,12 +2179,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>佛山</t>
+          <t>宁波</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2201,12 +2201,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>宁夏</t>
+          <t>湖南</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>银川</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2223,12 +2223,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>东莞</t>
+          <t>洛阳</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2245,12 +2245,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>云南</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>昆明</t>
+          <t>佛山</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2267,12 +2267,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>甘肃</t>
+          <t>宁夏</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>兰州</t>
+          <t>银川</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2289,12 +2289,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>呼和浩特</t>
+          <t>东莞</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2311,12 +2311,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>云南</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>昆明</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2333,12 +2333,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>四川</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>沈阳</t>
+          <t>成都</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2355,12 +2355,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>甘肃</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>兰州</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2377,12 +2377,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>陕西</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>广州</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2399,12 +2399,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>呼和浩特</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2421,12 +2421,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2443,12 +2443,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>沈阳</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2460,132 +2460,132 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>联通</t>
+          <t>移动</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>联通</t>
+          <t>移动</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>陕西</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>福州</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>联通</t>
+          <t>移动</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>郑州</t>
+          <t>杭州</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>联通</t>
+          <t>移动</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>安徽</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>合肥</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>联通</t>
+          <t>移动</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>云南</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>昆明</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>联通</t>
+          <t>移动</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>甘肃</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>兰州</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -2597,17 +2597,17 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>湖南</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>济南</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -2629,7 +2629,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -2651,7 +2651,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -2663,17 +2663,17 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>广西</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>济南</t>
+          <t>南宁</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -2685,17 +2685,17 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>广西</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>南宁</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -2707,17 +2707,17 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>贵州</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>贵阳</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -2729,17 +2729,17 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>贵州</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>贵阳</t>
+          <t>沈阳</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -2761,7 +2761,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -2773,12 +2773,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>沈阳</t>
+          <t>哈尔滨</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -2795,12 +2795,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>哈尔滨</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -2817,12 +2817,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>呼和浩特</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -2839,37 +2839,15 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>宁夏</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>呼和浩特</t>
+          <t>银川</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>宁夏</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>银川</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
         <is>
           <t>较多</t>
         </is>

--- a/data/sourse.xlsx
+++ b/data/sourse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D110"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,12 +463,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>江西</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>福州</t>
+          <t>上饶</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,12 +485,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>江西</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>上饶</t>
+          <t>泉州</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -529,12 +529,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>泉州</t>
+          <t>上海</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -551,17 +551,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>南平</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -573,12 +573,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>南平</t>
+          <t>丹东</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -595,12 +595,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>丹东</t>
+          <t>松原</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -617,12 +617,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>松原</t>
+          <t>赤峰</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -639,12 +639,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>赤峰</t>
+          <t>本溪</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -661,12 +661,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>本溪</t>
+          <t>濮阳</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -683,12 +683,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>南京</t>
+          <t>大同</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>濮阳</t>
+          <t>牡丹江</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -727,12 +727,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>大同</t>
+          <t>朝阳</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -749,12 +749,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>牡丹江</t>
+          <t>莱芜</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -771,12 +771,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>朝阳</t>
+          <t>沧州</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -793,12 +793,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>莱芜</t>
+          <t>七台河</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -815,12 +815,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>沧州</t>
+          <t>常州</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -837,12 +837,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>七台河</t>
+          <t>锦州</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -859,12 +859,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>常州</t>
+          <t>绥化</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -881,12 +881,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>锦州</t>
+          <t>商丘</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -903,12 +903,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>绥化</t>
+          <t>鞍山</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -925,12 +925,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>商丘</t>
+          <t>大庆</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>鞍山</t>
+          <t>葫芦岛</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -974,7 +974,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>大庆</t>
+          <t>黑河</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -991,12 +991,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>葫芦岛</t>
+          <t>通辽</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1013,12 +1013,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>黑河</t>
+          <t>邢台</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1035,12 +1035,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>通辽</t>
+          <t>四平</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1057,12 +1057,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>广西</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>邢台</t>
+          <t>柳州</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1079,17 +1079,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>四平</t>
+          <t>平顶山</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -1101,17 +1101,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>广西</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>柳州</t>
+          <t>白城</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -1123,12 +1123,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>平顶山</t>
+          <t>韶关</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1145,12 +1145,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>白城</t>
+          <t>佳木斯</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1167,12 +1167,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>韶关</t>
+          <t>淄博</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1189,12 +1189,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>佳木斯</t>
+          <t>长治</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1211,12 +1211,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>江西</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>长治</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1233,12 +1233,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>淄博</t>
+          <t>通化</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1255,12 +1255,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>江西</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>肇庆</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1277,12 +1277,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>通化</t>
+          <t>淮安</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1299,12 +1299,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>肇庆</t>
+          <t>晋中</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1321,12 +1321,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>安徽</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>淮安</t>
+          <t>蚌埠</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1343,12 +1343,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>晋中</t>
+          <t>安阳</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1365,12 +1365,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>安徽</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>蚌埠</t>
+          <t>齐齐哈尔</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1387,12 +1387,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>云南</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>安阳</t>
+          <t>红河</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1409,12 +1409,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>齐齐哈尔</t>
+          <t>镇江</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1431,12 +1431,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>云南</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>红河</t>
+          <t>无锡</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1453,12 +1453,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>镇江</t>
+          <t>秦皇岛</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1475,12 +1475,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>四川</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>无锡</t>
+          <t>德阳</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1497,12 +1497,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>秦皇岛</t>
+          <t>黄冈</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1519,12 +1519,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>四川</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>德阳</t>
+          <t>徐州</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1546,7 +1546,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>黄冈</t>
+          <t>孝感</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1563,12 +1563,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>徐州</t>
+          <t>汕头</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1585,12 +1585,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>四川</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>孝感</t>
+          <t>绵阳</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1607,12 +1607,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>汕头</t>
+          <t>衢州</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1629,12 +1629,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>四川</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>绵阳</t>
+          <t>漳州</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1651,12 +1651,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>广西</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>衢州</t>
+          <t>桂林</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1673,12 +1673,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>湖南</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>漳州</t>
+          <t>邵阳</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1695,12 +1695,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>广西</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>桂林</t>
+          <t>台州</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1717,12 +1717,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>湖南</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>邵阳</t>
+          <t>廊坊</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1739,12 +1739,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>台州</t>
+          <t>临沂</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1761,12 +1761,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>廊坊</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -1783,12 +1783,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>临沂</t>
+          <t>长春</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -1805,12 +1805,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>包头</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -1827,12 +1827,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>贵州</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>贵阳</t>
+          <t>中山</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -1849,12 +1849,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>长春</t>
+          <t>盐城</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -1871,12 +1871,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>包头</t>
+          <t>烟台</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -1893,12 +1893,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>中山</t>
+          <t>南通</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -1915,12 +1915,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>盐城</t>
+          <t>宜昌</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -1937,12 +1937,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>烟台</t>
+          <t>唐山</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -1959,12 +1959,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>南通</t>
+          <t>温州</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -1981,12 +1981,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>宜昌</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2003,12 +2003,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>唐山</t>
+          <t>大兴安岭</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2025,12 +2025,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>温州</t>
+          <t>盘锦</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2047,12 +2047,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>鸡西</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>大兴安岭</t>
+          <t>双鸭山</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2091,12 +2091,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>云南</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>盘锦</t>
+          <t>大理</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2113,12 +2113,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>鸡西</t>
+          <t>宁波</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2135,12 +2135,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>湖南</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>双鸭山</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2157,12 +2157,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>云南</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>大理</t>
+          <t>洛阳</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2179,12 +2179,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>宁波</t>
+          <t>佛山</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2201,12 +2201,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>湖南</t>
+          <t>宁夏</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>银川</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2223,12 +2223,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>洛阳</t>
+          <t>东莞</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2245,12 +2245,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>云南</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>佛山</t>
+          <t>昆明</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2267,12 +2267,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>宁夏</t>
+          <t>甘肃</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>银川</t>
+          <t>兰州</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2289,12 +2289,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>东莞</t>
+          <t>呼和浩特</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2311,12 +2311,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>云南</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>昆明</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2333,12 +2333,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>四川</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>成都</t>
+          <t>沈阳</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2355,12 +2355,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>甘肃</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>兰州</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2377,12 +2377,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>陕西</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>广州</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2399,12 +2399,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>呼和浩特</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2421,12 +2421,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2443,12 +2443,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>沈阳</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2460,132 +2460,132 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>移动</t>
+          <t>联通</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>长春</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>移动</t>
+          <t>联通</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>陕西</t>
+          <t>江西</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>移动</t>
+          <t>联通</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>杭州</t>
+          <t>济南</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>移动</t>
+          <t>联通</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>广西</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>南宁</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>移动</t>
+          <t>联通</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>移动</t>
+          <t>联通</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>贵州</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>贵阳</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -2597,17 +2597,17 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>济南</t>
+          <t>沈阳</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -2619,17 +2619,17 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>长春</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -2641,17 +2641,17 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>江西</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -2663,17 +2663,17 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>广西</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>南宁</t>
+          <t>哈尔滨</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -2685,17 +2685,17 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>呼和浩特</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -2707,147 +2707,15 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>贵州</t>
+          <t>宁夏</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>贵阳</t>
+          <t>银川</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
-        <is>
-          <t>较少</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>辽宁</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>沈阳</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>足够</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>福建</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>厦门</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>足够</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>黑龙江</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>哈尔滨</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>海南</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>海南</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>内蒙古</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>呼和浩特</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>宁夏</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>银川</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
         <is>
           <t>较多</t>
         </is>

--- a/data/sourse.xlsx
+++ b/data/sourse.xlsx
@@ -2465,12 +2465,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>长春</t>
+          <t>济南</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2487,17 +2487,17 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>江西</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>长春</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -2509,17 +2509,17 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>江西</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>济南</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -2541,7 +2541,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -2563,7 +2563,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -2585,7 +2585,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -2607,7 +2607,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -2629,7 +2629,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -2641,12 +2641,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>哈尔滨</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -2663,12 +2663,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>哈尔滨</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">

--- a/data/sourse.xlsx
+++ b/data/sourse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,12 +463,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>江西</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>上饶</t>
+          <t>十堰</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,12 +485,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>泉州</t>
+          <t>邢台</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -507,12 +507,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>十堰</t>
+          <t>大同</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -529,17 +529,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>上海</t>
+          <t>南平</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -551,12 +551,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>南平</t>
+          <t>丹东</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -573,12 +573,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>丹东</t>
+          <t>沧州</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -661,12 +661,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>濮阳</t>
+          <t>锦州</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -683,12 +683,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>大同</t>
+          <t>濮阳</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -749,12 +749,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>江西</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>莱芜</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -771,12 +771,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>沧州</t>
+          <t>莱芜</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -793,12 +793,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>七台河</t>
+          <t>常州</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -815,12 +815,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>常州</t>
+          <t>七台河</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -837,12 +837,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>锦州</t>
+          <t>商丘</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -881,12 +881,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>商丘</t>
+          <t>鞍山</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -903,12 +903,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>鞍山</t>
+          <t>大庆</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -925,12 +925,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>大庆</t>
+          <t>平顶山</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -969,12 +969,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>黑河</t>
+          <t>通辽</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -991,12 +991,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>通辽</t>
+          <t>黑河</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1013,12 +1013,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>广西</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>邢台</t>
+          <t>柳州</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1057,17 +1057,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>广西</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>柳州</t>
+          <t>白城</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -1079,12 +1079,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>平顶山</t>
+          <t>淄博</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1101,12 +1101,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>白城</t>
+          <t>韶关</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1123,12 +1123,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>韶关</t>
+          <t>佳木斯</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1145,12 +1145,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>佳木斯</t>
+          <t>淮安</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1167,12 +1167,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>淄博</t>
+          <t>长治</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1189,12 +1189,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>长治</t>
+          <t>肇庆</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1211,12 +1211,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>江西</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>通化</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1233,12 +1233,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>通化</t>
+          <t>晋中</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1255,12 +1255,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>安徽</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>肇庆</t>
+          <t>蚌埠</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1277,12 +1277,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>淮安</t>
+          <t>安阳</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1299,12 +1299,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>晋中</t>
+          <t>徐州</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1321,12 +1321,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>安徽</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>蚌埠</t>
+          <t>无锡</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1343,12 +1343,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>安阳</t>
+          <t>齐齐哈尔</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1365,12 +1365,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>云南</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>齐齐哈尔</t>
+          <t>红河</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1387,12 +1387,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>云南</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>红河</t>
+          <t>镇江</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1409,12 +1409,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>镇江</t>
+          <t>台州</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1431,12 +1431,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>四川</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>无锡</t>
+          <t>德阳</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1453,12 +1453,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>秦皇岛</t>
+          <t>黄冈</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1475,12 +1475,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>四川</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>德阳</t>
+          <t>秦皇岛</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1497,12 +1497,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>黄冈</t>
+          <t>汕头</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1519,12 +1519,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>徐州</t>
+          <t>孝感</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1541,12 +1541,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>孝感</t>
+          <t>漳州</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1563,12 +1563,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>四川</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>汕头</t>
+          <t>绵阳</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1585,12 +1585,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>四川</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>绵阳</t>
+          <t>衢州</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1607,12 +1607,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>广西</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>衢州</t>
+          <t>桂林</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1629,12 +1629,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>湖南</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>漳州</t>
+          <t>邵阳</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1651,12 +1651,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>广西</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>桂林</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1673,12 +1673,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>湖南</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>邵阳</t>
+          <t>临沂</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1695,12 +1695,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>台州</t>
+          <t>廊坊</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1717,12 +1717,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>廊坊</t>
+          <t>长春</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1739,12 +1739,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>临沂</t>
+          <t>包头</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1761,12 +1761,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>盐城</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -1783,12 +1783,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>长春</t>
+          <t>中山</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -1805,12 +1805,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>包头</t>
+          <t>烟台</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -1827,12 +1827,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>中山</t>
+          <t>南通</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -1849,12 +1849,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>盐城</t>
+          <t>唐山</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -1871,12 +1871,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>烟台</t>
+          <t>宁波</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -1893,12 +1893,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>南通</t>
+          <t>宜昌</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -1915,12 +1915,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>宜昌</t>
+          <t>温州</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -1937,12 +1937,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>唐山</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -1959,12 +1959,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>温州</t>
+          <t>大兴安岭</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -1986,7 +1986,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>盘锦</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>大兴安岭</t>
+          <t>双鸭山</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2025,12 +2025,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>盘锦</t>
+          <t>鸡西</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2047,12 +2047,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>云南</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>鸡西</t>
+          <t>大理</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2069,12 +2069,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>湖南</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>双鸭山</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2091,12 +2091,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>云南</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>大理</t>
+          <t>洛阳</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2113,12 +2113,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>宁波</t>
+          <t>东莞</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2135,12 +2135,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>湖南</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>佛山</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2157,12 +2157,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>云南</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>洛阳</t>
+          <t>昆明</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2179,12 +2179,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>宁夏</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>佛山</t>
+          <t>银川</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2201,12 +2201,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>宁夏</t>
+          <t>甘肃</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>银川</t>
+          <t>兰州</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2223,12 +2223,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>东莞</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2245,12 +2245,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>云南</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>昆明</t>
+          <t>呼和浩特</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2267,12 +2267,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>甘肃</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>兰州</t>
+          <t>沈阳</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2289,12 +2289,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>陕西</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>呼和浩特</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2311,12 +2311,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2333,12 +2333,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>沈阳</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2355,12 +2355,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2377,12 +2377,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>陕西</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2394,66 +2394,66 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>移动</t>
+          <t>联通</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>济南</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>移动</t>
+          <t>联通</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>江西</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>移动</t>
+          <t>联通</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>长春</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -2465,12 +2465,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>广西</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>济南</t>
+          <t>南宁</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2487,12 +2487,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>长春</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2509,12 +2509,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>江西</t>
+          <t>贵州</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>贵阳</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2531,17 +2531,17 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>广西</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>南宁</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -2553,17 +2553,17 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>沈阳</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -2575,17 +2575,17 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>贵州</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>贵阳</t>
+          <t>哈尔滨</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -2597,17 +2597,17 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>沈阳</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -2619,17 +2619,17 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>呼和浩特</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -2641,81 +2641,15 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>宁夏</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>哈尔滨</t>
+          <t>银川</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>海南</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>海南</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>内蒙古</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>呼和浩特</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>宁夏</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>银川</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
         <is>
           <t>较多</t>
         </is>

--- a/data/sourse.xlsx
+++ b/data/sourse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,12 +463,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>十堰</t>
+          <t>福州</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,12 +485,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>江西</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>邢台</t>
+          <t>上饶</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -507,12 +507,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>大同</t>
+          <t>泉州</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -529,17 +529,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>南平</t>
+          <t>十堰</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -551,17 +551,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>丹东</t>
+          <t>邢台</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -573,12 +573,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>沧州</t>
+          <t>南平</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -595,12 +595,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>松原</t>
+          <t>丹东</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -617,12 +617,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>赤峰</t>
+          <t>大同</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -639,12 +639,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>本溪</t>
+          <t>松原</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -661,12 +661,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>锦州</t>
+          <t>赤峰</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -683,12 +683,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>濮阳</t>
+          <t>本溪</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>牡丹江</t>
+          <t>锦州</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -727,12 +727,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>朝阳</t>
+          <t>濮阳</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -749,12 +749,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>江西</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>牡丹江</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -771,12 +771,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>莱芜</t>
+          <t>朝阳</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -793,12 +793,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>常州</t>
+          <t>莱芜</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -815,12 +815,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>七台河</t>
+          <t>沧州</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -837,12 +837,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>商丘</t>
+          <t>七台河</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -859,12 +859,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>绥化</t>
+          <t>常州</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -881,12 +881,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>鞍山</t>
+          <t>绥化</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -903,12 +903,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>大庆</t>
+          <t>商丘</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -925,12 +925,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>平顶山</t>
+          <t>鞍山</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -947,12 +947,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>葫芦岛</t>
+          <t>大庆</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -969,12 +969,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>通辽</t>
+          <t>葫芦岛</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1013,12 +1013,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>广西</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>柳州</t>
+          <t>通辽</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1035,12 +1035,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>广西</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>四平</t>
+          <t>柳州</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1062,12 +1062,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>白城</t>
+          <t>四平</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -1079,12 +1079,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>淄博</t>
+          <t>平顶山</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1101,12 +1101,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>韶关</t>
+          <t>白城</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1123,12 +1123,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>佳木斯</t>
+          <t>韶关</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1145,12 +1145,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>淮安</t>
+          <t>佳木斯</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1167,12 +1167,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>长治</t>
+          <t>淄博</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1189,12 +1189,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>江西</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>肇庆</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1211,12 +1211,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>通化</t>
+          <t>长治</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1233,12 +1233,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>晋中</t>
+          <t>通化</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1255,12 +1255,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>安徽</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>蚌埠</t>
+          <t>肇庆</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1277,12 +1277,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>安阳</t>
+          <t>淮安</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1299,12 +1299,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>徐州</t>
+          <t>晋中</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1321,12 +1321,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>安徽</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>无锡</t>
+          <t>蚌埠</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1343,12 +1343,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>齐齐哈尔</t>
+          <t>安阳</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1365,12 +1365,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>云南</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>红河</t>
+          <t>齐齐哈尔</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1387,12 +1387,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>云南</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>镇江</t>
+          <t>红河</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1409,12 +1409,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>台州</t>
+          <t>镇江</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1453,12 +1453,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>黄冈</t>
+          <t>无锡</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1497,12 +1497,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>汕头</t>
+          <t>台州</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1524,7 +1524,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>孝感</t>
+          <t>黄冈</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1541,12 +1541,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>漳州</t>
+          <t>徐州</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1563,12 +1563,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>四川</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>绵阳</t>
+          <t>孝感</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1585,12 +1585,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>衢州</t>
+          <t>汕头</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1607,12 +1607,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>广西</t>
+          <t>四川</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>桂林</t>
+          <t>绵阳</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1629,12 +1629,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>湖南</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>邵阳</t>
+          <t>衢州</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1651,12 +1651,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>漳州</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1673,12 +1673,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>广西</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>临沂</t>
+          <t>桂林</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1695,12 +1695,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>湖南</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>廊坊</t>
+          <t>邵阳</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1717,12 +1717,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>长春</t>
+          <t>廊坊</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1739,12 +1739,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>包头</t>
+          <t>临沂</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1761,12 +1761,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>盐城</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -1783,12 +1783,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>中山</t>
+          <t>长春</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -1805,12 +1805,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>烟台</t>
+          <t>包头</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -1827,12 +1827,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>南通</t>
+          <t>中山</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -1849,12 +1849,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>唐山</t>
+          <t>盐城</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -1871,12 +1871,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>宁波</t>
+          <t>烟台</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -1893,12 +1893,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>宜昌</t>
+          <t>南通</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -1915,12 +1915,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>温州</t>
+          <t>宜昌</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -1937,12 +1937,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>唐山</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -1959,12 +1959,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>大兴安岭</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -1981,12 +1981,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>盘锦</t>
+          <t>温州</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2003,12 +2003,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>双鸭山</t>
+          <t>宁波</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2030,7 +2030,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>鸡西</t>
+          <t>大兴安岭</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2047,12 +2047,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>云南</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>大理</t>
+          <t>盘锦</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2069,12 +2069,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>湖南</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>鸡西</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2091,12 +2091,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>洛阳</t>
+          <t>双鸭山</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2113,12 +2113,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>云南</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>东莞</t>
+          <t>大理</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2135,12 +2135,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>佛山</t>
+          <t>洛阳</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2157,12 +2157,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>云南</t>
+          <t>湖南</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>昆明</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2179,12 +2179,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>宁夏</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>银川</t>
+          <t>佛山</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2201,12 +2201,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>甘肃</t>
+          <t>宁夏</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>兰州</t>
+          <t>银川</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2223,12 +2223,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>云南</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>昆明</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2245,12 +2245,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>呼和浩特</t>
+          <t>东莞</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2267,12 +2267,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>甘肃</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>沈阳</t>
+          <t>兰州</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2289,12 +2289,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>陕西</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>呼和浩特</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2311,12 +2311,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2333,12 +2333,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>沈阳</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2355,12 +2355,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>陕西</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2377,12 +2377,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2394,66 +2394,66 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>联通</t>
+          <t>移动</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>济南</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>联通</t>
+          <t>移动</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>江西</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>联通</t>
+          <t>移动</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>长春</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -2465,12 +2465,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>广西</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>南宁</t>
+          <t>济南</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2487,12 +2487,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>长春</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2509,12 +2509,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>贵州</t>
+          <t>江西</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>贵阳</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2531,17 +2531,17 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>广西</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>南宁</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -2553,17 +2553,17 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>沈阳</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -2575,17 +2575,17 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>贵州</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>哈尔滨</t>
+          <t>贵阳</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -2597,17 +2597,17 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -2619,17 +2619,17 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>呼和浩特</t>
+          <t>沈阳</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -2641,15 +2641,81 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
+          <t>黑龙江</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>哈尔滨</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>海南</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>海南</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>内蒙古</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>呼和浩特</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>较多</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>联通</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
           <t>宁夏</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="C104" t="inlineStr">
         <is>
           <t>银川</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="D104" t="inlineStr">
         <is>
           <t>较多</t>
         </is>

--- a/data/sourse.xlsx
+++ b/data/sourse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:D103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -556,7 +556,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>邢台</t>
+          <t>沧州</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -815,12 +815,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>沧州</t>
+          <t>七台河</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -837,12 +837,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>七台河</t>
+          <t>常州</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -859,12 +859,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>常州</t>
+          <t>绥化</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -881,12 +881,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>绥化</t>
+          <t>商丘</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -903,12 +903,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>商丘</t>
+          <t>鞍山</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -925,12 +925,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>鞍山</t>
+          <t>大庆</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -947,12 +947,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>大庆</t>
+          <t>葫芦岛</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -969,12 +969,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>葫芦岛</t>
+          <t>黑河</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -991,12 +991,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>黑河</t>
+          <t>通辽</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1013,12 +1013,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>广西</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>通辽</t>
+          <t>柳州</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1035,12 +1035,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>广西</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>柳州</t>
+          <t>四平</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1057,17 +1057,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>四平</t>
+          <t>平顶山</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -1079,12 +1079,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>平顶山</t>
+          <t>白城</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1101,12 +1101,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>白城</t>
+          <t>韶关</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1123,12 +1123,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>韶关</t>
+          <t>佳木斯</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1145,12 +1145,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>佳木斯</t>
+          <t>淄博</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1167,12 +1167,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>江西</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>淄博</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1189,12 +1189,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>江西</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>长治</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1211,12 +1211,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>长治</t>
+          <t>通化</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1233,12 +1233,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>通化</t>
+          <t>肇庆</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1255,12 +1255,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>肇庆</t>
+          <t>淮安</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1277,12 +1277,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>淮安</t>
+          <t>秦皇岛</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1475,12 +1475,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>秦皇岛</t>
+          <t>台州</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1497,12 +1497,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>台州</t>
+          <t>黄冈</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1519,12 +1519,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>黄冈</t>
+          <t>徐州</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1541,12 +1541,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>徐州</t>
+          <t>孝感</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1563,12 +1563,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>孝感</t>
+          <t>汕头</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1585,12 +1585,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>四川</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>汕头</t>
+          <t>绵阳</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1607,12 +1607,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>四川</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>绵阳</t>
+          <t>衢州</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1629,12 +1629,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>衢州</t>
+          <t>漳州</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1651,12 +1651,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>漳州</t>
+          <t>廊坊</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1717,12 +1717,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>廊坊</t>
+          <t>临沂</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1739,12 +1739,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>临沂</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1761,12 +1761,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>长春</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -1783,12 +1783,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>长春</t>
+          <t>包头</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -1805,12 +1805,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>包头</t>
+          <t>中山</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -1827,12 +1827,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>中山</t>
+          <t>盐城</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -1849,12 +1849,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>盐城</t>
+          <t>烟台</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -1871,12 +1871,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>烟台</t>
+          <t>南通</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -1893,12 +1893,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>南通</t>
+          <t>宜昌</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -1915,12 +1915,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>宜昌</t>
+          <t>唐山</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -1937,12 +1937,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>唐山</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -1959,12 +1959,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>温州</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -1986,7 +1986,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>温州</t>
+          <t>宁波</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2003,12 +2003,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>宁波</t>
+          <t>大兴安岭</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2025,12 +2025,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>大兴安岭</t>
+          <t>盘锦</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2047,12 +2047,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>盘锦</t>
+          <t>鸡西</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>鸡西</t>
+          <t>双鸭山</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2091,12 +2091,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>云南</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>双鸭山</t>
+          <t>大理</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2113,12 +2113,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>云南</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>大理</t>
+          <t>洛阳</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2135,12 +2135,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>湖南</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>洛阳</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2157,12 +2157,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>湖南</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>佛山</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2179,12 +2179,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>宁夏</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>佛山</t>
+          <t>银川</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2201,12 +2201,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>宁夏</t>
+          <t>云南</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>银川</t>
+          <t>昆明</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2223,12 +2223,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>云南</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>昆明</t>
+          <t>东莞</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2245,12 +2245,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>甘肃</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>东莞</t>
+          <t>兰州</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2267,12 +2267,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>甘肃</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>兰州</t>
+          <t>呼和浩特</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2289,12 +2289,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>呼和浩特</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2311,12 +2311,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>沈阳</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2333,12 +2333,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>陕西</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>沈阳</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2355,12 +2355,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>陕西</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2377,12 +2377,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2399,12 +2399,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2421,12 +2421,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2438,22 +2438,22 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>移动</t>
+          <t>联通</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>济南</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -2465,12 +2465,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>济南</t>
+          <t>长春</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2487,12 +2487,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>江西</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>长春</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2509,12 +2509,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>江西</t>
+          <t>广西</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>南宁</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2531,12 +2531,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>广西</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>南宁</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2553,12 +2553,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>贵州</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>贵阳</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2575,17 +2575,17 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>贵州</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>贵阳</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -2597,12 +2597,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>沈阳</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -2619,17 +2619,17 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>沈阳</t>
+          <t>哈尔滨</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -2641,12 +2641,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>哈尔滨</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -2663,12 +2663,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>呼和浩特</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -2685,37 +2685,15 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>宁夏</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>呼和浩特</t>
+          <t>银川</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>宁夏</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>银川</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
         <is>
           <t>较多</t>
         </is>

--- a/data/sourse.xlsx
+++ b/data/sourse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D103"/>
+  <dimension ref="A1:D100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,12 +463,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>福州</t>
+          <t>沧州</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,12 +485,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>江西</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>上饶</t>
+          <t>十堰</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -507,12 +507,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>泉州</t>
+          <t>大同</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -529,17 +529,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>十堰</t>
+          <t>南平</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -551,17 +551,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>沧州</t>
+          <t>丹东</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -573,12 +573,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>南平</t>
+          <t>松原</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -595,12 +595,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>丹东</t>
+          <t>赤峰</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -617,12 +617,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>大同</t>
+          <t>本溪</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -639,12 +639,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>松原</t>
+          <t>锦州</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -661,12 +661,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>赤峰</t>
+          <t>濮阳</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -683,12 +683,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>本溪</t>
+          <t>牡丹江</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>锦州</t>
+          <t>朝阳</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -727,12 +727,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>江西</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>濮阳</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -749,12 +749,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>牡丹江</t>
+          <t>莱芜</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -771,12 +771,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>朝阳</t>
+          <t>常州</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -793,12 +793,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>莱芜</t>
+          <t>七台河</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -815,12 +815,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>七台河</t>
+          <t>商丘</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -837,12 +837,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>常州</t>
+          <t>绥化</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -859,12 +859,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>绥化</t>
+          <t>鞍山</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -881,12 +881,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>商丘</t>
+          <t>大庆</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -903,12 +903,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>鞍山</t>
+          <t>平顶山</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -925,12 +925,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>大庆</t>
+          <t>葫芦岛</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -947,12 +947,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>葫芦岛</t>
+          <t>通辽</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -991,12 +991,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>广西</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>通辽</t>
+          <t>柳州</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1013,12 +1013,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>广西</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>柳州</t>
+          <t>四平</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1040,12 +1040,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>四平</t>
+          <t>白城</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -1057,12 +1057,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>平顶山</t>
+          <t>淄博</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1079,12 +1079,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>白城</t>
+          <t>韶关</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1101,12 +1101,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>韶关</t>
+          <t>佳木斯</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1123,12 +1123,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>佳木斯</t>
+          <t>淮安</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1145,12 +1145,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>淄博</t>
+          <t>长治</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1167,12 +1167,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>江西</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>通化</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1189,12 +1189,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>长治</t>
+          <t>肇庆</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1211,12 +1211,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>通化</t>
+          <t>秦皇岛</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1233,12 +1233,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>肇庆</t>
+          <t>晋中</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1255,12 +1255,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>安徽</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>淮安</t>
+          <t>蚌埠</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1277,12 +1277,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>秦皇岛</t>
+          <t>安阳</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1299,12 +1299,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>晋中</t>
+          <t>徐州</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1321,12 +1321,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>安徽</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>蚌埠</t>
+          <t>无锡</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1343,12 +1343,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>安阳</t>
+          <t>齐齐哈尔</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1365,12 +1365,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>云南</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>齐齐哈尔</t>
+          <t>红河</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1387,12 +1387,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>云南</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>红河</t>
+          <t>镇江</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1409,12 +1409,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>镇江</t>
+          <t>台州</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1431,12 +1431,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>四川</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>德阳</t>
+          <t>黄冈</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1453,12 +1453,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>四川</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>无锡</t>
+          <t>德阳</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1475,12 +1475,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>台州</t>
+          <t>汕头</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1502,7 +1502,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>黄冈</t>
+          <t>孝感</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1519,12 +1519,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>徐州</t>
+          <t>漳州</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1541,12 +1541,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>四川</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>孝感</t>
+          <t>绵阳</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1563,12 +1563,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>汕头</t>
+          <t>衢州</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1585,12 +1585,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>四川</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>绵阳</t>
+          <t>廊坊</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1607,12 +1607,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>广西</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>衢州</t>
+          <t>桂林</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1629,12 +1629,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>湖南</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>漳州</t>
+          <t>邵阳</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1651,12 +1651,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>廊坊</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1673,12 +1673,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>广西</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>桂林</t>
+          <t>临沂</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1695,12 +1695,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>湖南</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>邵阳</t>
+          <t>长春</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1717,12 +1717,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>临沂</t>
+          <t>包头</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1739,12 +1739,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>海南</t>
+          <t>盐城</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1761,12 +1761,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>长春</t>
+          <t>中山</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -1783,12 +1783,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>包头</t>
+          <t>烟台</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -1805,12 +1805,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>中山</t>
+          <t>南通</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -1827,12 +1827,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>盐城</t>
+          <t>唐山</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -1849,12 +1849,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>烟台</t>
+          <t>宁波</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -1871,12 +1871,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>南通</t>
+          <t>宜昌</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -1893,12 +1893,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>宜昌</t>
+          <t>温州</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -1915,12 +1915,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>唐山</t>
+          <t>大连</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -1937,12 +1937,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>大连</t>
+          <t>大兴安岭</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -1959,12 +1959,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>温州</t>
+          <t>盘锦</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -1981,12 +1981,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>宁波</t>
+          <t>双鸭山</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>大兴安岭</t>
+          <t>鸡西</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2025,12 +2025,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>云南</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>盘锦</t>
+          <t>大理</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2047,12 +2047,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>湖南</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>鸡西</t>
+          <t>长沙</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2069,12 +2069,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>双鸭山</t>
+          <t>洛阳</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2091,12 +2091,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>云南</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>大理</t>
+          <t>东莞</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2113,12 +2113,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>洛阳</t>
+          <t>佛山</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2135,12 +2135,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>湖南</t>
+          <t>云南</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>长沙</t>
+          <t>昆明</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2157,12 +2157,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>宁夏</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>佛山</t>
+          <t>银川</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2179,12 +2179,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>宁夏</t>
+          <t>甘肃</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>银川</t>
+          <t>兰州</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2201,12 +2201,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>云南</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>昆明</t>
+          <t>呼和浩特</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2223,12 +2223,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>东莞</t>
+          <t>天津</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2245,12 +2245,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>甘肃</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>兰州</t>
+          <t>沈阳</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2267,12 +2267,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>内蒙古</t>
+          <t>陕西</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>呼和浩特</t>
+          <t>西安</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2289,12 +2289,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>天津</t>
+          <t>深圳</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2311,12 +2311,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>沈阳</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2333,12 +2333,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>陕西</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>西安</t>
+          <t>武汉</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2355,12 +2355,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>深圳</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2372,66 +2372,66 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>移动</t>
+          <t>联通</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>济南</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>移动</t>
+          <t>联通</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>吉林</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>武汉</t>
+          <t>长春</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>移动</t>
+          <t>联通</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>江西</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>较多</t>
+          <t>较少</t>
         </is>
       </c>
     </row>
@@ -2443,12 +2443,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>广西</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>济南</t>
+          <t>南宁</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2465,12 +2465,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>吉林</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>长春</t>
+          <t>太原</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2487,12 +2487,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>江西</t>
+          <t>贵州</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>贵阳</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2509,17 +2509,17 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>广西</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>南宁</t>
+          <t>厦门</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -2531,17 +2531,17 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>太原</t>
+          <t>沈阳</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>足够</t>
         </is>
       </c>
     </row>
@@ -2553,17 +2553,17 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>贵州</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>贵阳</t>
+          <t>哈尔滨</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>较少</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -2575,17 +2575,17 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>厦门</t>
+          <t>海南</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -2597,17 +2597,17 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>内蒙古</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>沈阳</t>
+          <t>呼和浩特</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>足够</t>
+          <t>较多</t>
         </is>
       </c>
     </row>
@@ -2619,81 +2619,15 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>宁夏</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>哈尔滨</t>
+          <t>银川</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>海南</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>海南</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>内蒙古</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>呼和浩特</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>较多</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>联通</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>宁夏</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>银川</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
         <is>
           <t>较多</t>
         </is>

--- a/data/sourse.xlsx
+++ b/data/sourse.xlsx
@@ -683,12 +683,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>黑龙江</t>
+          <t>江西</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>牡丹江</t>
+          <t>南昌</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>黑龙江</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>朝阳</t>
+          <t>牡丹江</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -727,12 +727,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>江西</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>南昌</t>
+          <t>朝阳</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
